--- a/OverheadSigns/OverheadSigns_FY2020.xlsx
+++ b/OverheadSigns/OverheadSigns_FY2020.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="623">
   <si>
     <t>COA_INTERSECTION_ID</t>
   </si>
@@ -254,6 +254,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/eTc2mkahdUuSfc6s6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ikPe5XVALMprJcoF7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mNBumUc7gttzXLdd7</t>
+    </r>
+  </si>
+  <si>
     <t>215</t>
   </si>
   <si>
@@ -274,6 +307,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Lsgmy28B4GABqmX68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ebQA2zvmnVUEpJoh8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mtSxiUVEnhpcMVY4A</t>
+    </r>
+  </si>
+  <si>
     <t>353</t>
   </si>
   <si>
@@ -294,6 +360,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/aFcYh4NAitWtz9ub7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/CWYdnk9KDRH8HdDt6</t>
+    </r>
+  </si>
+  <si>
     <t>354</t>
   </si>
   <si>
@@ -314,6 +402,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/G9KvyhCs7VFVoZ3x5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/NcbUvNmMPq6T9BLC9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HL7mhnPkcJmY49UV7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/WQqjmhBf9U7AKPCg9</t>
+    </r>
+  </si>
+  <si>
     <t>360</t>
   </si>
   <si>
@@ -334,6 +466,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/kYHnjfp6iRfgPPuT9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HjQKPLDesBqJ47xs7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Ac1brWncDHnREoQ28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/AJvQH3w5Ykjt4Ne77</t>
+    </r>
+  </si>
+  <si>
     <t>362</t>
   </si>
   <si>
@@ -354,6 +530,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KfTyBXtxKvxxHVdJ7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/SqwbxXa4DVec8Dbm7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Xske3xjnPf7Qs3kc8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/vG9BZ4o84Cqt7oEeA</t>
+    </r>
+  </si>
+  <si>
     <t>378</t>
   </si>
   <si>
@@ -374,6 +594,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/owWUXp174u6tNUJu7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/qB6ZaGEoYkWC3NDM6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/C6LXgqK1zyWjyX1r6</t>
+    </r>
+  </si>
+  <si>
     <t>430</t>
   </si>
   <si>
@@ -394,6 +647,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/h6uXsaV9bYHMW9YQ7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mSzmznfYnKdNauEw7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/1v5WcNvHGMomsyGX8</t>
+    </r>
+  </si>
+  <si>
     <t>460</t>
   </si>
   <si>
@@ -414,6 +700,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xgPiGvjLNLPVHfL18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/7STdZhWoLcTsuR5Z7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/P54q71Cw6FXTGiMXA</t>
+    </r>
+  </si>
+  <si>
     <t>482</t>
   </si>
   <si>
@@ -434,6 +753,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/gtUiKFCkShwmu8NB9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/GWyhXnTaKedRy8MP9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/iBKdf2YpgAFdhwLw9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/GbQpkGeNAoixWBWA8</t>
+    </r>
+  </si>
+  <si>
     <t>537</t>
   </si>
   <si>
@@ -454,6 +817,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/bCSXAKwduCcXt5Xj8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HRLSGL9KEBUMrY1DA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RXwu5mkxJsowPiHs8</t>
+    </r>
+  </si>
+  <si>
     <t>540</t>
   </si>
   <si>
@@ -474,6 +870,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mZ7VHUAEs72kwtGb6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/kkes2x9iAUebhLxD9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/m93XQd7ybtgujXC76</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/DfEHBqS9TS7bz7rF6</t>
+    </r>
+  </si>
+  <si>
     <t>575</t>
   </si>
   <si>
@@ -494,6 +934,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/1GsiynEvacFT8DiP6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/pHncQM1rzU4V1jRX8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/skPpreuaKF4FfY8Y8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/2x4MWcSYj9yeRo7C8</t>
+    </r>
+  </si>
+  <si>
     <t>599</t>
   </si>
   <si>
@@ -514,6 +998,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Kok2xGkumy7vnqzm8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ZTUxNMvtv9RKqKtG9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RskqPeG4TucRVCmq5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/XhptNTTXKufoFBdW7</t>
+    </r>
+  </si>
+  <si>
     <t>630</t>
   </si>
   <si>
@@ -534,6 +1062,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/1xW3rsFtTKJkHaxA8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/NktWmBBCeFJ1j9wd8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/4LKusUT7zL1BmuyU6</t>
+    </r>
+  </si>
+  <si>
     <t>682</t>
   </si>
   <si>
@@ -554,6 +1115,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Ye2VBxJbcBVdL4e38</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Ngm11dNPp3aEq6d56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/vW8ugTPKj1jCifg9A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/DXJv8JPo1FaB3b7EA</t>
+    </r>
+  </si>
+  <si>
     <t>709</t>
   </si>
   <si>
@@ -574,6 +1179,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/StPW5QKrWcCb6oYL8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ELhdudMYwi7fEDgR8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Zx1ePbrg9sxwkWn78</t>
+    </r>
+  </si>
+  <si>
     <t>744</t>
   </si>
   <si>
@@ -614,6 +1252,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/9bGzpEfNqBLdmtZr6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/2yxBtpYLnatQQSu26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/PWdP5kdXX5B2VVqNA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/3NjYC91WEaWtmKhM7</t>
+    </r>
+  </si>
+  <si>
     <t>820</t>
   </si>
   <si>
@@ -634,6 +1316,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/3ZzaBcXXZJrBFwMT8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/nZe51S1o4Loxyv9y8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/FyLizqvJAZmQ2oKGA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/iPYtAR1ogPLaHDmL6</t>
+    </r>
+  </si>
+  <si>
     <t>824</t>
   </si>
   <si>
@@ -654,6 +1380,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Mj9iqTXqkVGnsuEGA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/S2mUgbAgNVGMQLCJ6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/F3kUyuwCrYJ8pjPG9</t>
+    </r>
+  </si>
+  <si>
     <t>826</t>
   </si>
   <si>
@@ -674,6 +1433,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/i9wm4VJktrbuwo59A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/2tivRMpLxKszzBKd8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5NQDv1Mn8earSwgH6</t>
+    </r>
+  </si>
+  <si>
     <t>827</t>
   </si>
   <si>
@@ -691,6 +1483,50 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>https://www.google.com/maps/place/FM+2222+RD+%26+RIVER+PLACE+BLVD,+Austin,+TX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/pAiz4k1UjJPC6R336</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RgEDDH61gx16sZKC9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Dtx1sTmMRLtGqQqJ8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RrwVJqjxxmp1k1JF9</t>
     </r>
   </si>
   <si>
@@ -2978,54 +3814,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>411667</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>746572</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>453390</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4450267" y="25863550"/>
-          <a:ext cx="334906" cy="256540"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4340,17 +5128,25 @@
         <f>HYPERLINK(G6)</f>
         <v>42</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="I6" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M6" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="133" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="9">
         <v>5155383</v>
@@ -4359,28 +5155,36 @@
         <v>13</v>
       </c>
       <c r="D7" t="s" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" t="s" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="12">
         <f>HYPERLINK(G7)</f>
-        <v>46</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="I7" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s" s="12">
+        <v>52</v>
+      </c>
       <c r="M7" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="8" ht="133" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B8" s="9">
         <v>5160282</v>
@@ -4389,28 +5193,36 @@
         <v>13</v>
       </c>
       <c r="D8" t="s" s="10">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" t="s" s="12">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s" s="12">
         <f>HYPERLINK(G8)</f>
-        <v>50</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="I8" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s" s="12">
+        <v>57</v>
+      </c>
+      <c r="L8" t="s" s="12">
+        <v>58</v>
+      </c>
       <c r="M8" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="9" ht="133" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B9" s="9">
         <v>5160710</v>
@@ -4419,28 +5231,36 @@
         <v>13</v>
       </c>
       <c r="D9" t="s" s="10">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" t="s" s="12">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s" s="12">
         <f>HYPERLINK(G9)</f>
-        <v>54</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="I9" t="s" s="12">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s" s="12">
+        <v>64</v>
+      </c>
+      <c r="K9" t="s" s="12">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s" s="12">
+        <v>66</v>
+      </c>
       <c r="M9" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="159" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B10" s="9">
         <v>5159987</v>
@@ -4449,28 +5269,36 @@
         <v>13</v>
       </c>
       <c r="D10" t="s" s="10">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" t="s" s="12">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s" s="12">
         <f>HYPERLINK(G10)</f>
-        <v>58</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="I10" t="s" s="12">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s" s="12">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s" s="12">
+        <v>74</v>
+      </c>
       <c r="M10" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="11" ht="146" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B11" s="9">
         <v>5160864</v>
@@ -4479,28 +5307,36 @@
         <v>13</v>
       </c>
       <c r="D11" t="s" s="10">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" t="s" s="12">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="12">
         <f>HYPERLINK(G11)</f>
-        <v>62</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="12">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s" s="12">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s" s="12">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s" s="12">
+        <v>82</v>
+      </c>
       <c r="M11" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="12" ht="146" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B12" s="9">
         <v>5155694</v>
@@ -4509,28 +5345,36 @@
         <v>13</v>
       </c>
       <c r="D12" t="s" s="10">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" t="s" s="12">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="12">
         <f>HYPERLINK(G12)</f>
-        <v>66</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="I12" t="s" s="12">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s" s="12">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s" s="12">
+        <v>89</v>
+      </c>
       <c r="M12" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="13" ht="159" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B13" s="9">
         <v>5153187</v>
@@ -4539,28 +5383,36 @@
         <v>13</v>
       </c>
       <c r="D13" t="s" s="10">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" t="s" s="12">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="12">
         <f>HYPERLINK(G13)</f>
-        <v>70</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="I13" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s" s="12">
+        <v>94</v>
+      </c>
+      <c r="K13" t="s" s="12">
+        <v>95</v>
+      </c>
+      <c r="L13" t="s" s="12">
+        <v>96</v>
+      </c>
       <c r="M13" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="14" ht="159" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B14" s="9">
         <v>5159117</v>
@@ -4569,28 +5421,36 @@
         <v>13</v>
       </c>
       <c r="D14" t="s" s="10">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" t="s" s="12">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s" s="12">
         <f>HYPERLINK(G14)</f>
-        <v>74</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+        <v>100</v>
+      </c>
+      <c r="I14" t="s" s="12">
+        <v>101</v>
+      </c>
+      <c r="J14" t="s" s="12">
+        <v>102</v>
+      </c>
+      <c r="K14" t="s" s="12">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M14" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="15" ht="146" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B15" s="9">
         <v>5160094</v>
@@ -4599,28 +5459,36 @@
         <v>13</v>
       </c>
       <c r="D15" t="s" s="10">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" t="s" s="12">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s" s="12">
         <f>HYPERLINK(G15)</f>
-        <v>78</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+        <v>107</v>
+      </c>
+      <c r="I15" t="s" s="12">
+        <v>108</v>
+      </c>
+      <c r="J15" t="s" s="12">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s" s="12">
+        <v>110</v>
+      </c>
+      <c r="L15" t="s" s="12">
+        <v>111</v>
+      </c>
       <c r="M15" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="16" ht="146" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="B16" s="9">
         <v>5164586</v>
@@ -4629,28 +5497,36 @@
         <v>13</v>
       </c>
       <c r="D16" t="s" s="10">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" t="s" s="12">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s" s="12">
         <f>HYPERLINK(G16)</f>
-        <v>82</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="I16" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s" s="12">
+        <v>116</v>
+      </c>
+      <c r="K16" t="s" s="12">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s" s="12">
+        <v>118</v>
+      </c>
       <c r="M16" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="17" ht="146" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B17" s="9">
         <v>5166825</v>
@@ -4659,28 +5535,36 @@
         <v>13</v>
       </c>
       <c r="D17" t="s" s="10">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" t="s" s="12">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s" s="12">
         <f>HYPERLINK(G17)</f>
-        <v>86</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="I17" t="s" s="12">
+        <v>123</v>
+      </c>
+      <c r="J17" t="s" s="12">
+        <v>124</v>
+      </c>
+      <c r="K17" t="s" s="12">
+        <v>125</v>
+      </c>
+      <c r="L17" t="s" s="12">
+        <v>126</v>
+      </c>
       <c r="M17" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="18" ht="146" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
@@ -4689,28 +5573,36 @@
         <v>13</v>
       </c>
       <c r="D18" t="s" s="10">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" t="s" s="12">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s" s="12">
         <f>HYPERLINK(G18)</f>
-        <v>90</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="I18" t="s" s="12">
+        <v>131</v>
+      </c>
+      <c r="J18" t="s" s="12">
+        <v>132</v>
+      </c>
+      <c r="K18" t="s" s="12">
+        <v>133</v>
+      </c>
+      <c r="L18" t="s" s="12">
+        <v>134</v>
+      </c>
       <c r="M18" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="19" ht="172" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B19" s="9">
         <v>5165374</v>
@@ -4719,28 +5611,36 @@
         <v>13</v>
       </c>
       <c r="D19" t="s" s="10">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" t="s" s="12">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s" s="12">
         <f>HYPERLINK(G19)</f>
-        <v>94</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+        <v>138</v>
+      </c>
+      <c r="I19" t="s" s="12">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s" s="12">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s" s="12">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s" s="12">
+        <v>142</v>
+      </c>
       <c r="M19" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="20" ht="133" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B20" s="9">
         <v>0</v>
@@ -4749,28 +5649,36 @@
         <v>13</v>
       </c>
       <c r="D20" t="s" s="10">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" t="s" s="12">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s" s="12">
         <f>HYPERLINK(G20)</f>
-        <v>98</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="I20" t="s" s="12">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s" s="12">
+        <v>148</v>
+      </c>
+      <c r="L20" t="s" s="12">
+        <v>149</v>
+      </c>
       <c r="M20" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="159" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="B21" s="9">
         <v>5155299</v>
@@ -4779,28 +5687,36 @@
         <v>13</v>
       </c>
       <c r="D21" t="s" s="10">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" t="s" s="12">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="H21" t="s" s="12">
         <f>HYPERLINK(G21)</f>
-        <v>102</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+        <v>153</v>
+      </c>
+      <c r="I21" t="s" s="12">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s" s="12">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s" s="12">
+        <v>156</v>
+      </c>
+      <c r="L21" t="s" s="12">
+        <v>157</v>
+      </c>
       <c r="M21" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="22" ht="133" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="B22" s="9">
         <v>5144363</v>
@@ -4809,28 +5725,36 @@
         <v>13</v>
       </c>
       <c r="D22" t="s" s="10">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" t="s" s="12">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="H22" t="s" s="12">
         <f>HYPERLINK(G22)</f>
-        <v>106</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="I22" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s" s="12">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s" s="12">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s" s="12">
+        <v>164</v>
+      </c>
       <c r="M22" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="23" ht="185" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="B23" s="9">
         <v>5150518</v>
@@ -4839,28 +5763,36 @@
         <v>13</v>
       </c>
       <c r="D23" t="s" s="10">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" t="s" s="12">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="H23" t="s" s="12">
         <f>HYPERLINK(G23)</f>
-        <v>110</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="I23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L23" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M23" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="24" ht="159" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="B24" s="9">
         <v>5163156</v>
@@ -4869,28 +5801,36 @@
         <v>13</v>
       </c>
       <c r="D24" t="s" s="10">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" t="s" s="12">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="H24" t="s" s="12">
         <f>HYPERLINK(G24)</f>
-        <v>114</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="I24" t="s" s="12">
+        <v>173</v>
+      </c>
+      <c r="J24" t="s" s="12">
+        <v>174</v>
+      </c>
+      <c r="K24" t="s" s="12">
+        <v>175</v>
+      </c>
+      <c r="L24" t="s" s="12">
+        <v>176</v>
+      </c>
       <c r="M24" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="25" ht="133" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="B25" s="9">
         <v>0</v>
@@ -4899,28 +5839,36 @@
         <v>13</v>
       </c>
       <c r="D25" t="s" s="10">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" t="s" s="12">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="H25" t="s" s="12">
         <f>HYPERLINK(G25)</f>
-        <v>118</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+        <v>180</v>
+      </c>
+      <c r="I25" t="s" s="12">
+        <v>181</v>
+      </c>
+      <c r="J25" t="s" s="12">
+        <v>182</v>
+      </c>
+      <c r="K25" t="s" s="12">
+        <v>183</v>
+      </c>
+      <c r="L25" t="s" s="12">
+        <v>184</v>
+      </c>
       <c r="M25" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="26" ht="146" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="B26" s="9">
         <v>5153208</v>
@@ -4929,28 +5877,36 @@
         <v>13</v>
       </c>
       <c r="D26" t="s" s="10">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" t="s" s="12">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="H26" t="s" s="12">
         <f>HYPERLINK(G26)</f>
-        <v>122</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+        <v>188</v>
+      </c>
+      <c r="I26" t="s" s="12">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s" s="12">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s" s="12">
+        <v>191</v>
+      </c>
+      <c r="L26" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M26" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="27" ht="146" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="B27" s="9">
         <v>5147094</v>
@@ -4959,28 +5915,36 @@
         <v>13</v>
       </c>
       <c r="D27" t="s" s="10">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" t="s" s="12">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="H27" t="s" s="12">
         <f>HYPERLINK(G27)</f>
-        <v>126</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+        <v>195</v>
+      </c>
+      <c r="I27" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s" s="12">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s" s="12">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s" s="12">
+        <v>198</v>
+      </c>
       <c r="M27" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="28" ht="159" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="B28" s="9">
         <v>5146187</v>
@@ -4989,28 +5953,36 @@
         <v>13</v>
       </c>
       <c r="D28" t="s" s="10">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" t="s" s="12">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="H28" t="s" s="12">
         <f>HYPERLINK(G28)</f>
-        <v>130</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+        <v>202</v>
+      </c>
+      <c r="I28" t="s" s="12">
+        <v>203</v>
+      </c>
+      <c r="J28" t="s" s="12">
+        <v>204</v>
+      </c>
+      <c r="K28" t="s" s="12">
+        <v>205</v>
+      </c>
+      <c r="L28" t="s" s="12">
+        <v>206</v>
+      </c>
       <c r="M28" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="29" ht="159" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>131</v>
+        <v>207</v>
       </c>
       <c r="B29" s="9">
         <v>5146502</v>
@@ -5019,16 +5991,16 @@
         <v>13</v>
       </c>
       <c r="D29" t="s" s="10">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" t="s" s="12">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="H29" t="s" s="12">
         <f>HYPERLINK(G29)</f>
-        <v>134</v>
+        <v>210</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
@@ -5040,7 +6012,7 @@
     </row>
     <row r="30" ht="133" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="B30" s="9">
         <v>5159850</v>
@@ -5049,16 +6021,16 @@
         <v>13</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" t="s" s="12">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="H30" t="s" s="12">
         <f>HYPERLINK(G30)</f>
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
@@ -5070,7 +6042,7 @@
     </row>
     <row r="31" ht="146" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="B31" s="9">
         <v>5157168</v>
@@ -5079,16 +6051,16 @@
         <v>13</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" t="s" s="12">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="H31" t="s" s="12">
         <f>HYPERLINK(G31)</f>
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -5100,7 +6072,7 @@
     </row>
     <row r="32" ht="133" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="B32" s="9">
         <v>5154542</v>
@@ -5109,16 +6081,16 @@
         <v>13</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" t="s" s="12">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s" s="12">
         <f>HYPERLINK(G32)</f>
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -5130,7 +6102,7 @@
     </row>
     <row r="33" ht="159" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="B33" s="9">
         <v>5157205</v>
@@ -5139,16 +6111,16 @@
         <v>13</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>148</v>
+        <v>224</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" t="s" s="12">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s" s="12">
         <f>HYPERLINK(G33)</f>
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
@@ -5160,7 +6132,7 @@
     </row>
     <row r="34" ht="133" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="B34" s="9">
         <v>5163091</v>
@@ -5169,16 +6141,16 @@
         <v>13</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>152</v>
+        <v>228</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" t="s" s="12">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="H34" t="s" s="12">
         <f>HYPERLINK(G34)</f>
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="13"/>
@@ -5190,7 +6162,7 @@
     </row>
     <row r="35" ht="159" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -5199,16 +6171,16 @@
         <v>13</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" t="s" s="12">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="H35" t="s" s="12">
         <f>HYPERLINK(G35)</f>
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
@@ -5220,7 +6192,7 @@
     </row>
     <row r="36" ht="133" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="B36" s="9">
         <v>5154124</v>
@@ -5229,16 +6201,16 @@
         <v>13</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" t="s" s="12">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="H36" t="s" s="12">
         <f>HYPERLINK(G36)</f>
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -5250,7 +6222,7 @@
     </row>
     <row r="37" ht="172" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="B37" s="9">
         <v>5157192</v>
@@ -5259,16 +6231,16 @@
         <v>13</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>164</v>
+        <v>240</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" t="s" s="12">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="H37" t="s" s="12">
         <f>HYPERLINK(G37)</f>
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="I37" s="13"/>
       <c r="J37" s="13"/>
@@ -5280,7 +6252,7 @@
     </row>
     <row r="38" ht="146" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c r="B38" s="9">
         <v>5161164</v>
@@ -5289,16 +6261,16 @@
         <v>13</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" t="s" s="12">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c r="H38" t="s" s="12">
         <f>HYPERLINK(G38)</f>
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="I38" s="13"/>
       <c r="J38" s="13"/>
@@ -5310,7 +6282,7 @@
     </row>
     <row r="39" ht="133" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="B39" s="9">
         <v>5158890</v>
@@ -5319,16 +6291,16 @@
         <v>13</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>172</v>
+        <v>248</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" t="s" s="12">
-        <v>173</v>
+        <v>249</v>
       </c>
       <c r="H39" t="s" s="12">
         <f>HYPERLINK(G39)</f>
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
@@ -5340,7 +6312,7 @@
     </row>
     <row r="40" ht="146" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="B40" s="9">
         <v>5158705</v>
@@ -5349,16 +6321,16 @@
         <v>13</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>176</v>
+        <v>252</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" t="s" s="12">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="H40" t="s" s="12">
         <f>HYPERLINK(G40)</f>
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="13"/>
@@ -5370,7 +6342,7 @@
     </row>
     <row r="41" ht="159" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="B41" s="9">
         <v>5158454</v>
@@ -5379,16 +6351,16 @@
         <v>13</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" t="s" s="12">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="H41" t="s" s="12">
         <f>HYPERLINK(G41)</f>
-        <v>182</v>
+        <v>258</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
@@ -5400,7 +6372,7 @@
     </row>
     <row r="42" ht="146" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="B42" s="9">
         <v>5162913</v>
@@ -5409,16 +6381,16 @@
         <v>13</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>184</v>
+        <v>260</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" t="s" s="12">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s" s="12">
         <f>HYPERLINK(G42)</f>
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -5430,7 +6402,7 @@
     </row>
     <row r="43" ht="159" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>187</v>
+        <v>263</v>
       </c>
       <c r="B43" s="9">
         <v>5145747</v>
@@ -5439,16 +6411,16 @@
         <v>13</v>
       </c>
       <c r="D43" t="s" s="10">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" t="s" s="12">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="H43" t="s" s="12">
         <f>HYPERLINK(G43)</f>
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="13"/>
@@ -5460,7 +6432,7 @@
     </row>
     <row r="44" ht="172" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="B44" s="9">
         <v>5147034</v>
@@ -5469,16 +6441,16 @@
         <v>13</v>
       </c>
       <c r="D44" t="s" s="10">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" t="s" s="12">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="H44" t="s" s="12">
         <f>HYPERLINK(G44)</f>
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
@@ -5490,7 +6462,7 @@
     </row>
     <row r="45" ht="146" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="B45" s="9">
         <v>5145335</v>
@@ -5499,16 +6471,16 @@
         <v>13</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" t="s" s="12">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="H45" t="s" s="12">
         <f>HYPERLINK(G45)</f>
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="13"/>
@@ -5520,7 +6492,7 @@
     </row>
     <row r="46" ht="146" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="B46" s="9">
         <v>5148814</v>
@@ -5529,16 +6501,16 @@
         <v>13</v>
       </c>
       <c r="D46" t="s" s="10">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" t="s" s="12">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="H46" t="s" s="12">
         <f>HYPERLINK(G46)</f>
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="13"/>
@@ -5550,7 +6522,7 @@
     </row>
     <row r="47" ht="185" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="B47" s="9">
         <v>5145950</v>
@@ -5559,16 +6531,16 @@
         <v>13</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" t="s" s="12">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="H47" t="s" s="12">
         <f>HYPERLINK(G47)</f>
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="13"/>
@@ -5580,7 +6552,7 @@
     </row>
     <row r="48" ht="159" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="B48" s="9">
         <v>5157233</v>
@@ -5589,16 +6561,16 @@
         <v>13</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>208</v>
+        <v>284</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" t="s" s="12">
-        <v>209</v>
+        <v>285</v>
       </c>
       <c r="H48" t="s" s="12">
         <f>HYPERLINK(G48)</f>
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="13"/>
@@ -5610,7 +6582,7 @@
     </row>
     <row r="49" ht="146" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="B49" s="9">
         <v>5155503</v>
@@ -5619,16 +6591,16 @@
         <v>13</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" t="s" s="12">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="H49" t="s" s="12">
         <f>HYPERLINK(G49)</f>
-        <v>214</v>
+        <v>290</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
@@ -5640,7 +6612,7 @@
     </row>
     <row r="50" ht="146" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>215</v>
+        <v>291</v>
       </c>
       <c r="B50" s="9">
         <v>5155448</v>
@@ -5649,16 +6621,16 @@
         <v>13</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>216</v>
+        <v>292</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" t="s" s="12">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="H50" t="s" s="12">
         <f>HYPERLINK(G50)</f>
-        <v>218</v>
+        <v>294</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="13"/>
@@ -5670,7 +6642,7 @@
     </row>
     <row r="51" ht="146" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>219</v>
+        <v>295</v>
       </c>
       <c r="B51" s="9">
         <v>5162046</v>
@@ -5679,16 +6651,16 @@
         <v>13</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" t="s" s="12">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="H51" t="s" s="12">
         <f>HYPERLINK(G51)</f>
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
@@ -5700,7 +6672,7 @@
     </row>
     <row r="52" ht="146" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="B52" s="9">
         <v>5160439</v>
@@ -5709,16 +6681,16 @@
         <v>13</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>224</v>
+        <v>300</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" t="s" s="12">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="H52" t="s" s="12">
         <f>HYPERLINK(G52)</f>
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
@@ -5730,7 +6702,7 @@
     </row>
     <row r="53" ht="146" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="B53" s="9">
         <v>5149032</v>
@@ -5739,16 +6711,16 @@
         <v>13</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" t="s" s="12">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="H53" t="s" s="12">
         <f>HYPERLINK(G53)</f>
-        <v>230</v>
+        <v>306</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="13"/>
@@ -5760,7 +6732,7 @@
     </row>
     <row r="54" ht="146" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>231</v>
+        <v>307</v>
       </c>
       <c r="B54" s="9">
         <v>5148631</v>
@@ -5769,16 +6741,16 @@
         <v>13</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" t="s" s="12">
-        <v>233</v>
+        <v>309</v>
       </c>
       <c r="H54" t="s" s="12">
         <f>HYPERLINK(G54)</f>
-        <v>234</v>
+        <v>310</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="13"/>
@@ -5790,7 +6762,7 @@
     </row>
     <row r="55" ht="159" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>235</v>
+        <v>311</v>
       </c>
       <c r="B55" s="9">
         <v>5157006</v>
@@ -5799,16 +6771,16 @@
         <v>13</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" t="s" s="12">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="H55" t="s" s="12">
         <f>HYPERLINK(G55)</f>
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
@@ -5820,7 +6792,7 @@
     </row>
     <row r="56" ht="146" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="B56" s="9">
         <v>5159725</v>
@@ -5829,16 +6801,16 @@
         <v>13</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" t="s" s="12">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="H56" t="s" s="12">
         <f>HYPERLINK(G56)</f>
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="13"/>
@@ -5850,7 +6822,7 @@
     </row>
     <row r="57" ht="146" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="B57" s="9">
         <v>5159499</v>
@@ -5859,16 +6831,16 @@
         <v>13</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" t="s" s="12">
-        <v>245</v>
+        <v>321</v>
       </c>
       <c r="H57" t="s" s="12">
         <f>HYPERLINK(G57)</f>
-        <v>246</v>
+        <v>322</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
@@ -5880,7 +6852,7 @@
     </row>
     <row r="58" ht="172" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="B58" s="9">
         <v>5159945</v>
@@ -5889,16 +6861,16 @@
         <v>13</v>
       </c>
       <c r="D58" t="s" s="10">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" t="s" s="12">
-        <v>249</v>
+        <v>325</v>
       </c>
       <c r="H58" t="s" s="12">
         <f>HYPERLINK(G58)</f>
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="13"/>
@@ -5910,7 +6882,7 @@
     </row>
     <row r="59" ht="159" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>251</v>
+        <v>327</v>
       </c>
       <c r="B59" s="9">
         <v>5160822</v>
@@ -5919,16 +6891,16 @@
         <v>13</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" t="s" s="12">
-        <v>253</v>
+        <v>329</v>
       </c>
       <c r="H59" t="s" s="12">
         <f>HYPERLINK(G59)</f>
-        <v>254</v>
+        <v>330</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="13"/>
@@ -5940,7 +6912,7 @@
     </row>
     <row r="60" ht="146" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="B60" s="9">
         <v>5159209</v>
@@ -5949,16 +6921,16 @@
         <v>13</v>
       </c>
       <c r="D60" t="s" s="10">
-        <v>256</v>
+        <v>332</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" t="s" s="12">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="H60" t="s" s="12">
         <f>HYPERLINK(G60)</f>
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="13"/>
@@ -5970,7 +6942,7 @@
     </row>
     <row r="61" ht="146" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="B61" s="9">
         <v>5164152</v>
@@ -5979,16 +6951,16 @@
         <v>13</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" t="s" s="12">
-        <v>261</v>
+        <v>337</v>
       </c>
       <c r="H61" t="s" s="12">
         <f>HYPERLINK(G61)</f>
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
@@ -6000,7 +6972,7 @@
     </row>
     <row r="62" ht="146" customHeight="1">
       <c r="A62" t="s" s="3">
-        <v>263</v>
+        <v>339</v>
       </c>
       <c r="B62" s="9">
         <v>5147719</v>
@@ -6009,16 +6981,16 @@
         <v>13</v>
       </c>
       <c r="D62" t="s" s="10">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" t="s" s="12">
-        <v>265</v>
+        <v>341</v>
       </c>
       <c r="H62" t="s" s="12">
         <f>HYPERLINK(G62)</f>
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
@@ -6030,7 +7002,7 @@
     </row>
     <row r="63" ht="133" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="B63" s="9">
         <v>0</v>
@@ -6039,16 +7011,16 @@
         <v>13</v>
       </c>
       <c r="D63" t="s" s="10">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" t="s" s="12">
-        <v>269</v>
+        <v>345</v>
       </c>
       <c r="H63" t="s" s="12">
         <f>HYPERLINK(G63)</f>
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
@@ -6060,7 +7032,7 @@
     </row>
     <row r="64" ht="159" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="B64" s="9">
         <v>5147070</v>
@@ -6069,16 +7041,16 @@
         <v>13</v>
       </c>
       <c r="D64" t="s" s="10">
-        <v>272</v>
+        <v>348</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" t="s" s="12">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="H64" t="s" s="12">
         <f>HYPERLINK(G64)</f>
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
@@ -6090,7 +7062,7 @@
     </row>
     <row r="65" ht="146" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="B65" s="9">
         <v>5147263</v>
@@ -6099,16 +7071,16 @@
         <v>13</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" t="s" s="12">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="H65" t="s" s="12">
         <f>HYPERLINK(G65)</f>
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
@@ -6120,7 +7092,7 @@
     </row>
     <row r="66" ht="133" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="B66" s="9">
         <v>0</v>
@@ -6129,16 +7101,16 @@
         <v>13</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" t="s" s="12">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="H66" t="s" s="12">
         <f>HYPERLINK(G66)</f>
-        <v>282</v>
+        <v>358</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
@@ -6150,7 +7122,7 @@
     </row>
     <row r="67" ht="146" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>283</v>
+        <v>359</v>
       </c>
       <c r="B67" s="9">
         <v>5148311</v>
@@ -6159,16 +7131,16 @@
         <v>13</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>284</v>
+        <v>360</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" t="s" s="12">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="H67" t="s" s="12">
         <f>HYPERLINK(G67)</f>
-        <v>286</v>
+        <v>362</v>
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
@@ -6180,7 +7152,7 @@
     </row>
     <row r="68" ht="146" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>287</v>
+        <v>363</v>
       </c>
       <c r="B68" s="9">
         <v>5160988</v>
@@ -6189,16 +7161,16 @@
         <v>13</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>288</v>
+        <v>364</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" t="s" s="12">
-        <v>289</v>
+        <v>365</v>
       </c>
       <c r="H68" t="s" s="12">
         <f>HYPERLINK(G68)</f>
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
@@ -6210,7 +7182,7 @@
     </row>
     <row r="69" ht="133" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>291</v>
+        <v>367</v>
       </c>
       <c r="B69" s="9">
         <v>0</v>
@@ -6219,16 +7191,16 @@
         <v>13</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>292</v>
+        <v>368</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" t="s" s="12">
-        <v>293</v>
+        <v>369</v>
       </c>
       <c r="H69" t="s" s="12">
         <f>HYPERLINK(G69)</f>
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
@@ -6240,7 +7212,7 @@
     </row>
     <row r="70" ht="146" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>295</v>
+        <v>371</v>
       </c>
       <c r="B70" s="9">
         <v>5160391</v>
@@ -6249,16 +7221,16 @@
         <v>13</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>296</v>
+        <v>372</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" t="s" s="12">
-        <v>297</v>
+        <v>373</v>
       </c>
       <c r="H70" t="s" s="12">
         <f>HYPERLINK(G70)</f>
-        <v>298</v>
+        <v>374</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
@@ -6270,7 +7242,7 @@
     </row>
     <row r="71" ht="159" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="B71" s="9">
         <v>5145471</v>
@@ -6279,16 +7251,16 @@
         <v>13</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" t="s" s="12">
-        <v>301</v>
+        <v>377</v>
       </c>
       <c r="H71" t="s" s="12">
         <f>HYPERLINK(G71)</f>
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
@@ -6300,7 +7272,7 @@
     </row>
     <row r="72" ht="146" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="B72" s="9">
         <v>5161236</v>
@@ -6309,16 +7281,16 @@
         <v>13</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" t="s" s="12">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="H72" t="s" s="12">
         <f>HYPERLINK(G72)</f>
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
@@ -6330,7 +7302,7 @@
     </row>
     <row r="73" ht="133" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="B73" s="9">
         <v>0</v>
@@ -6339,16 +7311,16 @@
         <v>13</v>
       </c>
       <c r="D73" t="s" s="10">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" t="s" s="12">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="H73" t="s" s="12">
         <f>HYPERLINK(G73)</f>
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
@@ -6360,7 +7332,7 @@
     </row>
     <row r="74" ht="146" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="B74" s="9">
         <v>5154281</v>
@@ -6369,16 +7341,16 @@
         <v>13</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>312</v>
+        <v>388</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" t="s" s="12">
-        <v>313</v>
+        <v>389</v>
       </c>
       <c r="H74" t="s" s="12">
         <f>HYPERLINK(G74)</f>
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -6390,7 +7362,7 @@
     </row>
     <row r="75" ht="146" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="B75" s="9">
         <v>5155626</v>
@@ -6399,16 +7371,16 @@
         <v>13</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" t="s" s="12">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="H75" t="s" s="12">
         <f>HYPERLINK(G75)</f>
-        <v>318</v>
+        <v>394</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -6420,7 +7392,7 @@
     </row>
     <row r="76" ht="146" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="B76" s="9">
         <v>5151313</v>
@@ -6429,16 +7401,16 @@
         <v>13</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>320</v>
+        <v>396</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" t="s" s="12">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="H76" t="s" s="12">
         <f>HYPERLINK(G76)</f>
-        <v>322</v>
+        <v>398</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -6450,7 +7422,7 @@
     </row>
     <row r="77" ht="133" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="B77" s="9">
         <v>5153901</v>
@@ -6459,16 +7431,16 @@
         <v>13</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>324</v>
+        <v>400</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" t="s" s="12">
-        <v>325</v>
+        <v>401</v>
       </c>
       <c r="H77" t="s" s="12">
         <f>HYPERLINK(G77)</f>
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="I77" s="13"/>
       <c r="J77" s="13"/>
@@ -6480,7 +7452,7 @@
     </row>
     <row r="78" ht="146" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>327</v>
+        <v>403</v>
       </c>
       <c r="B78" s="9">
         <v>5149245</v>
@@ -6489,16 +7461,16 @@
         <v>13</v>
       </c>
       <c r="D78" t="s" s="10">
-        <v>328</v>
+        <v>404</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" t="s" s="12">
-        <v>329</v>
+        <v>405</v>
       </c>
       <c r="H78" t="s" s="12">
         <f>HYPERLINK(G78)</f>
-        <v>330</v>
+        <v>406</v>
       </c>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
@@ -6510,7 +7482,7 @@
     </row>
     <row r="79" ht="159" customHeight="1">
       <c r="A79" t="s" s="3">
-        <v>331</v>
+        <v>407</v>
       </c>
       <c r="B79" s="9">
         <v>5162641</v>
@@ -6519,16 +7491,16 @@
         <v>13</v>
       </c>
       <c r="D79" t="s" s="10">
-        <v>332</v>
+        <v>408</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" t="s" s="12">
-        <v>333</v>
+        <v>409</v>
       </c>
       <c r="H79" t="s" s="12">
         <f>HYPERLINK(G79)</f>
-        <v>334</v>
+        <v>410</v>
       </c>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
@@ -6540,7 +7512,7 @@
     </row>
     <row r="80" ht="146" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>335</v>
+        <v>411</v>
       </c>
       <c r="B80" s="9">
         <v>5152078</v>
@@ -6549,16 +7521,16 @@
         <v>13</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" t="s" s="12">
-        <v>337</v>
+        <v>413</v>
       </c>
       <c r="H80" t="s" s="12">
         <f>HYPERLINK(G80)</f>
-        <v>338</v>
+        <v>414</v>
       </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
@@ -6570,7 +7542,7 @@
     </row>
     <row r="81" ht="172" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="B81" s="9">
         <v>5148341</v>
@@ -6579,16 +7551,16 @@
         <v>13</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" t="s" s="12">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="H81" t="s" s="12">
         <f>HYPERLINK(G81)</f>
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
@@ -6600,7 +7572,7 @@
     </row>
     <row r="82" ht="172" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="B82" s="9">
         <v>5148304</v>
@@ -6609,16 +7581,16 @@
         <v>13</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" t="s" s="12">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="H82" t="s" s="12">
         <f>HYPERLINK(G82)</f>
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
@@ -6630,7 +7602,7 @@
     </row>
     <row r="83" ht="159" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>344</v>
+        <v>420</v>
       </c>
       <c r="B83" s="9">
         <v>5148451</v>
@@ -6639,16 +7611,16 @@
         <v>13</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" t="s" s="12">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="H83" t="s" s="12">
         <f>HYPERLINK(G83)</f>
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="I83" s="13"/>
       <c r="J83" s="13"/>
@@ -6660,7 +7632,7 @@
     </row>
     <row r="84" ht="159" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="B84" s="9">
         <v>5159070</v>
@@ -6669,16 +7641,16 @@
         <v>13</v>
       </c>
       <c r="D84" t="s" s="10">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" t="s" s="12">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="H84" t="s" s="12">
         <f>HYPERLINK(G84)</f>
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="I84" s="13"/>
       <c r="J84" s="13"/>
@@ -6690,7 +7662,7 @@
     </row>
     <row r="85" ht="146" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>352</v>
+        <v>428</v>
       </c>
       <c r="B85" s="9">
         <v>5164455</v>
@@ -6699,16 +7671,16 @@
         <v>13</v>
       </c>
       <c r="D85" t="s" s="10">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="E85" s="11"/>
       <c r="F85" s="11"/>
       <c r="G85" t="s" s="12">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="H85" t="s" s="12">
         <f>HYPERLINK(G85)</f>
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
@@ -6720,7 +7692,7 @@
     </row>
     <row r="86" ht="146" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>353</v>
+        <v>429</v>
       </c>
       <c r="B86" s="9">
         <v>5155753</v>
@@ -6729,16 +7701,16 @@
         <v>13</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>354</v>
+        <v>430</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" t="s" s="12">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="H86" t="s" s="12">
         <f>HYPERLINK(G86)</f>
-        <v>356</v>
+        <v>432</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
@@ -6750,7 +7722,7 @@
     </row>
     <row r="87" ht="159" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>357</v>
+        <v>433</v>
       </c>
       <c r="B87" s="9">
         <v>5162458</v>
@@ -6759,16 +7731,16 @@
         <v>13</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>358</v>
+        <v>434</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" t="s" s="12">
-        <v>359</v>
+        <v>435</v>
       </c>
       <c r="H87" t="s" s="12">
         <f>HYPERLINK(G87)</f>
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
@@ -6780,7 +7752,7 @@
     </row>
     <row r="88" ht="146" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>361</v>
+        <v>437</v>
       </c>
       <c r="B88" s="9">
         <v>5147638</v>
@@ -6789,16 +7761,16 @@
         <v>13</v>
       </c>
       <c r="D88" t="s" s="10">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" t="s" s="12">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="H88" t="s" s="12">
         <f>HYPERLINK(G88)</f>
-        <v>364</v>
+        <v>440</v>
       </c>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
@@ -6810,7 +7782,7 @@
     </row>
     <row r="89" ht="159" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>365</v>
+        <v>441</v>
       </c>
       <c r="B89" s="9">
         <v>5162043</v>
@@ -6819,16 +7791,16 @@
         <v>13</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>366</v>
+        <v>442</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" t="s" s="12">
-        <v>367</v>
+        <v>443</v>
       </c>
       <c r="H89" t="s" s="12">
         <f>HYPERLINK(G89)</f>
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
@@ -6840,7 +7812,7 @@
     </row>
     <row r="90" ht="133" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>369</v>
+        <v>445</v>
       </c>
       <c r="B90" s="9">
         <v>5160817</v>
@@ -6849,16 +7821,16 @@
         <v>13</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>370</v>
+        <v>446</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" t="s" s="12">
-        <v>371</v>
+        <v>447</v>
       </c>
       <c r="H90" t="s" s="12">
         <f>HYPERLINK(G90)</f>
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
@@ -6870,7 +7842,7 @@
     </row>
     <row r="91" ht="146" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>373</v>
+        <v>449</v>
       </c>
       <c r="B91" s="9">
         <v>5156304</v>
@@ -6879,16 +7851,16 @@
         <v>13</v>
       </c>
       <c r="D91" t="s" s="10">
-        <v>374</v>
+        <v>450</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" t="s" s="12">
-        <v>375</v>
+        <v>451</v>
       </c>
       <c r="H91" t="s" s="12">
         <f>HYPERLINK(G91)</f>
-        <v>376</v>
+        <v>452</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
@@ -6900,7 +7872,7 @@
     </row>
     <row r="92" ht="133" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>377</v>
+        <v>453</v>
       </c>
       <c r="B92" s="9">
         <v>0</v>
@@ -6909,16 +7881,16 @@
         <v>13</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" t="s" s="12">
-        <v>379</v>
+        <v>455</v>
       </c>
       <c r="H92" t="s" s="12">
         <f>HYPERLINK(G92)</f>
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
@@ -6930,7 +7902,7 @@
     </row>
     <row r="93" ht="159" customHeight="1">
       <c r="A93" t="s" s="3">
-        <v>381</v>
+        <v>457</v>
       </c>
       <c r="B93" s="9">
         <v>5164191</v>
@@ -6939,16 +7911,16 @@
         <v>13</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>382</v>
+        <v>458</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" t="s" s="12">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="H93" t="s" s="12">
         <f>HYPERLINK(G93)</f>
-        <v>384</v>
+        <v>460</v>
       </c>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
@@ -6960,7 +7932,7 @@
     </row>
     <row r="94" ht="146" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>385</v>
+        <v>461</v>
       </c>
       <c r="B94" s="9">
         <v>5148563</v>
@@ -6969,16 +7941,16 @@
         <v>13</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>386</v>
+        <v>462</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" t="s" s="12">
-        <v>387</v>
+        <v>463</v>
       </c>
       <c r="H94" t="s" s="12">
         <f>HYPERLINK(G94)</f>
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -6990,7 +7962,7 @@
     </row>
     <row r="95" ht="146" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>389</v>
+        <v>465</v>
       </c>
       <c r="B95" s="9">
         <v>5153874</v>
@@ -6999,16 +7971,16 @@
         <v>13</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>390</v>
+        <v>466</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" t="s" s="12">
-        <v>391</v>
+        <v>467</v>
       </c>
       <c r="H95" t="s" s="12">
         <f>HYPERLINK(G95)</f>
-        <v>392</v>
+        <v>468</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -7020,7 +7992,7 @@
     </row>
     <row r="96" ht="133" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>393</v>
+        <v>469</v>
       </c>
       <c r="B96" s="9">
         <v>5155597</v>
@@ -7029,16 +8001,16 @@
         <v>13</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>394</v>
+        <v>470</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" t="s" s="12">
-        <v>395</v>
+        <v>471</v>
       </c>
       <c r="H96" t="s" s="12">
         <f>HYPERLINK(G96)</f>
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -7050,7 +8022,7 @@
     </row>
     <row r="97" ht="172" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="B97" s="9">
         <v>5161612</v>
@@ -7059,16 +8031,16 @@
         <v>13</v>
       </c>
       <c r="D97" t="s" s="10">
-        <v>398</v>
+        <v>474</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" t="s" s="12">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="H97" t="s" s="12">
         <f>HYPERLINK(G97)</f>
-        <v>400</v>
+        <v>476</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -7080,7 +8052,7 @@
     </row>
     <row r="98" ht="146" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="B98" s="9">
         <v>5162805</v>
@@ -7089,16 +8061,16 @@
         <v>13</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>402</v>
+        <v>478</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" t="s" s="12">
-        <v>403</v>
+        <v>479</v>
       </c>
       <c r="H98" t="s" s="12">
         <f>HYPERLINK(G98)</f>
-        <v>404</v>
+        <v>480</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
@@ -7110,7 +8082,7 @@
     </row>
     <row r="99" ht="133" customHeight="1">
       <c r="A99" t="s" s="3">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="B99" s="9">
         <v>0</v>
@@ -7119,16 +8091,16 @@
         <v>13</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>406</v>
+        <v>482</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" t="s" s="12">
-        <v>407</v>
+        <v>483</v>
       </c>
       <c r="H99" t="s" s="12">
         <f>HYPERLINK(G99)</f>
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -7140,7 +8112,7 @@
     </row>
     <row r="100" ht="172" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="B100" s="9">
         <v>5155501</v>
@@ -7149,16 +8121,16 @@
         <v>13</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" t="s" s="12">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="H100" t="s" s="12">
         <f>HYPERLINK(G100)</f>
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
@@ -7170,7 +8142,7 @@
     </row>
     <row r="101" ht="159" customHeight="1">
       <c r="A101" t="s" s="3">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="B101" s="9">
         <v>5160656</v>
@@ -7179,16 +8151,16 @@
         <v>13</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>414</v>
+        <v>490</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" t="s" s="12">
-        <v>415</v>
+        <v>491</v>
       </c>
       <c r="H101" t="s" s="12">
         <f>HYPERLINK(G101)</f>
-        <v>416</v>
+        <v>492</v>
       </c>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
@@ -7200,7 +8172,7 @@
     </row>
     <row r="102" ht="133" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>417</v>
+        <v>493</v>
       </c>
       <c r="B102" s="9">
         <v>5154206</v>
@@ -7209,16 +8181,16 @@
         <v>13</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>418</v>
+        <v>494</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" t="s" s="12">
-        <v>419</v>
+        <v>495</v>
       </c>
       <c r="H102" t="s" s="12">
         <f>HYPERLINK(G102)</f>
-        <v>420</v>
+        <v>496</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -7230,7 +8202,7 @@
     </row>
     <row r="103" ht="146" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>421</v>
+        <v>497</v>
       </c>
       <c r="B103" s="9">
         <v>5154815</v>
@@ -7239,16 +8211,16 @@
         <v>13</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>422</v>
+        <v>498</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" t="s" s="12">
-        <v>423</v>
+        <v>499</v>
       </c>
       <c r="H103" t="s" s="12">
         <f>HYPERLINK(G103)</f>
-        <v>424</v>
+        <v>500</v>
       </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -7260,7 +8232,7 @@
     </row>
     <row r="104" ht="172" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>425</v>
+        <v>501</v>
       </c>
       <c r="B104" s="9">
         <v>5144930</v>
@@ -7269,16 +8241,16 @@
         <v>13</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>426</v>
+        <v>502</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" t="s" s="12">
-        <v>427</v>
+        <v>503</v>
       </c>
       <c r="H104" t="s" s="12">
         <f>HYPERLINK(G104)</f>
-        <v>428</v>
+        <v>504</v>
       </c>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
@@ -7290,7 +8262,7 @@
     </row>
     <row r="105" ht="159" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>429</v>
+        <v>505</v>
       </c>
       <c r="B105" s="9">
         <v>5148691</v>
@@ -7299,16 +8271,16 @@
         <v>13</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>430</v>
+        <v>506</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" t="s" s="12">
-        <v>431</v>
+        <v>507</v>
       </c>
       <c r="H105" t="s" s="12">
         <f>HYPERLINK(G105)</f>
-        <v>432</v>
+        <v>508</v>
       </c>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
@@ -7320,7 +8292,7 @@
     </row>
     <row r="106" ht="133" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>433</v>
+        <v>509</v>
       </c>
       <c r="B106" s="9">
         <v>5160982</v>
@@ -7329,16 +8301,16 @@
         <v>13</v>
       </c>
       <c r="D106" t="s" s="10">
-        <v>434</v>
+        <v>510</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" t="s" s="12">
-        <v>435</v>
+        <v>511</v>
       </c>
       <c r="H106" t="s" s="12">
         <f>HYPERLINK(G106)</f>
-        <v>436</v>
+        <v>512</v>
       </c>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
@@ -7350,7 +8322,7 @@
     </row>
     <row r="107" ht="159" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>437</v>
+        <v>513</v>
       </c>
       <c r="B107" s="9">
         <v>5144899</v>
@@ -7359,16 +8331,16 @@
         <v>13</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>438</v>
+        <v>514</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" t="s" s="12">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="H107" t="s" s="12">
         <f>HYPERLINK(G107)</f>
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
@@ -7380,7 +8352,7 @@
     </row>
     <row r="108" ht="172" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="B108" s="9">
         <v>5147043</v>
@@ -7389,16 +8361,16 @@
         <v>13</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" t="s" s="12">
-        <v>443</v>
+        <v>519</v>
       </c>
       <c r="H108" t="s" s="12">
         <f>HYPERLINK(G108)</f>
-        <v>444</v>
+        <v>520</v>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
@@ -7410,7 +8382,7 @@
     </row>
     <row r="109" ht="172" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="B109" s="9">
         <v>5148485</v>
@@ -7419,16 +8391,16 @@
         <v>13</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" t="s" s="12">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="H109" t="s" s="12">
         <f>HYPERLINK(G109)</f>
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
@@ -7440,7 +8412,7 @@
     </row>
     <row r="110" ht="172" customHeight="1">
       <c r="A110" t="s" s="3">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="B110" s="9">
         <v>5148415</v>
@@ -7449,16 +8421,16 @@
         <v>13</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>340</v>
+        <v>416</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" t="s" s="12">
-        <v>341</v>
+        <v>417</v>
       </c>
       <c r="H110" t="s" s="12">
         <f>HYPERLINK(G110)</f>
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
@@ -7470,7 +8442,7 @@
     </row>
     <row r="111" ht="159" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>447</v>
+        <v>523</v>
       </c>
       <c r="B111" s="9">
         <v>5148537</v>
@@ -7479,16 +8451,16 @@
         <v>13</v>
       </c>
       <c r="D111" t="s" s="10">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" t="s" s="12">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="H111" t="s" s="12">
         <f>HYPERLINK(G111)</f>
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
@@ -7500,7 +8472,7 @@
     </row>
     <row r="112" ht="185" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="B112" s="9">
         <v>5162491</v>
@@ -7509,16 +8481,16 @@
         <v>13</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>449</v>
+        <v>525</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" t="s" s="12">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="H112" t="s" s="12">
         <f>HYPERLINK(G112)</f>
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
@@ -7530,7 +8502,7 @@
     </row>
     <row r="113" ht="159" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="B113" s="9">
         <v>5166976</v>
@@ -7539,16 +8511,16 @@
         <v>13</v>
       </c>
       <c r="D113" t="s" s="10">
-        <v>453</v>
+        <v>529</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" t="s" s="12">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="H113" t="s" s="12">
         <f>HYPERLINK(G113)</f>
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
@@ -7560,7 +8532,7 @@
     </row>
     <row r="114" ht="185" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>456</v>
+        <v>532</v>
       </c>
       <c r="B114" s="9">
         <v>5145942</v>
@@ -7569,16 +8541,16 @@
         <v>13</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>204</v>
+        <v>280</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" t="s" s="12">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="H114" t="s" s="12">
         <f>HYPERLINK(G114)</f>
-        <v>206</v>
+        <v>282</v>
       </c>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
@@ -7590,7 +8562,7 @@
     </row>
     <row r="115" ht="172" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>457</v>
+        <v>533</v>
       </c>
       <c r="B115" s="9">
         <v>5145318</v>
@@ -7599,16 +8571,16 @@
         <v>13</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" t="s" s="12">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="H115" t="s" s="12">
         <f>HYPERLINK(G115)</f>
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
@@ -7620,7 +8592,7 @@
     </row>
     <row r="116" ht="133" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="B116" s="9">
         <v>5160920</v>
@@ -7629,16 +8601,16 @@
         <v>13</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>462</v>
+        <v>538</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" t="s" s="12">
-        <v>463</v>
+        <v>539</v>
       </c>
       <c r="H116" t="s" s="12">
         <f>HYPERLINK(G116)</f>
-        <v>464</v>
+        <v>540</v>
       </c>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
@@ -7650,7 +8622,7 @@
     </row>
     <row r="117" ht="133" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="B117" s="9">
         <v>5153243</v>
@@ -7659,16 +8631,16 @@
         <v>13</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>466</v>
+        <v>542</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" t="s" s="12">
-        <v>467</v>
+        <v>543</v>
       </c>
       <c r="H117" t="s" s="12">
         <f>HYPERLINK(G117)</f>
-        <v>468</v>
+        <v>544</v>
       </c>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
@@ -7680,7 +8652,7 @@
     </row>
     <row r="118" ht="146" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>469</v>
+        <v>545</v>
       </c>
       <c r="B118" s="9">
         <v>5152271</v>
@@ -7689,16 +8661,16 @@
         <v>13</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" t="s" s="12">
-        <v>471</v>
+        <v>547</v>
       </c>
       <c r="H118" t="s" s="12">
         <f>HYPERLINK(G118)</f>
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
@@ -7710,7 +8682,7 @@
     </row>
     <row r="119" ht="146" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="B119" s="9">
         <v>5160367</v>
@@ -7719,16 +8691,16 @@
         <v>13</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>474</v>
+        <v>550</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" t="s" s="12">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="H119" t="s" s="12">
         <f>HYPERLINK(G119)</f>
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
@@ -7740,7 +8712,7 @@
     </row>
     <row r="120" ht="172" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="B120" s="9">
         <v>5161260</v>
@@ -7749,16 +8721,16 @@
         <v>13</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>478</v>
+        <v>554</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" t="s" s="12">
-        <v>479</v>
+        <v>555</v>
       </c>
       <c r="H120" t="s" s="12">
         <f>HYPERLINK(G120)</f>
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
@@ -7770,7 +8742,7 @@
     </row>
     <row r="121" ht="146" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="B121" s="9">
         <v>5160691</v>
@@ -7779,16 +8751,16 @@
         <v>13</v>
       </c>
       <c r="D121" t="s" s="10">
-        <v>482</v>
+        <v>558</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" t="s" s="12">
-        <v>483</v>
+        <v>559</v>
       </c>
       <c r="H121" t="s" s="12">
         <f>HYPERLINK(G121)</f>
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>
@@ -7800,7 +8772,7 @@
     </row>
     <row r="122" ht="185" customHeight="1">
       <c r="A122" t="s" s="3">
-        <v>485</v>
+        <v>561</v>
       </c>
       <c r="B122" s="9">
         <v>5164054</v>
@@ -7809,16 +8781,16 @@
         <v>13</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" t="s" s="12">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="H122" t="s" s="12">
         <f>HYPERLINK(G122)</f>
-        <v>488</v>
+        <v>564</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -7830,7 +8802,7 @@
     </row>
     <row r="123" ht="146" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>489</v>
+        <v>565</v>
       </c>
       <c r="B123" s="9">
         <v>5164505</v>
@@ -7839,16 +8811,16 @@
         <v>13</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>490</v>
+        <v>566</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" t="s" s="12">
-        <v>491</v>
+        <v>567</v>
       </c>
       <c r="H123" t="s" s="12">
         <f>HYPERLINK(G123)</f>
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
@@ -7860,7 +8832,7 @@
     </row>
     <row r="124" ht="172" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="B124" s="9">
         <v>5165251</v>
@@ -7869,16 +8841,16 @@
         <v>13</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" t="s" s="12">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="H124" t="s" s="12">
         <f>HYPERLINK(G124)</f>
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
@@ -7890,7 +8862,7 @@
     </row>
     <row r="125" ht="159" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="B125" s="9">
         <v>5156211</v>
@@ -7899,16 +8871,16 @@
         <v>13</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" t="s" s="12">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="H125" t="s" s="12">
         <f>HYPERLINK(G125)</f>
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
@@ -7920,7 +8892,7 @@
     </row>
     <row r="126" ht="146" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="B126" s="9">
         <v>5161138</v>
@@ -7929,16 +8901,16 @@
         <v>13</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" t="s" s="12">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="H126" t="s" s="12">
         <f>HYPERLINK(G126)</f>
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
@@ -7950,7 +8922,7 @@
     </row>
     <row r="127" ht="146" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>505</v>
+        <v>581</v>
       </c>
       <c r="B127" s="9">
         <v>5159056</v>
@@ -7959,16 +8931,16 @@
         <v>13</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" t="s" s="12">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="H127" t="s" s="12">
         <f>HYPERLINK(G127)</f>
-        <v>508</v>
+        <v>584</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
@@ -7980,7 +8952,7 @@
     </row>
     <row r="128" ht="146" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="B128" s="9">
         <v>5152967</v>
@@ -7989,16 +8961,16 @@
         <v>13</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" t="s" s="12">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="H128" t="s" s="12">
         <f>HYPERLINK(G128)</f>
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
@@ -8010,7 +8982,7 @@
     </row>
     <row r="129" ht="133" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="B129" s="9">
         <v>5154965</v>
@@ -8019,16 +8991,16 @@
         <v>13</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" t="s" s="12">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="H129" t="s" s="12">
         <f>HYPERLINK(G129)</f>
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
@@ -8040,7 +9012,7 @@
     </row>
     <row r="130" ht="146" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="B130" s="9">
         <v>5153256</v>
@@ -8049,16 +9021,16 @@
         <v>13</v>
       </c>
       <c r="D130" t="s" s="10">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
       <c r="G130" t="s" s="12">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="H130" t="s" s="12">
         <f>HYPERLINK(G130)</f>
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
@@ -8070,7 +9042,7 @@
     </row>
     <row r="131" ht="159" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>518</v>
+        <v>594</v>
       </c>
       <c r="B131" s="9">
         <v>5152555</v>
@@ -8079,16 +9051,16 @@
         <v>13</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>519</v>
+        <v>595</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" t="s" s="12">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="H131" t="s" s="12">
         <f>HYPERLINK(G131)</f>
-        <v>521</v>
+        <v>597</v>
       </c>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
@@ -8100,7 +9072,7 @@
     </row>
     <row r="132" ht="159" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="B132" s="9">
         <v>5157879</v>
@@ -8109,16 +9081,16 @@
         <v>13</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>523</v>
+        <v>599</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" t="s" s="12">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="H132" t="s" s="12">
         <f>HYPERLINK(G132)</f>
-        <v>525</v>
+        <v>601</v>
       </c>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
@@ -8130,7 +9102,7 @@
     </row>
     <row r="133" ht="146" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="B133" s="9">
         <v>5148810</v>
@@ -8139,16 +9111,16 @@
         <v>13</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" t="s" s="12">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="H133" t="s" s="12">
         <f>HYPERLINK(G133)</f>
-        <v>202</v>
+        <v>278</v>
       </c>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
@@ -8160,7 +9132,7 @@
     </row>
     <row r="134" ht="159" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="B134" s="9">
         <v>5146140</v>
@@ -8169,16 +9141,16 @@
         <v>13</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>528</v>
+        <v>604</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" t="s" s="12">
-        <v>529</v>
+        <v>605</v>
       </c>
       <c r="H134" t="s" s="12">
         <f>HYPERLINK(G134)</f>
-        <v>530</v>
+        <v>606</v>
       </c>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
@@ -8190,7 +9162,7 @@
     </row>
     <row r="135" ht="159" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>531</v>
+        <v>607</v>
       </c>
       <c r="B135" s="9">
         <v>5152101</v>
@@ -8199,16 +9171,16 @@
         <v>13</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>532</v>
+        <v>608</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" t="s" s="12">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="H135" t="s" s="12">
         <f>HYPERLINK(G135)</f>
-        <v>534</v>
+        <v>610</v>
       </c>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
@@ -8220,7 +9192,7 @@
     </row>
     <row r="136" ht="146" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>535</v>
+        <v>611</v>
       </c>
       <c r="B136" s="9">
         <v>5151991</v>
@@ -8229,16 +9201,16 @@
         <v>13</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>536</v>
+        <v>612</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" t="s" s="12">
-        <v>537</v>
+        <v>613</v>
       </c>
       <c r="H136" t="s" s="12">
         <f>HYPERLINK(G136)</f>
-        <v>538</v>
+        <v>614</v>
       </c>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
@@ -8250,7 +9222,7 @@
     </row>
     <row r="137" ht="172" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="B137" s="9">
         <v>5147905</v>
@@ -8259,16 +9231,16 @@
         <v>13</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" t="s" s="12">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="H137" t="s" s="12">
         <f>HYPERLINK(G137)</f>
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
@@ -8280,7 +9252,7 @@
     </row>
     <row r="138" ht="159" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="B138" s="9">
         <v>5156414</v>
@@ -8289,16 +9261,16 @@
         <v>13</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>544</v>
+        <v>620</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" t="s" s="12">
-        <v>545</v>
+        <v>621</v>
       </c>
       <c r="H138" t="s" s="12">
         <f>HYPERLINK(G138)</f>
-        <v>546</v>
+        <v>622</v>
       </c>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
@@ -8325,144 +9297,219 @@
     <hyperlink ref="J5" r:id="rId13" location="" tooltip="" display="https://goo.gl/maps/Pyx1rpRorPyN512w5"/>
     <hyperlink ref="L5" r:id="rId14" location="" tooltip="" display="https://goo.gl/maps/mdM4HZ2VK6WXGqiUA"/>
     <hyperlink ref="H6" r:id="rId15" location="" tooltip="" display="https://www.google.com/maps/place/12TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H7" r:id="rId16" location="" tooltip="" display="https://www.google.com/maps/place/15TH+ST+%26+ENFIELD+RD,+Austin,+TX"/>
-    <hyperlink ref="H8" r:id="rId17" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PROSPECT+AVE,+Austin,+TX"/>
-    <hyperlink ref="H9" r:id="rId18" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PEDERNALES+ST,+Austin,+TX"/>
-    <hyperlink ref="H10" r:id="rId19" location="" tooltip="" display="https://www.google.com/maps/place/2ND+ST+%26+ROBERT+T+MARTINEZ+JR+ST,+Austin,+TX"/>
-    <hyperlink ref="H11" r:id="rId20" location="" tooltip="" display="https://www.google.com/maps/place/2ND+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
-    <hyperlink ref="H12" r:id="rId21" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+HEINEMANN+DR,+Austin,+TX"/>
-    <hyperlink ref="H13" r:id="rId22" location="" tooltip="" display="https://www.google.com/maps/place/LAKE+AUSTIN+BLVD+%26+ATLANTA+ST,+Austin,+TX"/>
-    <hyperlink ref="H14" r:id="rId23" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+LONGHORN+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H15" r:id="rId24" location="" tooltip="" display="https://www.google.com/maps/place/METRIC+BLVD+%26+RUTLAND+DR,+Austin,+TX"/>
-    <hyperlink ref="H16" r:id="rId25" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+35+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H17" r:id="rId26" location="" tooltip="" display="https://www.google.com/maps/place/HOWARD+LN+%26+DESSAU+RD,+Austin,+TX"/>
-    <hyperlink ref="H18" r:id="rId27" location="" tooltip="" display="https://www.google.com/maps/place/2100+BLK+W+NORTH+LOOP+BLVD+,+Austin,+TX"/>
-    <hyperlink ref="H19" r:id="rId28" location="" tooltip="" display="https://www.google.com/maps/place/BURLESON+RD+%26+EMMA+BROWNING+AVE,+Austin,+TX"/>
-    <hyperlink ref="H20" r:id="rId29" location="" tooltip="" display="https://www.google.com/maps/place/5613+BLK+SOUTHWEST+PKWY+,+Austin,+TX"/>
-    <hyperlink ref="H21" r:id="rId30" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+CORPUS+CHRISTI+DR,+Austin,+TX"/>
-    <hyperlink ref="H22" r:id="rId31" location="" tooltip="" display="https://www.google.com/maps/place/SH+71++%26+290+HWY,+Austin,+TX"/>
-    <hyperlink ref="H23" r:id="rId32" location="" tooltip="" display="https://www.google.com/maps/place/OLD+LAMPASAS+TRL+%26+SPICEWOOD+SPRINGS+RD+,+Austin,+TX"/>
-    <hyperlink ref="H24" r:id="rId33" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+SCOFIELD+FARMS+DR,+Austin,+TX"/>
-    <hyperlink ref="H25" r:id="rId34" location="" tooltip="" display="https://www.google.com/maps/place/12700+BLK+DESSAU+RD,+Austin,+TX"/>
-    <hyperlink ref="H26" r:id="rId35" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H27" r:id="rId36" location="" tooltip="" display="https://www.google.com/maps/place/FM+2222+RD+%26+MC+NEIL+DR,+Austin,+TX"/>
-    <hyperlink ref="H28" r:id="rId37" location="" tooltip="" display="https://www.google.com/maps/place/FM+2222+RD+%26+RIVER+PLACE+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H29" r:id="rId38" location="" tooltip="" display="https://www.google.com/maps/place/FM+2222+RD+%26+SITIO+DEL+RIO+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H30" r:id="rId39" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+DUVAL+ST+,+Austin,+TX"/>
-    <hyperlink ref="H31" r:id="rId40" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+ADAMS+AVE,+Austin,+TX"/>
-    <hyperlink ref="H32" r:id="rId41" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+PRESSLER+ST,+Austin,+TX"/>
-    <hyperlink ref="H33" r:id="rId42" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+LAWNMONT+AVE,+Austin,+TX"/>
-    <hyperlink ref="H34" r:id="rId43" location="" tooltip="" display="https://www.google.com/maps/place/12TH+ST+%26+LUNA+ST+,+Austin,+TX"/>
-    <hyperlink ref="H35" r:id="rId44" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+TUDOR+HOUSE+RD,+Austin,+TX"/>
-    <hyperlink ref="H36" r:id="rId45" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H37" r:id="rId46" location="" tooltip="" display="https://www.google.com/maps/place/PLEASANT+VALLEY+RD+%26+FRANKLIN+PARK+DR,+Austin,+TX"/>
-    <hyperlink ref="H38" r:id="rId47" location="" tooltip="" display="https://www.google.com/maps/place/RUNDBERG+LN+%26+PARKFIELD+DR,+Austin,+TX"/>
-    <hyperlink ref="H39" r:id="rId48" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+GUADALUPE+ST,+Austin,+TX"/>
-    <hyperlink ref="H40" r:id="rId49" location="" tooltip="" display="https://www.google.com/maps/place/KOENIG+LN+%26+GROVER+AVE,+Austin,+TX"/>
-    <hyperlink ref="H41" r:id="rId50" location="" tooltip="" display="https://www.google.com/maps/place/KOENIG+LN+%26+WOODROW+AVE,+Austin,+TX"/>
-    <hyperlink ref="H42" r:id="rId51" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+GRADY+DR,+Austin,+TX"/>
-    <hyperlink ref="H43" r:id="rId52" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+VISTA+PARKE+DR,+Austin,+TX"/>
-    <hyperlink ref="H44" r:id="rId53" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+INDUSTRIAL+OAKS+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H45" r:id="rId54" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+2222+RD,+Austin,+TX"/>
-    <hyperlink ref="H46" r:id="rId55" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H47" r:id="rId56" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
-    <hyperlink ref="H48" r:id="rId57" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+NORTH+LOOP+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H49" r:id="rId58" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+10TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H50" r:id="rId59" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+9TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H51" r:id="rId60" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+12TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H52" r:id="rId61" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+53RD+HALF+ST,+Austin,+TX"/>
-    <hyperlink ref="H53" r:id="rId62" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+BILBROOK+PL,+Austin,+TX"/>
-    <hyperlink ref="H54" r:id="rId63" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+MONARCH+DR,+Austin,+TX"/>
-    <hyperlink ref="H55" r:id="rId64" location="" tooltip="" display="https://www.google.com/maps/place/PLEASANT+VALLEY+RD+%26+STASSNEY+LN,+Austin,+TX"/>
-    <hyperlink ref="H56" r:id="rId65" location="" tooltip="" display="https://www.google.com/maps/place/CHICON+ST+%26+6TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H57" r:id="rId66" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+CHICON+ST,+Austin,+TX"/>
-    <hyperlink ref="H58" r:id="rId67" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+ROBERT+T+MARTINEZ+JR+ST,+Austin,+TX"/>
-    <hyperlink ref="H59" r:id="rId68" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
-    <hyperlink ref="H60" r:id="rId69" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+RUTLAND+DR,+Austin,+TX"/>
-    <hyperlink ref="H61" r:id="rId70" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H62" r:id="rId71" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+CURLEW+DR,+Austin,+TX"/>
-    <hyperlink ref="H63" r:id="rId72" location="" tooltip="" display="https://www.google.com/maps/place/12500+BLK+N+LAMAR+BLVD+,+Austin,+TX"/>
-    <hyperlink ref="H64" r:id="rId73" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+WEST+GATE+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H65" r:id="rId74" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+LINDSHIRE+LN,+Austin,+TX"/>
-    <hyperlink ref="H66" r:id="rId75" location="" tooltip="" display="https://www.google.com/maps/place/2000+BLK+W+SLAUGHTER+LN+,+Austin,+TX"/>
-    <hyperlink ref="H67" r:id="rId76" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+RIDDLE+RD,+Austin,+TX"/>
-    <hyperlink ref="H68" r:id="rId77" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
-    <hyperlink ref="H69" r:id="rId78" location="" tooltip="" display="https://www.google.com/maps/place/3201+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
-    <hyperlink ref="H70" r:id="rId79" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+PEDERNALES+ST,+Austin,+TX"/>
-    <hyperlink ref="H71" r:id="rId80" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+FOUR+POINTS+DR,+Austin,+TX"/>
-    <hyperlink ref="H72" r:id="rId81" location="" tooltip="" display="https://www.google.com/maps/place/PARKFIELD+DR+%26+RUTLAND+DR,+Austin,+TX"/>
-    <hyperlink ref="H73" r:id="rId82" location="" tooltip="" display="https://www.google.com/maps/place/2400+BLK+RUTLAND+DR,+Austin,+TX"/>
-    <hyperlink ref="H74" r:id="rId83" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+HARTFORD+RD,+Austin,+TX"/>
-    <hyperlink ref="H75" r:id="rId84" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+12TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H76" r:id="rId85" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+PANTHER+TRL,+Austin,+TX"/>
-    <hyperlink ref="H77" r:id="rId86" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+CAMPBELL+ST,+Austin,+TX"/>
-    <hyperlink ref="H78" r:id="rId87" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+TEXAS+OAKS+DR,+Austin,+TX"/>
-    <hyperlink ref="H79" r:id="rId88" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MASTERSON+PASS,+Austin,+TX"/>
-    <hyperlink ref="H80" r:id="rId89" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+BARTON+SKWY+,+Austin,+TX"/>
-    <hyperlink ref="H81" r:id="rId90" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H82" r:id="rId91" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H83" r:id="rId92" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H84" r:id="rId93" location="" tooltip="" display="https://www.google.com/maps/place/GUADALUPE+ST+%26+NORTH+LOOP+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H85" r:id="rId94" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+35+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H86" r:id="rId95" location="" tooltip="" display="https://www.google.com/maps/place/BULL+CREEK+RD+%26+HANCOCK+DR,+Austin,+TX"/>
-    <hyperlink ref="H87" r:id="rId96" location="" tooltip="" display="https://www.google.com/maps/place/WELLS+BRANCH+PKWY+%26+SUMMIT+DR,+Austin,+TX"/>
-    <hyperlink ref="H88" r:id="rId97" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+BOSTON+LN,+Austin,+TX"/>
-    <hyperlink ref="H89" r:id="rId98" location="" tooltip="" display="https://www.google.com/maps/place/HOWARD+LN+%26+WELLS+BRANCH+PKWY,+Austin,+TX"/>
-    <hyperlink ref="H90" r:id="rId99" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+35+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H91" r:id="rId100" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H92" r:id="rId101" location="" tooltip="" display="https://www.google.com/maps/place/5701+BLK+MC+NEIL+DR+,+Austin,+TX"/>
-    <hyperlink ref="H93" r:id="rId102" location="" tooltip="" display="https://www.google.com/maps/place/US+183+HWY+%26+METROPOLIS+DR,+Austin,+TX"/>
-    <hyperlink ref="H94" r:id="rId103" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+SLAUGHTER+LN,+Austin,+TX"/>
-    <hyperlink ref="H95" r:id="rId104" location="" tooltip="" display="https://www.google.com/maps/place/EXPOSITION+BLVD+%26+WESTOVER+RD,+Austin,+TX"/>
-    <hyperlink ref="H96" r:id="rId105" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+KERBEY+LN,+Austin,+TX"/>
-    <hyperlink ref="H97" r:id="rId106" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H98" r:id="rId107" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MEADOWS+DR,+Austin,+TX"/>
-    <hyperlink ref="H99" r:id="rId108" location="" tooltip="" display="https://www.google.com/maps/place/5501+BLK+MC+NEIL+DR+,+Austin,+TX"/>
-    <hyperlink ref="H100" r:id="rId109" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H101" r:id="rId110" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+KOENIG+LN+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H102" r:id="rId111" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H103" r:id="rId112" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H104" r:id="rId113" location="" tooltip="" display="https://www.google.com/maps/place/ESCARPMENT+BLVD+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
-    <hyperlink ref="H105" r:id="rId114" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+ERNEST+ROBLES+WAY,+Austin,+TX"/>
-    <hyperlink ref="H106" r:id="rId115" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+CAMERON+RD,+Austin,+TX"/>
-    <hyperlink ref="H107" r:id="rId116" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
-    <hyperlink ref="H108" r:id="rId117" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MONTEREY+OAKS+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H109" r:id="rId118" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H110" r:id="rId119" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H111" r:id="rId120" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H112" r:id="rId121" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+E+M+FRANKLIN+AVE,+Austin,+TX"/>
-    <hyperlink ref="H113" r:id="rId122" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+CRYSTAL+BEND+DR,+Austin,+TX"/>
-    <hyperlink ref="H114" r:id="rId123" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
-    <hyperlink ref="H115" r:id="rId124" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+W+290+WB+AT+JOE+TANNER+TRN,+Austin,+TX"/>
-    <hyperlink ref="H116" r:id="rId125" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+CALLES+ST,+Austin,+TX"/>
-    <hyperlink ref="H117" r:id="rId126" location="" tooltip="" display="https://www.google.com/maps/place/2100+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
-    <hyperlink ref="H118" r:id="rId127" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+DICKSON+DR,+Austin,+TX"/>
-    <hyperlink ref="H119" r:id="rId128" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+51ST+ST,+Austin,+TX"/>
-    <hyperlink ref="H120" r:id="rId129" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+CLIFFORD+AVE,+Austin,+TX"/>
-    <hyperlink ref="H121" r:id="rId130" location="" tooltip="" display="https://www.google.com/maps/place/METRIC+BLVD+%26+KRAMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H122" r:id="rId131" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+SPRINGDALE+RD,+Austin,+TX"/>
-    <hyperlink ref="H123" r:id="rId132" location="" tooltip="" display="https://www.google.com/maps/place/SPRINGDALE+RD+%26+51ST+ST,+Austin,+TX"/>
-    <hyperlink ref="H124" r:id="rId133" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+TANNEHILL+LN,+Austin,+TX"/>
-    <hyperlink ref="H125" r:id="rId134" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+PALO+BLANCO+LN,+Austin,+TX"/>
-    <hyperlink ref="H126" r:id="rId135" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
-    <hyperlink ref="H127" r:id="rId136" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+COMAL+ST,+Austin,+TX"/>
-    <hyperlink ref="H128" r:id="rId137" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+SPECTRUM+DR,+Austin,+TX"/>
-    <hyperlink ref="H129" r:id="rId138" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+JACKSON+AVE,+Austin,+TX"/>
-    <hyperlink ref="H130" r:id="rId139" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H131" r:id="rId140" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BLUEBONNET+LN,+Austin,+TX"/>
-    <hyperlink ref="H132" r:id="rId141" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+NUCKOLS+CROSSING+RD,+Austin,+TX"/>
-    <hyperlink ref="H133" r:id="rId142" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H134" r:id="rId143" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+FOSTER+RANCH+RD,+Austin,+TX"/>
-    <hyperlink ref="H135" r:id="rId144" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MENCHACA+RD+,+Austin,+TX"/>
-    <hyperlink ref="H136" r:id="rId145" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BARTON+SKWY+,+Austin,+TX"/>
-    <hyperlink ref="H137" r:id="rId146" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+REPUBLIC+OF+TEXAS+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H138" r:id="rId147" location="" tooltip="" display="https://www.google.com/maps/place/SHOAL+CREEK+BLVD+%26+HANCOCK+DR,+Austin,+TX"/>
+    <hyperlink ref="I6" r:id="rId16" location="" tooltip="" display="https://goo.gl/maps/eTc2mkahdUuSfc6s6"/>
+    <hyperlink ref="J6" r:id="rId17" location="" tooltip="" display="https://goo.gl/maps/ikPe5XVALMprJcoF7"/>
+    <hyperlink ref="K6" r:id="rId18" location="" tooltip="" display="https://goo.gl/maps/mNBumUc7gttzXLdd7"/>
+    <hyperlink ref="H7" r:id="rId19" location="" tooltip="" display="https://www.google.com/maps/place/15TH+ST+%26+ENFIELD+RD,+Austin,+TX"/>
+    <hyperlink ref="I7" r:id="rId20" location="" tooltip="" display="https://goo.gl/maps/Lsgmy28B4GABqmX68"/>
+    <hyperlink ref="K7" r:id="rId21" location="" tooltip="" display="https://goo.gl/maps/ebQA2zvmnVUEpJoh8"/>
+    <hyperlink ref="L7" r:id="rId22" location="" tooltip="" display="https://goo.gl/maps/mtSxiUVEnhpcMVY4A"/>
+    <hyperlink ref="H8" r:id="rId23" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PROSPECT+AVE,+Austin,+TX"/>
+    <hyperlink ref="K8" r:id="rId24" location="" tooltip="" display="https://goo.gl/maps/aFcYh4NAitWtz9ub7"/>
+    <hyperlink ref="L8" r:id="rId25" location="" tooltip="" display="https://goo.gl/maps/CWYdnk9KDRH8HdDt6"/>
+    <hyperlink ref="H9" r:id="rId26" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PEDERNALES+ST,+Austin,+TX"/>
+    <hyperlink ref="I9" r:id="rId27" location="" tooltip="" display="https://goo.gl/maps/G9KvyhCs7VFVoZ3x5"/>
+    <hyperlink ref="J9" r:id="rId28" location="" tooltip="" display="https://goo.gl/maps/NcbUvNmMPq6T9BLC9"/>
+    <hyperlink ref="K9" r:id="rId29" location="" tooltip="" display="https://goo.gl/maps/HL7mhnPkcJmY49UV7"/>
+    <hyperlink ref="L9" r:id="rId30" location="" tooltip="" display="https://goo.gl/maps/WQqjmhBf9U7AKPCg9"/>
+    <hyperlink ref="H10" r:id="rId31" location="" tooltip="" display="https://www.google.com/maps/place/2ND+ST+%26+ROBERT+T+MARTINEZ+JR+ST,+Austin,+TX"/>
+    <hyperlink ref="I10" r:id="rId32" location="" tooltip="" display="https://goo.gl/maps/kYHnjfp6iRfgPPuT9"/>
+    <hyperlink ref="J10" r:id="rId33" location="" tooltip="" display="https://goo.gl/maps/HjQKPLDesBqJ47xs7"/>
+    <hyperlink ref="K10" r:id="rId34" location="" tooltip="" display="https://goo.gl/maps/Ac1brWncDHnREoQ28"/>
+    <hyperlink ref="L10" r:id="rId35" location="" tooltip="" display="https://goo.gl/maps/AJvQH3w5Ykjt4Ne77"/>
+    <hyperlink ref="H11" r:id="rId36" location="" tooltip="" display="https://www.google.com/maps/place/2ND+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
+    <hyperlink ref="I11" r:id="rId37" location="" tooltip="" display="https://goo.gl/maps/KfTyBXtxKvxxHVdJ7"/>
+    <hyperlink ref="J11" r:id="rId38" location="" tooltip="" display="https://goo.gl/maps/SqwbxXa4DVec8Dbm7"/>
+    <hyperlink ref="K11" r:id="rId39" location="" tooltip="" display="https://goo.gl/maps/Xske3xjnPf7Qs3kc8"/>
+    <hyperlink ref="L11" r:id="rId40" location="" tooltip="" display="https://goo.gl/maps/vG9BZ4o84Cqt7oEeA"/>
+    <hyperlink ref="H12" r:id="rId41" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+HEINEMANN+DR,+Austin,+TX"/>
+    <hyperlink ref="I12" r:id="rId42" location="" tooltip="" display="https://goo.gl/maps/owWUXp174u6tNUJu7"/>
+    <hyperlink ref="K12" r:id="rId43" location="" tooltip="" display="https://goo.gl/maps/qB6ZaGEoYkWC3NDM6"/>
+    <hyperlink ref="L12" r:id="rId44" location="" tooltip="" display="https://goo.gl/maps/C6LXgqK1zyWjyX1r6"/>
+    <hyperlink ref="H13" r:id="rId45" location="" tooltip="" display="https://www.google.com/maps/place/LAKE+AUSTIN+BLVD+%26+ATLANTA+ST,+Austin,+TX"/>
+    <hyperlink ref="J13" r:id="rId46" location="" tooltip="" display="https://goo.gl/maps/h6uXsaV9bYHMW9YQ7"/>
+    <hyperlink ref="K13" r:id="rId47" location="" tooltip="" display="https://goo.gl/maps/mSzmznfYnKdNauEw7"/>
+    <hyperlink ref="L13" r:id="rId48" location="" tooltip="" display="https://goo.gl/maps/1v5WcNvHGMomsyGX8"/>
+    <hyperlink ref="H14" r:id="rId49" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+LONGHORN+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I14" r:id="rId50" location="" tooltip="" display="https://goo.gl/maps/xgPiGvjLNLPVHfL18"/>
+    <hyperlink ref="J14" r:id="rId51" location="" tooltip="" display="https://goo.gl/maps/7STdZhWoLcTsuR5Z7"/>
+    <hyperlink ref="K14" r:id="rId52" location="" tooltip="" display="https://goo.gl/maps/P54q71Cw6FXTGiMXA"/>
+    <hyperlink ref="H15" r:id="rId53" location="" tooltip="" display="https://www.google.com/maps/place/METRIC+BLVD+%26+RUTLAND+DR,+Austin,+TX"/>
+    <hyperlink ref="I15" r:id="rId54" location="" tooltip="" display="https://goo.gl/maps/gtUiKFCkShwmu8NB9"/>
+    <hyperlink ref="J15" r:id="rId55" location="" tooltip="" display="https://goo.gl/maps/GWyhXnTaKedRy8MP9"/>
+    <hyperlink ref="K15" r:id="rId56" location="" tooltip="" display="https://goo.gl/maps/iBKdf2YpgAFdhwLw9"/>
+    <hyperlink ref="L15" r:id="rId57" location="" tooltip="" display="https://goo.gl/maps/GbQpkGeNAoixWBWA8"/>
+    <hyperlink ref="H16" r:id="rId58" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+35+SVRD,+Austin,+TX"/>
+    <hyperlink ref="J16" r:id="rId59" location="" tooltip="" display="https://goo.gl/maps/bCSXAKwduCcXt5Xj8"/>
+    <hyperlink ref="K16" r:id="rId60" location="" tooltip="" display="https://goo.gl/maps/HRLSGL9KEBUMrY1DA"/>
+    <hyperlink ref="L16" r:id="rId61" location="" tooltip="" display="https://goo.gl/maps/RXwu5mkxJsowPiHs8"/>
+    <hyperlink ref="H17" r:id="rId62" location="" tooltip="" display="https://www.google.com/maps/place/HOWARD+LN+%26+DESSAU+RD,+Austin,+TX"/>
+    <hyperlink ref="I17" r:id="rId63" location="" tooltip="" display="https://goo.gl/maps/mZ7VHUAEs72kwtGb6"/>
+    <hyperlink ref="J17" r:id="rId64" location="" tooltip="" display="https://goo.gl/maps/kkes2x9iAUebhLxD9"/>
+    <hyperlink ref="K17" r:id="rId65" location="" tooltip="" display="https://goo.gl/maps/m93XQd7ybtgujXC76"/>
+    <hyperlink ref="L17" r:id="rId66" location="" tooltip="" display="https://goo.gl/maps/DfEHBqS9TS7bz7rF6"/>
+    <hyperlink ref="H18" r:id="rId67" location="" tooltip="" display="https://www.google.com/maps/place/2100+BLK+W+NORTH+LOOP+BLVD+,+Austin,+TX"/>
+    <hyperlink ref="I18" r:id="rId68" location="" tooltip="" display="https://goo.gl/maps/1GsiynEvacFT8DiP6"/>
+    <hyperlink ref="J18" r:id="rId69" location="" tooltip="" display="https://goo.gl/maps/pHncQM1rzU4V1jRX8"/>
+    <hyperlink ref="K18" r:id="rId70" location="" tooltip="" display="https://goo.gl/maps/skPpreuaKF4FfY8Y8"/>
+    <hyperlink ref="L18" r:id="rId71" location="" tooltip="" display="https://goo.gl/maps/2x4MWcSYj9yeRo7C8"/>
+    <hyperlink ref="H19" r:id="rId72" location="" tooltip="" display="https://www.google.com/maps/place/BURLESON+RD+%26+EMMA+BROWNING+AVE,+Austin,+TX"/>
+    <hyperlink ref="I19" r:id="rId73" location="" tooltip="" display="https://goo.gl/maps/Kok2xGkumy7vnqzm8"/>
+    <hyperlink ref="J19" r:id="rId74" location="" tooltip="" display="https://goo.gl/maps/ZTUxNMvtv9RKqKtG9"/>
+    <hyperlink ref="K19" r:id="rId75" location="" tooltip="" display="https://goo.gl/maps/RskqPeG4TucRVCmq5"/>
+    <hyperlink ref="L19" r:id="rId76" location="" tooltip="" display="https://goo.gl/maps/XhptNTTXKufoFBdW7"/>
+    <hyperlink ref="H20" r:id="rId77" location="" tooltip="" display="https://www.google.com/maps/place/5613+BLK+SOUTHWEST+PKWY+,+Austin,+TX"/>
+    <hyperlink ref="I20" r:id="rId78" location="" tooltip="" display="https://goo.gl/maps/1xW3rsFtTKJkHaxA8"/>
+    <hyperlink ref="K20" r:id="rId79" location="" tooltip="" display="https://goo.gl/maps/NktWmBBCeFJ1j9wd8"/>
+    <hyperlink ref="L20" r:id="rId80" location="" tooltip="" display="https://goo.gl/maps/4LKusUT7zL1BmuyU6"/>
+    <hyperlink ref="H21" r:id="rId81" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+CORPUS+CHRISTI+DR,+Austin,+TX"/>
+    <hyperlink ref="I21" r:id="rId82" location="" tooltip="" display="https://goo.gl/maps/Ye2VBxJbcBVdL4e38"/>
+    <hyperlink ref="J21" r:id="rId83" location="" tooltip="" display="https://goo.gl/maps/Ngm11dNPp3aEq6d56"/>
+    <hyperlink ref="K21" r:id="rId84" location="" tooltip="" display="https://goo.gl/maps/vW8ugTPKj1jCifg9A"/>
+    <hyperlink ref="L21" r:id="rId85" location="" tooltip="" display="https://goo.gl/maps/DXJv8JPo1FaB3b7EA"/>
+    <hyperlink ref="H22" r:id="rId86" location="" tooltip="" display="https://www.google.com/maps/place/SH+71++%26+290+HWY,+Austin,+TX"/>
+    <hyperlink ref="J22" r:id="rId87" location="" tooltip="" display="https://goo.gl/maps/StPW5QKrWcCb6oYL8"/>
+    <hyperlink ref="K22" r:id="rId88" location="" tooltip="" display="https://goo.gl/maps/ELhdudMYwi7fEDgR8"/>
+    <hyperlink ref="L22" r:id="rId89" location="" tooltip="" display="https://goo.gl/maps/Zx1ePbrg9sxwkWn78"/>
+    <hyperlink ref="H23" r:id="rId90" location="" tooltip="" display="https://www.google.com/maps/place/OLD+LAMPASAS+TRL+%26+SPICEWOOD+SPRINGS+RD+,+Austin,+TX"/>
+    <hyperlink ref="H24" r:id="rId91" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+SCOFIELD+FARMS+DR,+Austin,+TX"/>
+    <hyperlink ref="I24" r:id="rId92" location="" tooltip="" display="https://goo.gl/maps/9bGzpEfNqBLdmtZr6"/>
+    <hyperlink ref="J24" r:id="rId93" location="" tooltip="" display="https://goo.gl/maps/2yxBtpYLnatQQSu26"/>
+    <hyperlink ref="K24" r:id="rId94" location="" tooltip="" display="https://goo.gl/maps/PWdP5kdXX5B2VVqNA"/>
+    <hyperlink ref="L24" r:id="rId95" location="" tooltip="" display="https://goo.gl/maps/3NjYC91WEaWtmKhM7"/>
+    <hyperlink ref="H25" r:id="rId96" location="" tooltip="" display="https://www.google.com/maps/place/12700+BLK+DESSAU+RD,+Austin,+TX"/>
+    <hyperlink ref="I25" r:id="rId97" location="" tooltip="" display="https://goo.gl/maps/3ZzaBcXXZJrBFwMT8"/>
+    <hyperlink ref="J25" r:id="rId98" location="" tooltip="" display="https://goo.gl/maps/nZe51S1o4Loxyv9y8"/>
+    <hyperlink ref="K25" r:id="rId99" location="" tooltip="" display="https://goo.gl/maps/FyLizqvJAZmQ2oKGA"/>
+    <hyperlink ref="L25" r:id="rId100" location="" tooltip="" display="https://goo.gl/maps/iPYtAR1ogPLaHDmL6"/>
+    <hyperlink ref="H26" r:id="rId101" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="I26" r:id="rId102" location="" tooltip="" display="https://goo.gl/maps/Mj9iqTXqkVGnsuEGA"/>
+    <hyperlink ref="J26" r:id="rId103" location="" tooltip="" display="https://goo.gl/maps/S2mUgbAgNVGMQLCJ6"/>
+    <hyperlink ref="K26" r:id="rId104" location="" tooltip="" display="https://goo.gl/maps/F3kUyuwCrYJ8pjPG9"/>
+    <hyperlink ref="H27" r:id="rId105" location="" tooltip="" display="https://www.google.com/maps/place/FM+2222+RD+%26+MC+NEIL+DR,+Austin,+TX"/>
+    <hyperlink ref="J27" r:id="rId106" location="" tooltip="" display="https://goo.gl/maps/i9wm4VJktrbuwo59A"/>
+    <hyperlink ref="K27" r:id="rId107" location="" tooltip="" display="https://goo.gl/maps/2tivRMpLxKszzBKd8"/>
+    <hyperlink ref="L27" r:id="rId108" location="" tooltip="" display="https://goo.gl/maps/5NQDv1Mn8earSwgH6"/>
+    <hyperlink ref="H28" r:id="rId109" location="" tooltip="" display="https://www.google.com/maps/place/FM+2222+RD+%26+RIVER+PLACE+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I28" r:id="rId110" location="" tooltip="" display="https://goo.gl/maps/pAiz4k1UjJPC6R336"/>
+    <hyperlink ref="J28" r:id="rId111" location="" tooltip="" display="https://goo.gl/maps/RgEDDH61gx16sZKC9"/>
+    <hyperlink ref="K28" r:id="rId112" location="" tooltip="" display="https://goo.gl/maps/Dtx1sTmMRLtGqQqJ8"/>
+    <hyperlink ref="L28" r:id="rId113" location="" tooltip="" display="https://goo.gl/maps/RrwVJqjxxmp1k1JF9"/>
+    <hyperlink ref="H29" r:id="rId114" location="" tooltip="" display="https://www.google.com/maps/place/FM+2222+RD+%26+SITIO+DEL+RIO+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H30" r:id="rId115" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+DUVAL+ST+,+Austin,+TX"/>
+    <hyperlink ref="H31" r:id="rId116" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+ADAMS+AVE,+Austin,+TX"/>
+    <hyperlink ref="H32" r:id="rId117" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+PRESSLER+ST,+Austin,+TX"/>
+    <hyperlink ref="H33" r:id="rId118" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+LAWNMONT+AVE,+Austin,+TX"/>
+    <hyperlink ref="H34" r:id="rId119" location="" tooltip="" display="https://www.google.com/maps/place/12TH+ST+%26+LUNA+ST+,+Austin,+TX"/>
+    <hyperlink ref="H35" r:id="rId120" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+TUDOR+HOUSE+RD,+Austin,+TX"/>
+    <hyperlink ref="H36" r:id="rId121" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
+    <hyperlink ref="H37" r:id="rId122" location="" tooltip="" display="https://www.google.com/maps/place/PLEASANT+VALLEY+RD+%26+FRANKLIN+PARK+DR,+Austin,+TX"/>
+    <hyperlink ref="H38" r:id="rId123" location="" tooltip="" display="https://www.google.com/maps/place/RUNDBERG+LN+%26+PARKFIELD+DR,+Austin,+TX"/>
+    <hyperlink ref="H39" r:id="rId124" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+GUADALUPE+ST,+Austin,+TX"/>
+    <hyperlink ref="H40" r:id="rId125" location="" tooltip="" display="https://www.google.com/maps/place/KOENIG+LN+%26+GROVER+AVE,+Austin,+TX"/>
+    <hyperlink ref="H41" r:id="rId126" location="" tooltip="" display="https://www.google.com/maps/place/KOENIG+LN+%26+WOODROW+AVE,+Austin,+TX"/>
+    <hyperlink ref="H42" r:id="rId127" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+GRADY+DR,+Austin,+TX"/>
+    <hyperlink ref="H43" r:id="rId128" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+VISTA+PARKE+DR,+Austin,+TX"/>
+    <hyperlink ref="H44" r:id="rId129" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+INDUSTRIAL+OAKS+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H45" r:id="rId130" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+2222+RD,+Austin,+TX"/>
+    <hyperlink ref="H46" r:id="rId131" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H47" r:id="rId132" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
+    <hyperlink ref="H48" r:id="rId133" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+NORTH+LOOP+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H49" r:id="rId134" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+10TH+ST,+Austin,+TX"/>
+    <hyperlink ref="H50" r:id="rId135" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+9TH+ST,+Austin,+TX"/>
+    <hyperlink ref="H51" r:id="rId136" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+12TH+ST,+Austin,+TX"/>
+    <hyperlink ref="H52" r:id="rId137" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+53RD+HALF+ST,+Austin,+TX"/>
+    <hyperlink ref="H53" r:id="rId138" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+BILBROOK+PL,+Austin,+TX"/>
+    <hyperlink ref="H54" r:id="rId139" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+MONARCH+DR,+Austin,+TX"/>
+    <hyperlink ref="H55" r:id="rId140" location="" tooltip="" display="https://www.google.com/maps/place/PLEASANT+VALLEY+RD+%26+STASSNEY+LN,+Austin,+TX"/>
+    <hyperlink ref="H56" r:id="rId141" location="" tooltip="" display="https://www.google.com/maps/place/CHICON+ST+%26+6TH+ST,+Austin,+TX"/>
+    <hyperlink ref="H57" r:id="rId142" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+CHICON+ST,+Austin,+TX"/>
+    <hyperlink ref="H58" r:id="rId143" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+ROBERT+T+MARTINEZ+JR+ST,+Austin,+TX"/>
+    <hyperlink ref="H59" r:id="rId144" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
+    <hyperlink ref="H60" r:id="rId145" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+RUTLAND+DR,+Austin,+TX"/>
+    <hyperlink ref="H61" r:id="rId146" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="H62" r:id="rId147" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+CURLEW+DR,+Austin,+TX"/>
+    <hyperlink ref="H63" r:id="rId148" location="" tooltip="" display="https://www.google.com/maps/place/12500+BLK+N+LAMAR+BLVD+,+Austin,+TX"/>
+    <hyperlink ref="H64" r:id="rId149" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+WEST+GATE+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H65" r:id="rId150" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+LINDSHIRE+LN,+Austin,+TX"/>
+    <hyperlink ref="H66" r:id="rId151" location="" tooltip="" display="https://www.google.com/maps/place/2000+BLK+W+SLAUGHTER+LN+,+Austin,+TX"/>
+    <hyperlink ref="H67" r:id="rId152" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+RIDDLE+RD,+Austin,+TX"/>
+    <hyperlink ref="H68" r:id="rId153" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
+    <hyperlink ref="H69" r:id="rId154" location="" tooltip="" display="https://www.google.com/maps/place/3201+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
+    <hyperlink ref="H70" r:id="rId155" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+PEDERNALES+ST,+Austin,+TX"/>
+    <hyperlink ref="H71" r:id="rId156" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+FOUR+POINTS+DR,+Austin,+TX"/>
+    <hyperlink ref="H72" r:id="rId157" location="" tooltip="" display="https://www.google.com/maps/place/PARKFIELD+DR+%26+RUTLAND+DR,+Austin,+TX"/>
+    <hyperlink ref="H73" r:id="rId158" location="" tooltip="" display="https://www.google.com/maps/place/2400+BLK+RUTLAND+DR,+Austin,+TX"/>
+    <hyperlink ref="H74" r:id="rId159" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+HARTFORD+RD,+Austin,+TX"/>
+    <hyperlink ref="H75" r:id="rId160" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+12TH+ST,+Austin,+TX"/>
+    <hyperlink ref="H76" r:id="rId161" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+PANTHER+TRL,+Austin,+TX"/>
+    <hyperlink ref="H77" r:id="rId162" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+CAMPBELL+ST,+Austin,+TX"/>
+    <hyperlink ref="H78" r:id="rId163" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+TEXAS+OAKS+DR,+Austin,+TX"/>
+    <hyperlink ref="H79" r:id="rId164" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MASTERSON+PASS,+Austin,+TX"/>
+    <hyperlink ref="H80" r:id="rId165" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+BARTON+SKWY+,+Austin,+TX"/>
+    <hyperlink ref="H81" r:id="rId166" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H82" r:id="rId167" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H83" r:id="rId168" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H84" r:id="rId169" location="" tooltip="" display="https://www.google.com/maps/place/GUADALUPE+ST+%26+NORTH+LOOP+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H85" r:id="rId170" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+35+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H86" r:id="rId171" location="" tooltip="" display="https://www.google.com/maps/place/BULL+CREEK+RD+%26+HANCOCK+DR,+Austin,+TX"/>
+    <hyperlink ref="H87" r:id="rId172" location="" tooltip="" display="https://www.google.com/maps/place/WELLS+BRANCH+PKWY+%26+SUMMIT+DR,+Austin,+TX"/>
+    <hyperlink ref="H88" r:id="rId173" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+BOSTON+LN,+Austin,+TX"/>
+    <hyperlink ref="H89" r:id="rId174" location="" tooltip="" display="https://www.google.com/maps/place/HOWARD+LN+%26+WELLS+BRANCH+PKWY,+Austin,+TX"/>
+    <hyperlink ref="H90" r:id="rId175" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+35+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H91" r:id="rId176" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="H92" r:id="rId177" location="" tooltip="" display="https://www.google.com/maps/place/5701+BLK+MC+NEIL+DR+,+Austin,+TX"/>
+    <hyperlink ref="H93" r:id="rId178" location="" tooltip="" display="https://www.google.com/maps/place/US+183+HWY+%26+METROPOLIS+DR,+Austin,+TX"/>
+    <hyperlink ref="H94" r:id="rId179" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+SLAUGHTER+LN,+Austin,+TX"/>
+    <hyperlink ref="H95" r:id="rId180" location="" tooltip="" display="https://www.google.com/maps/place/EXPOSITION+BLVD+%26+WESTOVER+RD,+Austin,+TX"/>
+    <hyperlink ref="H96" r:id="rId181" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+KERBEY+LN,+Austin,+TX"/>
+    <hyperlink ref="H97" r:id="rId182" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H98" r:id="rId183" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MEADOWS+DR,+Austin,+TX"/>
+    <hyperlink ref="H99" r:id="rId184" location="" tooltip="" display="https://www.google.com/maps/place/5501+BLK+MC+NEIL+DR+,+Austin,+TX"/>
+    <hyperlink ref="H100" r:id="rId185" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H101" r:id="rId186" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+KOENIG+LN+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H102" r:id="rId187" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
+    <hyperlink ref="H103" r:id="rId188" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+WEST+LYNN+ST,+Austin,+TX"/>
+    <hyperlink ref="H104" r:id="rId189" location="" tooltip="" display="https://www.google.com/maps/place/ESCARPMENT+BLVD+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
+    <hyperlink ref="H105" r:id="rId190" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+ERNEST+ROBLES+WAY,+Austin,+TX"/>
+    <hyperlink ref="H106" r:id="rId191" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+CAMERON+RD,+Austin,+TX"/>
+    <hyperlink ref="H107" r:id="rId192" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
+    <hyperlink ref="H108" r:id="rId193" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MONTEREY+OAKS+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H109" r:id="rId194" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H110" r:id="rId195" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H111" r:id="rId196" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H112" r:id="rId197" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+E+M+FRANKLIN+AVE,+Austin,+TX"/>
+    <hyperlink ref="H113" r:id="rId198" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+CRYSTAL+BEND+DR,+Austin,+TX"/>
+    <hyperlink ref="H114" r:id="rId199" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
+    <hyperlink ref="H115" r:id="rId200" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+W+290+WB+AT+JOE+TANNER+TRN,+Austin,+TX"/>
+    <hyperlink ref="H116" r:id="rId201" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+CALLES+ST,+Austin,+TX"/>
+    <hyperlink ref="H117" r:id="rId202" location="" tooltip="" display="https://www.google.com/maps/place/2100+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
+    <hyperlink ref="H118" r:id="rId203" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+DICKSON+DR,+Austin,+TX"/>
+    <hyperlink ref="H119" r:id="rId204" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+51ST+ST,+Austin,+TX"/>
+    <hyperlink ref="H120" r:id="rId205" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+CLIFFORD+AVE,+Austin,+TX"/>
+    <hyperlink ref="H121" r:id="rId206" location="" tooltip="" display="https://www.google.com/maps/place/METRIC+BLVD+%26+KRAMER+LN,+Austin,+TX"/>
+    <hyperlink ref="H122" r:id="rId207" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+SPRINGDALE+RD,+Austin,+TX"/>
+    <hyperlink ref="H123" r:id="rId208" location="" tooltip="" display="https://www.google.com/maps/place/SPRINGDALE+RD+%26+51ST+ST,+Austin,+TX"/>
+    <hyperlink ref="H124" r:id="rId209" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+TANNEHILL+LN,+Austin,+TX"/>
+    <hyperlink ref="H125" r:id="rId210" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+PALO+BLANCO+LN,+Austin,+TX"/>
+    <hyperlink ref="H126" r:id="rId211" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
+    <hyperlink ref="H127" r:id="rId212" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+COMAL+ST,+Austin,+TX"/>
+    <hyperlink ref="H128" r:id="rId213" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+SPECTRUM+DR,+Austin,+TX"/>
+    <hyperlink ref="H129" r:id="rId214" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+JACKSON+AVE,+Austin,+TX"/>
+    <hyperlink ref="H130" r:id="rId215" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="H131" r:id="rId216" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BLUEBONNET+LN,+Austin,+TX"/>
+    <hyperlink ref="H132" r:id="rId217" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+NUCKOLS+CROSSING+RD,+Austin,+TX"/>
+    <hyperlink ref="H133" r:id="rId218" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H134" r:id="rId219" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+FOSTER+RANCH+RD,+Austin,+TX"/>
+    <hyperlink ref="H135" r:id="rId220" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MENCHACA+RD+,+Austin,+TX"/>
+    <hyperlink ref="H136" r:id="rId221" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BARTON+SKWY+,+Austin,+TX"/>
+    <hyperlink ref="H137" r:id="rId222" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+REPUBLIC+OF+TEXAS+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H138" r:id="rId223" location="" tooltip="" display="https://www.google.com/maps/place/SHOAL+CREEK+BLVD+%26+HANCOCK+DR,+Austin,+TX"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId148"/>
 </worksheet>
 </file>
--- a/OverheadSigns/OverheadSigns_FY2020.xlsx
+++ b/OverheadSigns/OverheadSigns_FY2020.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="807">
   <si>
     <t>COA_INTERSECTION_ID</t>
   </si>
@@ -1550,6 +1550,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/2LbnPq2rFWdxD39e7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/THMg9VSXWip1apDa8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ovXPLrLoPnYsLbCu5</t>
+    </r>
+  </si>
+  <si>
     <t>936</t>
   </si>
   <si>
@@ -1570,6 +1603,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5R6rxgY53wS5rz8L8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/yjmDi7Lcw32yNE7x7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/BdiAwiAkiyHrTeQv8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/CLHRpPRxRQw6bhXt7</t>
+    </r>
+  </si>
+  <si>
     <t>964</t>
   </si>
   <si>
@@ -1590,6 +1667,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/W1pWmGnv1wgfmRAx7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/218ZmuUVFp3gtrLm8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/YGb5LzN2jCHd8cov6</t>
+    </r>
+  </si>
+  <si>
     <t>968</t>
   </si>
   <si>
@@ -1630,6 +1740,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/8uxj5E1JBjL1oAudA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QUFmFofgG1QSYGmc9</t>
+    </r>
+  </si>
+  <si>
     <t>4076</t>
   </si>
   <si>
@@ -1650,6 +1782,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/LByqhWxchzGo1qgu9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/rCTR8sBcBEtTDaQZ7</t>
+    </r>
+  </si>
+  <si>
     <t>4082</t>
   </si>
   <si>
@@ -1730,6 +1884,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/uDGKqMMzcziNJRGQA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/XWPNhNCRbgkTTJPx9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/MhqMZXfp64Xk5dsr5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6WBxFkdNdESMh5rr7</t>
+    </r>
+  </si>
+  <si>
     <t>903</t>
   </si>
   <si>
@@ -1750,6 +1948,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xqJvHPvxCKUWrJ5A8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/bupQ7nCd7wuNLXeH9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/rDZcQf5uivmNZYuU9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/cx4B42M3LssiMKA57</t>
+    </r>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -1770,6 +2012,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/4cspwTSp7D5ifUXB6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Uoo2kkMRSmUwpiXCA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/LDjfosfnXCNarXYr8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/XerU4nmhrLKE6aCdA</t>
+    </r>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -1790,6 +2076,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KdoNWiCL4W2Svwwe8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QKQg4RBsUJf7GWCx8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/8WPDSKXLTAuo3mSJ8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/nYtsgMu58MLqDWty8</t>
+    </r>
+  </si>
+  <si>
     <t>1055</t>
   </si>
   <si>
@@ -1850,6 +2180,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/12rMVqsZXiirxd7m7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ZjxA1Ws5mddjF59C7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/hbxw9mhjDrP8izec7</t>
+    </r>
+  </si>
+  <si>
     <t>873</t>
   </si>
   <si>
@@ -1870,6 +2233,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/gKJssHcYzbFdcSUh6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/E9Pq399uCaWx3CkUA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/GJyckUZbJFaLyWBB7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/MeWSHkWu5R2Nu37UA</t>
+    </r>
+  </si>
+  <si>
     <t>892</t>
   </si>
   <si>
@@ -1890,6 +2297,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/hpg3pkrrtDQkFXrd9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/j3PhFj8NECuFw2cZ6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/w72t4eKqDr8XKTxg8</t>
+    </r>
+  </si>
+  <si>
     <t>944</t>
   </si>
   <si>
@@ -1910,6 +2350,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/7uvJpT9oiLw4PfNN9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/x3anb8a9t9dHbg119</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/t8y8MSFrw9yCp9qU6</t>
+    </r>
+  </si>
+  <si>
     <t>87</t>
   </si>
   <si>
@@ -1930,6 +2403,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/b4xoedDxadC8ABJ6A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RkbE6WnZErDnwTFq9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/EjuFrHsQ623Zy4do7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5UcMGZZMFB3UV2Nn9</t>
+    </r>
+  </si>
+  <si>
     <t>117</t>
   </si>
   <si>
@@ -1950,6 +2467,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/byppNx6XaA8Gc9TT9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HwPgANRtB8R9fUX26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/GKrBAeziN3K7Sibv9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/hd7AUQLy2peaVPaw7</t>
+    </r>
+  </si>
+  <si>
     <t>128</t>
   </si>
   <si>
@@ -1970,6 +2531,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/bj5UNQnzfPBUYKRP9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/qph7jAN4JL3DuzQU8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/4i8Q2LYd3F6EPeiL6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/fi37y7W6VYCoJeYM8</t>
+    </r>
+  </si>
+  <si>
     <t>163</t>
   </si>
   <si>
@@ -1990,6 +2595,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HYKVZtAhqioHN7ES6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mkBynfJj8Mx1GT9K6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Fks57z2ZmfTtN8gb9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/TL9L8SwmodPBbNDfA</t>
+    </r>
+  </si>
+  <si>
     <t>171</t>
   </si>
   <si>
@@ -2010,6 +2659,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/a3B3pG4yTtHiBfUh8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/pXK7wigCTocBY91e7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/bRHgLmKgRXYHTrrf8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/WbcTEa1pixvcbjcF8</t>
+    </r>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
@@ -2030,6 +2723,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/nkrD1331TcxfsQb78</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/F6gH4ZkikJ1nz3jh9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ur1S7D7ZrhDP2ovc6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xzb75shFqD9b6SqX7</t>
+    </r>
+  </si>
+  <si>
     <t>207</t>
   </si>
   <si>
@@ -2050,6 +2787,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/4pgLHLUq78g2Dgsx8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ag2pKJC28aXZzVrs5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/zMfDNwd2bdPxTnxQ7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/K8CWy87iuWTZnc1FA</t>
+    </r>
+  </si>
+  <si>
     <t>344</t>
   </si>
   <si>
@@ -2070,6 +2851,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/BKtga6x6oZMCgh5M7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/knVFGWpsNf5sjYGYA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5QdULJNaMgsJkUWy8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/zSSChtyDfPuokoSf7</t>
+    </r>
+  </si>
+  <si>
     <t>357</t>
   </si>
   <si>
@@ -2090,6 +2915,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/kNQ63GWTHc8JyWF27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/EMHmU1iirnuwSBJV8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/UjxHSPRW3BUeCHm28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/pB5kJFX1LfJKnGHD6</t>
+    </r>
+  </si>
+  <si>
     <t>364</t>
   </si>
   <si>
@@ -2110,6 +2979,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/EQ6p5iMUNCiFdw6D9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QH7o7Mti3pUs6Yiw6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KfiAmvE8u9LpfLH57</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/FsWnJMhkmWT3F3a36</t>
+    </r>
+  </si>
+  <si>
     <t>365</t>
   </si>
   <si>
@@ -2130,6 +3043,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/3njbfXfZoPTh1j9r5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/AuxShv6jQXangpA27</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Z1MqxEfyjVhuoqTX7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Ve3ZeeM6p9HRChpv9</t>
+    </r>
+  </si>
+  <si>
     <t>366</t>
   </si>
   <si>
@@ -2150,6 +3107,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/suDE6CpvdT9YNBrCA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/BYUEMQas68fJzszY8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/uaYtZmii64tSqsgw8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QeY9hwYFJpzHLEwM7</t>
+    </r>
+  </si>
+  <si>
     <t>461</t>
   </si>
   <si>
@@ -2170,6 +3171,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/GSfM7BN374o6wcww5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/yi5pWfAYZuSra1sSA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Yy7JyTNnMrgi898B8</t>
+    </r>
+  </si>
+  <si>
     <t>519</t>
   </si>
   <si>
@@ -2190,6 +3224,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/fbFPH1tCpQG9L4rv6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/9XeAiBBCp7vZZa2s7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/BSfaQsLUKmbgH5KL7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/UXX1KTWwqDJVL4Lv5</t>
+    </r>
+  </si>
+  <si>
     <t>533</t>
   </si>
   <si>
@@ -2210,6 +3288,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/EuAZAj55ivjtzUzH8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ctrmXVaQHxU1YVi28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/NPwArTzY3miy314TA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/FF7iiUaqsU7yAnGh6</t>
+    </r>
+  </si>
+  <si>
     <t>541</t>
   </si>
   <si>
@@ -2230,6 +3352,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/9MuKmK8J6NUjZ8SG6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/nDNjoXHddKTYjNRc9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/PTPqdf69WrQeszoV6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/DA8hxDVYFXR5PqiK7</t>
+    </r>
+  </si>
+  <si>
     <t>563</t>
   </si>
   <si>
@@ -2250,6 +3416,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5iVU4sKztiRG9bPKA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QMwViVqLMc44a6Pv8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Fm4SyaxAiQS54gdP7</t>
+    </r>
+  </si>
+  <si>
     <t>573</t>
   </si>
   <si>
@@ -2270,6 +3469,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/CHkTWUTy6MNYHes36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/9dfPsHpJKtrXrXW47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xWnjz3BVnn2Trt4b8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/LjbbTrsQLy3MTVZdA</t>
+    </r>
+  </si>
+  <si>
     <t>730</t>
   </si>
   <si>
@@ -2290,6 +3533,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/2sEEThqjkBmo6EpE8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6iiFwFCm2zyXucnC8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/k7EjKM4kKTDJNxAG7</t>
+    </r>
+  </si>
+  <si>
     <t>747</t>
   </si>
   <si>
@@ -2310,6 +3586,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/gy2RNEquSpN5qGzr6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Zp2U34aCngyCFjSz6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/dCSSZ2r4fB7E1urv7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/f7MNuFfUb5pQ8BFt6</t>
+    </r>
+  </si>
+  <si>
     <t>836</t>
   </si>
   <si>
@@ -2330,6 +3650,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/VBBt4xnNSdnVphX67</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RioxHL2T2ajXYZaT9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/yMUqKVgaQPncqXZ47</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/4AzNgZrcYbrHVykF8</t>
+    </r>
+  </si>
+  <si>
     <t>1008</t>
   </si>
   <si>
@@ -2370,6 +3734,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/V9d2AL9eVBjS7hqy9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/jSvTLoXpQvSsfMMv6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HpXLs8YEaJX5HKnU7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/hC28n4Q89bPdmLQX9</t>
+    </r>
+  </si>
+  <si>
     <t>874</t>
   </si>
   <si>
@@ -2390,6 +3798,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/7qf6smS9a8ZSd3Q1A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ChuXqEe6wcsD6u6bA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/gA1x5gJwdL4EWRr99</t>
+    </r>
+  </si>
+  <si>
     <t>481</t>
   </si>
   <si>
@@ -2410,6 +3851,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/iWhYUtun9AegQRKX7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/yTwaP2ncXaFM6rsm7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/1aQkzgFPcQ8ewmdN7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KXMvYPBi5Ym9CXJP9</t>
+    </r>
+  </si>
+  <si>
     <t>4003</t>
   </si>
   <si>
@@ -2450,6 +3935,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6L85M8BkqDmfm49RA</t>
+    </r>
+  </si>
+  <si>
     <t>116</t>
   </si>
   <si>
@@ -2470,6 +3966,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/PW6Uej33MSc7hKVT6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/JuwWu2cmRwGQoqA78</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6Qn8GFbnPg8sNWXh9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xFXvezG2vhEaMJn19</t>
+    </r>
+  </si>
+  <si>
     <t>185</t>
   </si>
   <si>
@@ -2490,6 +4030,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mYuoJzK97LgswKJv9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/bZPZErDNfm8kXoLL9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Bi6heXpGGYm6Cv7u8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/cznXhYiWJ5dPZhJFA</t>
+    </r>
+  </si>
+  <si>
     <t>574</t>
   </si>
   <si>
@@ -2510,6 +4094,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/o7Qfpon9CGrVhtKM9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/4LF7EM8RNf5wLyND9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/rDwuoenN3PLoES3Z7</t>
+    </r>
+  </si>
+  <si>
     <t>760</t>
   </si>
   <si>
@@ -2530,6 +4147,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/g9F1SzCYv28fEgnC7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KhXcYaSRvoBX8UGN9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/rr4tzSkhaPVSKEqD6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/tCT1qyVveoNLGYaX6</t>
+    </r>
+  </si>
+  <si>
     <t>457</t>
   </si>
   <si>
@@ -2550,6 +4211,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/DWwDJ2jsg7U1AXY78</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/MfnhyAaGDtfVhgK77</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/MoGsfdEsMBxJyaj3A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RgWBeRkX5CRaMjYQ8</t>
+    </r>
+  </si>
+  <si>
     <t>186</t>
   </si>
   <si>
@@ -2570,6 +4275,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/sG2j4AzwALiJKHSV6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/u54mfiTsa1MLXVRR7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/byiKTZDWoYCf1Ba8A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/A8tzbps3rGyj1DV36</t>
+    </r>
+  </si>
+  <si>
     <t>791</t>
   </si>
   <si>
@@ -2590,9 +4339,53 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/g1DSTmyfNgNWd4WX7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5SQH8eGpUxC8orm88</t>
+    </r>
+  </si>
+  <si>
     <t>792</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xHuv1f5AYvFnkEjP8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/AfdfXRddF9bBoABm7</t>
+    </r>
+  </si>
+  <si>
     <t>793</t>
   </si>
   <si>
@@ -2613,6 +4406,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/tT3jwG7ygq3DkE4W6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/E1JCBamV4Liy4RXh8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/WNTwKa5vRBeMEaESA</t>
+    </r>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -2633,9 +4459,86 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/8LXEfWHkTsZjcoYbA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/AooAf4XLyta7ZN6PA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RXWaHxWxZUBjWR6P8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/w2rwkHunPChuSpev8</t>
+    </r>
+  </si>
+  <si>
     <t>538</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/o3R26k6kg5FCRqKi7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/pwLVxTPscwnoUCau7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/vMiANw7rzzy3vHYC6</t>
+    </r>
+  </si>
+  <si>
     <t>577</t>
   </si>
   <si>
@@ -2656,6 +4559,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/GwRPCKqXcyNSWE9o8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/vZfn2g7Z1Z48EixC9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/NQWcyHpVnH92unkTA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/2zj1PVDbSA4tLAU58</t>
+    </r>
+  </si>
+  <si>
     <t>589</t>
   </si>
   <si>
@@ -2676,6 +4623,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/uwp4dDJDHCVNUDmq8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6cpQww2GGUDMdWRB6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/GBvMDk81pxEVykAV8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/vckqXtNrHHb4WXFn8</t>
+    </r>
+  </si>
+  <si>
     <t>612</t>
   </si>
   <si>
@@ -2693,6 +4684,39 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+BOSTON+LN,+Austin,+TX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QLRAxH2B5UhgM7W26</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/NbHEfNVc4JfW8AcF7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/FwJpum9h4AxWWFY56</t>
     </r>
   </si>
   <si>
@@ -4908,7 +6932,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="3" width="8.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.3906" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85156" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.7344" style="1" customWidth="1"/>
     <col min="8" max="12" width="8.85156" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
@@ -6002,17 +8028,25 @@
         <f>HYPERLINK(G29)</f>
         <v>210</v>
       </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="I29" t="s" s="12">
+        <v>211</v>
+      </c>
+      <c r="J29" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s" s="12">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s" s="12">
+        <v>213</v>
+      </c>
       <c r="M29" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="30" ht="133" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B30" s="9">
         <v>5159850</v>
@@ -6021,28 +8055,36 @@
         <v>13</v>
       </c>
       <c r="D30" t="s" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
       <c r="G30" t="s" s="12">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H30" t="s" s="12">
         <f>HYPERLINK(G30)</f>
-        <v>214</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+        <v>217</v>
+      </c>
+      <c r="I30" t="s" s="12">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s" s="12">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s" s="12">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s" s="12">
+        <v>221</v>
+      </c>
       <c r="M30" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="31" ht="146" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B31" s="9">
         <v>5157168</v>
@@ -6051,28 +8093,36 @@
         <v>13</v>
       </c>
       <c r="D31" t="s" s="10">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" t="s" s="12">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H31" t="s" s="12">
         <f>HYPERLINK(G31)</f>
-        <v>218</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+        <v>225</v>
+      </c>
+      <c r="I31" t="s" s="12">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s" s="12">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L31" t="s" s="12">
+        <v>228</v>
+      </c>
       <c r="M31" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="32" ht="133" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B32" s="9">
         <v>5154542</v>
@@ -6081,28 +8131,36 @@
         <v>13</v>
       </c>
       <c r="D32" t="s" s="10">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" t="s" s="12">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="H32" t="s" s="12">
         <f>HYPERLINK(G32)</f>
-        <v>222</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+        <v>232</v>
+      </c>
+      <c r="I32" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K32" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L32" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M32" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="33" ht="159" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B33" s="9">
         <v>5157205</v>
@@ -6111,28 +8169,36 @@
         <v>13</v>
       </c>
       <c r="D33" t="s" s="10">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" t="s" s="12">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H33" t="s" s="12">
         <f>HYPERLINK(G33)</f>
-        <v>226</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+        <v>236</v>
+      </c>
+      <c r="I33" t="s" s="12">
+        <v>237</v>
+      </c>
+      <c r="J33" t="s" s="12">
+        <v>238</v>
+      </c>
+      <c r="K33" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L33" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M33" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="34" ht="133" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B34" s="9">
         <v>5163091</v>
@@ -6141,28 +8207,36 @@
         <v>13</v>
       </c>
       <c r="D34" t="s" s="10">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" t="s" s="12">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="H34" t="s" s="12">
         <f>HYPERLINK(G34)</f>
-        <v>230</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+        <v>242</v>
+      </c>
+      <c r="I34" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s" s="12">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s" s="12">
+        <v>244</v>
+      </c>
       <c r="M34" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="35" ht="159" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B35" s="9">
         <v>0</v>
@@ -6171,28 +8245,36 @@
         <v>13</v>
       </c>
       <c r="D35" t="s" s="10">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" t="s" s="12">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H35" t="s" s="12">
         <f>HYPERLINK(G35)</f>
-        <v>234</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+        <v>248</v>
+      </c>
+      <c r="I35" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K35" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L35" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M35" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="36" ht="133" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B36" s="9">
         <v>5154124</v>
@@ -6201,28 +8283,36 @@
         <v>13</v>
       </c>
       <c r="D36" t="s" s="10">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" t="s" s="12">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s" s="12">
         <f>HYPERLINK(G36)</f>
-        <v>238</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
+        <v>252</v>
+      </c>
+      <c r="I36" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K36" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L36" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M36" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="37" ht="172" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B37" s="9">
         <v>5157192</v>
@@ -6231,28 +8321,36 @@
         <v>13</v>
       </c>
       <c r="D37" t="s" s="10">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
       <c r="G37" t="s" s="12">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H37" t="s" s="12">
         <f>HYPERLINK(G37)</f>
-        <v>242</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+        <v>256</v>
+      </c>
+      <c r="I37" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K37" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L37" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M37" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="38" ht="146" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B38" s="9">
         <v>5161164</v>
@@ -6261,28 +8359,36 @@
         <v>13</v>
       </c>
       <c r="D38" t="s" s="10">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" t="s" s="12">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="H38" t="s" s="12">
         <f>HYPERLINK(G38)</f>
-        <v>246</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
+        <v>260</v>
+      </c>
+      <c r="I38" t="s" s="12">
+        <v>261</v>
+      </c>
+      <c r="J38" t="s" s="12">
+        <v>262</v>
+      </c>
+      <c r="K38" t="s" s="12">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s" s="12">
+        <v>264</v>
+      </c>
       <c r="M38" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="39" ht="133" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B39" s="9">
         <v>5158890</v>
@@ -6291,28 +8397,36 @@
         <v>13</v>
       </c>
       <c r="D39" t="s" s="10">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" t="s" s="12">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="H39" t="s" s="12">
         <f>HYPERLINK(G39)</f>
-        <v>250</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+        <v>268</v>
+      </c>
+      <c r="I39" t="s" s="12">
+        <v>269</v>
+      </c>
+      <c r="J39" t="s" s="12">
+        <v>270</v>
+      </c>
+      <c r="K39" t="s" s="12">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s" s="12">
+        <v>272</v>
+      </c>
       <c r="M39" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="40" ht="146" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B40" s="9">
         <v>5158705</v>
@@ -6321,28 +8435,36 @@
         <v>13</v>
       </c>
       <c r="D40" t="s" s="10">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" t="s" s="12">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="H40" t="s" s="12">
         <f>HYPERLINK(G40)</f>
-        <v>254</v>
-      </c>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
+        <v>276</v>
+      </c>
+      <c r="I40" t="s" s="12">
+        <v>277</v>
+      </c>
+      <c r="J40" t="s" s="12">
+        <v>278</v>
+      </c>
+      <c r="K40" t="s" s="12">
+        <v>279</v>
+      </c>
+      <c r="L40" t="s" s="12">
+        <v>280</v>
+      </c>
       <c r="M40" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="41" ht="159" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="B41" s="9">
         <v>5158454</v>
@@ -6351,28 +8473,36 @@
         <v>13</v>
       </c>
       <c r="D41" t="s" s="10">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" t="s" s="12">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="H41" t="s" s="12">
         <f>HYPERLINK(G41)</f>
-        <v>258</v>
-      </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
+        <v>284</v>
+      </c>
+      <c r="I41" t="s" s="12">
+        <v>285</v>
+      </c>
+      <c r="J41" t="s" s="12">
+        <v>286</v>
+      </c>
+      <c r="K41" t="s" s="12">
+        <v>287</v>
+      </c>
+      <c r="L41" t="s" s="12">
+        <v>288</v>
+      </c>
       <c r="M41" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="42" ht="146" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="B42" s="9">
         <v>5162913</v>
@@ -6381,28 +8511,36 @@
         <v>13</v>
       </c>
       <c r="D42" t="s" s="10">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" t="s" s="12">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="H42" t="s" s="12">
         <f>HYPERLINK(G42)</f>
-        <v>262</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
+        <v>292</v>
+      </c>
+      <c r="I42" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K42" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L42" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M42" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="43" ht="159" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="B43" s="9">
         <v>5145747</v>
@@ -6411,28 +8549,36 @@
         <v>13</v>
       </c>
       <c r="D43" t="s" s="10">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" t="s" s="12">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="H43" t="s" s="12">
         <f>HYPERLINK(G43)</f>
-        <v>266</v>
-      </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
+        <v>296</v>
+      </c>
+      <c r="I43" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K43" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L43" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M43" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="44" ht="172" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="B44" s="9">
         <v>5147034</v>
@@ -6441,28 +8587,36 @@
         <v>13</v>
       </c>
       <c r="D44" t="s" s="10">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" t="s" s="12">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="H44" t="s" s="12">
         <f>HYPERLINK(G44)</f>
-        <v>270</v>
-      </c>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
+        <v>300</v>
+      </c>
+      <c r="I44" t="s" s="12">
+        <v>301</v>
+      </c>
+      <c r="J44" t="s" s="12">
+        <v>302</v>
+      </c>
+      <c r="K44" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L44" t="s" s="12">
+        <v>303</v>
+      </c>
       <c r="M44" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="45" ht="146" customHeight="1">
       <c r="A45" t="s" s="3">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B45" s="9">
         <v>5145335</v>
@@ -6471,28 +8625,36 @@
         <v>13</v>
       </c>
       <c r="D45" t="s" s="10">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
       <c r="G45" t="s" s="12">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s" s="12">
         <f>HYPERLINK(G45)</f>
-        <v>274</v>
-      </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
+        <v>307</v>
+      </c>
+      <c r="I45" t="s" s="12">
+        <v>308</v>
+      </c>
+      <c r="J45" t="s" s="12">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s" s="12">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="12">
+        <v>311</v>
+      </c>
       <c r="M45" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="46" ht="146" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="B46" s="9">
         <v>5148814</v>
@@ -6501,28 +8663,36 @@
         <v>13</v>
       </c>
       <c r="D46" t="s" s="10">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
       <c r="G46" t="s" s="12">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="H46" t="s" s="12">
         <f>HYPERLINK(G46)</f>
-        <v>278</v>
-      </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
+        <v>315</v>
+      </c>
+      <c r="I46" t="s" s="12">
+        <v>316</v>
+      </c>
+      <c r="J46" t="s" s="12">
+        <v>317</v>
+      </c>
+      <c r="K46" t="s" s="12">
+        <v>318</v>
+      </c>
+      <c r="L46" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M46" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="47" ht="185" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="B47" s="9">
         <v>5145950</v>
@@ -6531,28 +8701,36 @@
         <v>13</v>
       </c>
       <c r="D47" t="s" s="10">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" t="s" s="12">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="H47" t="s" s="12">
         <f>HYPERLINK(G47)</f>
-        <v>282</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
+        <v>322</v>
+      </c>
+      <c r="I47" t="s" s="12">
+        <v>323</v>
+      </c>
+      <c r="J47" t="s" s="12">
+        <v>324</v>
+      </c>
+      <c r="K47" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L47" t="s" s="12">
+        <v>325</v>
+      </c>
       <c r="M47" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="48" ht="159" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="B48" s="9">
         <v>5157233</v>
@@ -6561,28 +8739,36 @@
         <v>13</v>
       </c>
       <c r="D48" t="s" s="10">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" t="s" s="12">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="H48" t="s" s="12">
         <f>HYPERLINK(G48)</f>
-        <v>286</v>
-      </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
+        <v>329</v>
+      </c>
+      <c r="I48" t="s" s="12">
+        <v>330</v>
+      </c>
+      <c r="J48" t="s" s="12">
+        <v>331</v>
+      </c>
+      <c r="K48" t="s" s="12">
+        <v>332</v>
+      </c>
+      <c r="L48" t="s" s="12">
+        <v>333</v>
+      </c>
       <c r="M48" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="49" ht="146" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="B49" s="9">
         <v>5155503</v>
@@ -6591,28 +8777,36 @@
         <v>13</v>
       </c>
       <c r="D49" t="s" s="10">
-        <v>288</v>
+        <v>335</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
       <c r="G49" t="s" s="12">
-        <v>289</v>
+        <v>336</v>
       </c>
       <c r="H49" t="s" s="12">
         <f>HYPERLINK(G49)</f>
-        <v>290</v>
-      </c>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
+        <v>337</v>
+      </c>
+      <c r="I49" t="s" s="12">
+        <v>338</v>
+      </c>
+      <c r="J49" t="s" s="12">
+        <v>339</v>
+      </c>
+      <c r="K49" t="s" s="12">
+        <v>340</v>
+      </c>
+      <c r="L49" t="s" s="12">
+        <v>341</v>
+      </c>
       <c r="M49" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="50" ht="146" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="B50" s="9">
         <v>5155448</v>
@@ -6621,28 +8815,36 @@
         <v>13</v>
       </c>
       <c r="D50" t="s" s="10">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
       <c r="G50" t="s" s="12">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="H50" t="s" s="12">
         <f>HYPERLINK(G50)</f>
-        <v>294</v>
-      </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
+        <v>345</v>
+      </c>
+      <c r="I50" t="s" s="12">
+        <v>346</v>
+      </c>
+      <c r="J50" t="s" s="12">
+        <v>347</v>
+      </c>
+      <c r="K50" t="s" s="12">
+        <v>348</v>
+      </c>
+      <c r="L50" t="s" s="12">
+        <v>349</v>
+      </c>
       <c r="M50" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="51" ht="146" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="B51" s="9">
         <v>5162046</v>
@@ -6651,28 +8853,36 @@
         <v>13</v>
       </c>
       <c r="D51" t="s" s="10">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
       <c r="G51" t="s" s="12">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="H51" t="s" s="12">
         <f>HYPERLINK(G51)</f>
-        <v>298</v>
-      </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
+        <v>353</v>
+      </c>
+      <c r="I51" t="s" s="12">
+        <v>354</v>
+      </c>
+      <c r="J51" t="s" s="12">
+        <v>355</v>
+      </c>
+      <c r="K51" t="s" s="12">
+        <v>356</v>
+      </c>
+      <c r="L51" t="s" s="12">
+        <v>357</v>
+      </c>
       <c r="M51" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="52" ht="146" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>299</v>
+        <v>358</v>
       </c>
       <c r="B52" s="9">
         <v>5160439</v>
@@ -6681,28 +8891,36 @@
         <v>13</v>
       </c>
       <c r="D52" t="s" s="10">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
       <c r="G52" t="s" s="12">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="H52" t="s" s="12">
         <f>HYPERLINK(G52)</f>
-        <v>302</v>
-      </c>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
+        <v>361</v>
+      </c>
+      <c r="I52" t="s" s="12">
+        <v>362</v>
+      </c>
+      <c r="J52" t="s" s="12">
+        <v>363</v>
+      </c>
+      <c r="K52" t="s" s="12">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s" s="12">
+        <v>365</v>
+      </c>
       <c r="M52" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="53" ht="146" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="B53" s="9">
         <v>5149032</v>
@@ -6711,28 +8929,36 @@
         <v>13</v>
       </c>
       <c r="D53" t="s" s="10">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
       <c r="G53" t="s" s="12">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="H53" t="s" s="12">
         <f>HYPERLINK(G53)</f>
-        <v>306</v>
-      </c>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
+        <v>369</v>
+      </c>
+      <c r="I53" t="s" s="12">
+        <v>370</v>
+      </c>
+      <c r="J53" t="s" s="12">
+        <v>371</v>
+      </c>
+      <c r="K53" t="s" s="12">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s" s="12">
+        <v>373</v>
+      </c>
       <c r="M53" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="54" ht="146" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="B54" s="9">
         <v>5148631</v>
@@ -6741,28 +8967,36 @@
         <v>13</v>
       </c>
       <c r="D54" t="s" s="10">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
       <c r="G54" t="s" s="12">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="H54" t="s" s="12">
         <f>HYPERLINK(G54)</f>
-        <v>310</v>
-      </c>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
+        <v>377</v>
+      </c>
+      <c r="I54" t="s" s="12">
+        <v>378</v>
+      </c>
+      <c r="J54" t="s" s="12">
+        <v>379</v>
+      </c>
+      <c r="K54" t="s" s="12">
+        <v>380</v>
+      </c>
+      <c r="L54" t="s" s="12">
+        <v>381</v>
+      </c>
       <c r="M54" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="55" ht="159" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>311</v>
+        <v>382</v>
       </c>
       <c r="B55" s="9">
         <v>5157006</v>
@@ -6771,28 +9005,36 @@
         <v>13</v>
       </c>
       <c r="D55" t="s" s="10">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
       <c r="G55" t="s" s="12">
-        <v>313</v>
+        <v>384</v>
       </c>
       <c r="H55" t="s" s="12">
         <f>HYPERLINK(G55)</f>
-        <v>314</v>
-      </c>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
+        <v>385</v>
+      </c>
+      <c r="I55" t="s" s="12">
+        <v>386</v>
+      </c>
+      <c r="J55" t="s" s="12">
+        <v>387</v>
+      </c>
+      <c r="K55" t="s" s="12">
+        <v>388</v>
+      </c>
+      <c r="L55" t="s" s="12">
+        <v>389</v>
+      </c>
       <c r="M55" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="56" ht="146" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>315</v>
+        <v>390</v>
       </c>
       <c r="B56" s="9">
         <v>5159725</v>
@@ -6801,28 +9043,36 @@
         <v>13</v>
       </c>
       <c r="D56" t="s" s="10">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
       <c r="G56" t="s" s="12">
-        <v>317</v>
+        <v>392</v>
       </c>
       <c r="H56" t="s" s="12">
         <f>HYPERLINK(G56)</f>
-        <v>318</v>
-      </c>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
+        <v>393</v>
+      </c>
+      <c r="I56" t="s" s="12">
+        <v>394</v>
+      </c>
+      <c r="J56" t="s" s="12">
+        <v>395</v>
+      </c>
+      <c r="K56" t="s" s="12">
+        <v>396</v>
+      </c>
+      <c r="L56" t="s" s="12">
+        <v>397</v>
+      </c>
       <c r="M56" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="57" ht="146" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="B57" s="9">
         <v>5159499</v>
@@ -6831,28 +9081,36 @@
         <v>13</v>
       </c>
       <c r="D57" t="s" s="10">
-        <v>320</v>
+        <v>399</v>
       </c>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" t="s" s="12">
-        <v>321</v>
+        <v>400</v>
       </c>
       <c r="H57" t="s" s="12">
         <f>HYPERLINK(G57)</f>
-        <v>322</v>
-      </c>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
+        <v>401</v>
+      </c>
+      <c r="I57" t="s" s="12">
+        <v>402</v>
+      </c>
+      <c r="J57" t="s" s="12">
+        <v>403</v>
+      </c>
+      <c r="K57" t="s" s="12">
+        <v>404</v>
+      </c>
+      <c r="L57" t="s" s="12">
+        <v>405</v>
+      </c>
       <c r="M57" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="58" ht="172" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>323</v>
+        <v>406</v>
       </c>
       <c r="B58" s="9">
         <v>5159945</v>
@@ -6861,28 +9119,36 @@
         <v>13</v>
       </c>
       <c r="D58" t="s" s="10">
-        <v>324</v>
+        <v>407</v>
       </c>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
       <c r="G58" t="s" s="12">
-        <v>325</v>
+        <v>408</v>
       </c>
       <c r="H58" t="s" s="12">
         <f>HYPERLINK(G58)</f>
-        <v>326</v>
-      </c>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
+        <v>409</v>
+      </c>
+      <c r="I58" t="s" s="12">
+        <v>410</v>
+      </c>
+      <c r="J58" t="s" s="12">
+        <v>411</v>
+      </c>
+      <c r="K58" t="s" s="12">
+        <v>412</v>
+      </c>
+      <c r="L58" t="s" s="12">
+        <v>413</v>
+      </c>
       <c r="M58" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="59" ht="159" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="B59" s="9">
         <v>5160822</v>
@@ -6891,28 +9157,36 @@
         <v>13</v>
       </c>
       <c r="D59" t="s" s="10">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
       <c r="G59" t="s" s="12">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="H59" t="s" s="12">
         <f>HYPERLINK(G59)</f>
-        <v>330</v>
-      </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
+        <v>417</v>
+      </c>
+      <c r="I59" t="s" s="12">
+        <v>418</v>
+      </c>
+      <c r="J59" t="s" s="12">
+        <v>419</v>
+      </c>
+      <c r="K59" t="s" s="12">
+        <v>420</v>
+      </c>
+      <c r="L59" t="s" s="12">
+        <v>421</v>
+      </c>
       <c r="M59" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="60" ht="146" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>331</v>
+        <v>422</v>
       </c>
       <c r="B60" s="9">
         <v>5159209</v>
@@ -6921,28 +9195,36 @@
         <v>13</v>
       </c>
       <c r="D60" t="s" s="10">
-        <v>332</v>
+        <v>423</v>
       </c>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" t="s" s="12">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="H60" t="s" s="12">
         <f>HYPERLINK(G60)</f>
-        <v>334</v>
-      </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
+        <v>425</v>
+      </c>
+      <c r="I60" t="s" s="12">
+        <v>426</v>
+      </c>
+      <c r="J60" t="s" s="12">
+        <v>427</v>
+      </c>
+      <c r="K60" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L60" t="s" s="12">
+        <v>428</v>
+      </c>
       <c r="M60" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="61" ht="146" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>335</v>
+        <v>429</v>
       </c>
       <c r="B61" s="9">
         <v>5164152</v>
@@ -6951,28 +9233,36 @@
         <v>13</v>
       </c>
       <c r="D61" t="s" s="10">
-        <v>336</v>
+        <v>430</v>
       </c>
       <c r="E61" s="11"/>
       <c r="F61" s="11"/>
       <c r="G61" t="s" s="12">
-        <v>337</v>
+        <v>431</v>
       </c>
       <c r="H61" t="s" s="12">
         <f>HYPERLINK(G61)</f>
-        <v>338</v>
-      </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
+        <v>432</v>
+      </c>
+      <c r="I61" t="s" s="12">
+        <v>433</v>
+      </c>
+      <c r="J61" t="s" s="12">
+        <v>434</v>
+      </c>
+      <c r="K61" t="s" s="12">
+        <v>435</v>
+      </c>
+      <c r="L61" t="s" s="12">
+        <v>436</v>
+      </c>
       <c r="M61" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="62" ht="146" customHeight="1">
       <c r="A62" t="s" s="3">
-        <v>339</v>
+        <v>437</v>
       </c>
       <c r="B62" s="9">
         <v>5147719</v>
@@ -6981,28 +9271,36 @@
         <v>13</v>
       </c>
       <c r="D62" t="s" s="10">
-        <v>340</v>
+        <v>438</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
       <c r="G62" t="s" s="12">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="H62" t="s" s="12">
         <f>HYPERLINK(G62)</f>
-        <v>342</v>
-      </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
+        <v>440</v>
+      </c>
+      <c r="I62" t="s" s="12">
+        <v>441</v>
+      </c>
+      <c r="J62" t="s" s="12">
+        <v>442</v>
+      </c>
+      <c r="K62" t="s" s="12">
+        <v>443</v>
+      </c>
+      <c r="L62" t="s" s="12">
+        <v>444</v>
+      </c>
       <c r="M62" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="63" ht="133" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>343</v>
+        <v>445</v>
       </c>
       <c r="B63" s="9">
         <v>0</v>
@@ -7011,28 +9309,36 @@
         <v>13</v>
       </c>
       <c r="D63" t="s" s="10">
-        <v>344</v>
+        <v>446</v>
       </c>
       <c r="E63" s="11"/>
       <c r="F63" s="11"/>
       <c r="G63" t="s" s="12">
-        <v>345</v>
+        <v>447</v>
       </c>
       <c r="H63" t="s" s="12">
         <f>HYPERLINK(G63)</f>
-        <v>346</v>
-      </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
+        <v>448</v>
+      </c>
+      <c r="I63" t="s" s="12">
+        <v>449</v>
+      </c>
+      <c r="J63" t="s" s="12">
+        <v>450</v>
+      </c>
+      <c r="K63" t="s" s="12">
+        <v>451</v>
+      </c>
+      <c r="L63" t="s" s="12">
+        <v>452</v>
+      </c>
       <c r="M63" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="64" ht="159" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="B64" s="9">
         <v>5147070</v>
@@ -7041,28 +9347,36 @@
         <v>13</v>
       </c>
       <c r="D64" t="s" s="10">
-        <v>348</v>
+        <v>454</v>
       </c>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
       <c r="G64" t="s" s="12">
-        <v>349</v>
+        <v>455</v>
       </c>
       <c r="H64" t="s" s="12">
         <f>HYPERLINK(G64)</f>
-        <v>350</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
+        <v>456</v>
+      </c>
+      <c r="I64" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s" s="12">
+        <v>457</v>
+      </c>
+      <c r="K64" t="s" s="12">
+        <v>458</v>
+      </c>
+      <c r="L64" t="s" s="12">
+        <v>459</v>
+      </c>
       <c r="M64" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="65" ht="146" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>351</v>
+        <v>460</v>
       </c>
       <c r="B65" s="9">
         <v>5147263</v>
@@ -7071,28 +9385,36 @@
         <v>13</v>
       </c>
       <c r="D65" t="s" s="10">
-        <v>352</v>
+        <v>461</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" t="s" s="12">
-        <v>353</v>
+        <v>462</v>
       </c>
       <c r="H65" t="s" s="12">
         <f>HYPERLINK(G65)</f>
-        <v>354</v>
-      </c>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
+        <v>463</v>
+      </c>
+      <c r="I65" t="s" s="12">
+        <v>464</v>
+      </c>
+      <c r="J65" t="s" s="12">
+        <v>465</v>
+      </c>
+      <c r="K65" t="s" s="12">
+        <v>466</v>
+      </c>
+      <c r="L65" t="s" s="12">
+        <v>467</v>
+      </c>
       <c r="M65" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="66" ht="133" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="B66" s="9">
         <v>0</v>
@@ -7101,28 +9423,36 @@
         <v>13</v>
       </c>
       <c r="D66" t="s" s="10">
-        <v>356</v>
+        <v>469</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
       <c r="G66" t="s" s="12">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="H66" t="s" s="12">
         <f>HYPERLINK(G66)</f>
-        <v>358</v>
-      </c>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
+        <v>471</v>
+      </c>
+      <c r="I66" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s" s="12">
+        <v>472</v>
+      </c>
+      <c r="K66" t="s" s="12">
+        <v>473</v>
+      </c>
+      <c r="L66" t="s" s="12">
+        <v>474</v>
+      </c>
       <c r="M66" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="67" ht="146" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>359</v>
+        <v>475</v>
       </c>
       <c r="B67" s="9">
         <v>5148311</v>
@@ -7131,28 +9461,36 @@
         <v>13</v>
       </c>
       <c r="D67" t="s" s="10">
-        <v>360</v>
+        <v>476</v>
       </c>
       <c r="E67" s="11"/>
       <c r="F67" s="11"/>
       <c r="G67" t="s" s="12">
-        <v>361</v>
+        <v>477</v>
       </c>
       <c r="H67" t="s" s="12">
         <f>HYPERLINK(G67)</f>
-        <v>362</v>
-      </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
+        <v>478</v>
+      </c>
+      <c r="I67" t="s" s="12">
+        <v>479</v>
+      </c>
+      <c r="J67" t="s" s="12">
+        <v>480</v>
+      </c>
+      <c r="K67" t="s" s="12">
+        <v>481</v>
+      </c>
+      <c r="L67" t="s" s="12">
+        <v>482</v>
+      </c>
       <c r="M67" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="68" ht="146" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>363</v>
+        <v>483</v>
       </c>
       <c r="B68" s="9">
         <v>5160988</v>
@@ -7161,28 +9499,36 @@
         <v>13</v>
       </c>
       <c r="D68" t="s" s="10">
-        <v>364</v>
+        <v>484</v>
       </c>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
       <c r="G68" t="s" s="12">
-        <v>365</v>
+        <v>485</v>
       </c>
       <c r="H68" t="s" s="12">
         <f>HYPERLINK(G68)</f>
-        <v>366</v>
-      </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
+        <v>486</v>
+      </c>
+      <c r="I68" t="s" s="12">
+        <v>487</v>
+      </c>
+      <c r="J68" t="s" s="12">
+        <v>488</v>
+      </c>
+      <c r="K68" t="s" s="12">
+        <v>489</v>
+      </c>
+      <c r="L68" t="s" s="12">
+        <v>490</v>
+      </c>
       <c r="M68" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="69" ht="133" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>367</v>
+        <v>491</v>
       </c>
       <c r="B69" s="9">
         <v>0</v>
@@ -7191,28 +9537,36 @@
         <v>13</v>
       </c>
       <c r="D69" t="s" s="10">
-        <v>368</v>
+        <v>492</v>
       </c>
       <c r="E69" s="11"/>
       <c r="F69" s="11"/>
       <c r="G69" t="s" s="12">
-        <v>369</v>
+        <v>493</v>
       </c>
       <c r="H69" t="s" s="12">
         <f>HYPERLINK(G69)</f>
-        <v>370</v>
-      </c>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
+        <v>494</v>
+      </c>
+      <c r="I69" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K69" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L69" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M69" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="70" ht="146" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>371</v>
+        <v>495</v>
       </c>
       <c r="B70" s="9">
         <v>5160391</v>
@@ -7221,28 +9575,36 @@
         <v>13</v>
       </c>
       <c r="D70" t="s" s="10">
-        <v>372</v>
+        <v>496</v>
       </c>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
       <c r="G70" t="s" s="12">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="H70" t="s" s="12">
         <f>HYPERLINK(G70)</f>
-        <v>374</v>
-      </c>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
+        <v>498</v>
+      </c>
+      <c r="I70" t="s" s="12">
+        <v>499</v>
+      </c>
+      <c r="J70" t="s" s="12">
+        <v>500</v>
+      </c>
+      <c r="K70" t="s" s="12">
+        <v>501</v>
+      </c>
+      <c r="L70" t="s" s="12">
+        <v>502</v>
+      </c>
       <c r="M70" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="71" ht="159" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>375</v>
+        <v>503</v>
       </c>
       <c r="B71" s="9">
         <v>5145471</v>
@@ -7251,28 +9613,36 @@
         <v>13</v>
       </c>
       <c r="D71" t="s" s="10">
-        <v>376</v>
+        <v>504</v>
       </c>
       <c r="E71" s="11"/>
       <c r="F71" s="11"/>
       <c r="G71" t="s" s="12">
-        <v>377</v>
+        <v>505</v>
       </c>
       <c r="H71" t="s" s="12">
         <f>HYPERLINK(G71)</f>
-        <v>378</v>
-      </c>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
+        <v>506</v>
+      </c>
+      <c r="I71" t="s" s="12">
+        <v>507</v>
+      </c>
+      <c r="J71" t="s" s="12">
+        <v>508</v>
+      </c>
+      <c r="K71" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L71" t="s" s="12">
+        <v>509</v>
+      </c>
       <c r="M71" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="72" ht="146" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="B72" s="9">
         <v>5161236</v>
@@ -7281,28 +9651,36 @@
         <v>13</v>
       </c>
       <c r="D72" t="s" s="10">
-        <v>380</v>
+        <v>511</v>
       </c>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
       <c r="G72" t="s" s="12">
-        <v>381</v>
+        <v>512</v>
       </c>
       <c r="H72" t="s" s="12">
         <f>HYPERLINK(G72)</f>
-        <v>382</v>
-      </c>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
+        <v>513</v>
+      </c>
+      <c r="I72" t="s" s="12">
+        <v>514</v>
+      </c>
+      <c r="J72" t="s" s="12">
+        <v>515</v>
+      </c>
+      <c r="K72" t="s" s="12">
+        <v>516</v>
+      </c>
+      <c r="L72" t="s" s="12">
+        <v>517</v>
+      </c>
       <c r="M72" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="73" ht="133" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>383</v>
+        <v>518</v>
       </c>
       <c r="B73" s="9">
         <v>0</v>
@@ -7311,28 +9689,36 @@
         <v>13</v>
       </c>
       <c r="D73" t="s" s="10">
-        <v>384</v>
+        <v>519</v>
       </c>
       <c r="E73" s="11"/>
       <c r="F73" s="11"/>
       <c r="G73" t="s" s="12">
-        <v>385</v>
+        <v>520</v>
       </c>
       <c r="H73" t="s" s="12">
         <f>HYPERLINK(G73)</f>
-        <v>386</v>
-      </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
+        <v>521</v>
+      </c>
+      <c r="I73" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K73" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L73" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M73" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="74" ht="146" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>387</v>
+        <v>522</v>
       </c>
       <c r="B74" s="9">
         <v>5154281</v>
@@ -7341,28 +9727,36 @@
         <v>13</v>
       </c>
       <c r="D74" t="s" s="10">
-        <v>388</v>
+        <v>523</v>
       </c>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
       <c r="G74" t="s" s="12">
-        <v>389</v>
+        <v>524</v>
       </c>
       <c r="H74" t="s" s="12">
         <f>HYPERLINK(G74)</f>
-        <v>390</v>
-      </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
+        <v>525</v>
+      </c>
+      <c r="I74" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K74" t="s" s="12">
+        <v>526</v>
+      </c>
+      <c r="L74" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M74" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="75" ht="146" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>391</v>
+        <v>527</v>
       </c>
       <c r="B75" s="9">
         <v>5155626</v>
@@ -7371,28 +9765,36 @@
         <v>13</v>
       </c>
       <c r="D75" t="s" s="10">
-        <v>392</v>
+        <v>528</v>
       </c>
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
       <c r="G75" t="s" s="12">
-        <v>393</v>
+        <v>529</v>
       </c>
       <c r="H75" t="s" s="12">
         <f>HYPERLINK(G75)</f>
-        <v>394</v>
-      </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
+        <v>530</v>
+      </c>
+      <c r="I75" t="s" s="12">
+        <v>531</v>
+      </c>
+      <c r="J75" t="s" s="12">
+        <v>532</v>
+      </c>
+      <c r="K75" t="s" s="12">
+        <v>533</v>
+      </c>
+      <c r="L75" t="s" s="12">
+        <v>534</v>
+      </c>
       <c r="M75" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="76" ht="146" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>395</v>
+        <v>535</v>
       </c>
       <c r="B76" s="9">
         <v>5151313</v>
@@ -7401,28 +9803,36 @@
         <v>13</v>
       </c>
       <c r="D76" t="s" s="10">
-        <v>396</v>
+        <v>536</v>
       </c>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
       <c r="G76" t="s" s="12">
-        <v>397</v>
+        <v>537</v>
       </c>
       <c r="H76" t="s" s="12">
         <f>HYPERLINK(G76)</f>
-        <v>398</v>
-      </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
+        <v>538</v>
+      </c>
+      <c r="I76" t="s" s="12">
+        <v>539</v>
+      </c>
+      <c r="J76" t="s" s="12">
+        <v>540</v>
+      </c>
+      <c r="K76" t="s" s="12">
+        <v>541</v>
+      </c>
+      <c r="L76" t="s" s="12">
+        <v>542</v>
+      </c>
       <c r="M76" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="77" ht="133" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>399</v>
+        <v>543</v>
       </c>
       <c r="B77" s="9">
         <v>5153901</v>
@@ -7431,28 +9841,36 @@
         <v>13</v>
       </c>
       <c r="D77" t="s" s="10">
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
       <c r="G77" t="s" s="12">
-        <v>401</v>
+        <v>545</v>
       </c>
       <c r="H77" t="s" s="12">
         <f>HYPERLINK(G77)</f>
-        <v>402</v>
-      </c>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
+        <v>546</v>
+      </c>
+      <c r="I77" t="s" s="12">
+        <v>547</v>
+      </c>
+      <c r="J77" t="s" s="12">
+        <v>548</v>
+      </c>
+      <c r="K77" t="s" s="12">
+        <v>549</v>
+      </c>
+      <c r="L77" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M77" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="78" ht="146" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>403</v>
+        <v>550</v>
       </c>
       <c r="B78" s="9">
         <v>5149245</v>
@@ -7461,28 +9879,36 @@
         <v>13</v>
       </c>
       <c r="D78" t="s" s="10">
-        <v>404</v>
+        <v>551</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
       <c r="G78" t="s" s="12">
-        <v>405</v>
+        <v>552</v>
       </c>
       <c r="H78" t="s" s="12">
         <f>HYPERLINK(G78)</f>
-        <v>406</v>
-      </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
+        <v>553</v>
+      </c>
+      <c r="I78" t="s" s="12">
+        <v>554</v>
+      </c>
+      <c r="J78" t="s" s="12">
+        <v>555</v>
+      </c>
+      <c r="K78" t="s" s="12">
+        <v>556</v>
+      </c>
+      <c r="L78" t="s" s="12">
+        <v>557</v>
+      </c>
       <c r="M78" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="79" ht="159" customHeight="1">
       <c r="A79" t="s" s="3">
-        <v>407</v>
+        <v>558</v>
       </c>
       <c r="B79" s="9">
         <v>5162641</v>
@@ -7491,28 +9917,36 @@
         <v>13</v>
       </c>
       <c r="D79" t="s" s="10">
-        <v>408</v>
+        <v>559</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
       <c r="G79" t="s" s="12">
-        <v>409</v>
+        <v>560</v>
       </c>
       <c r="H79" t="s" s="12">
         <f>HYPERLINK(G79)</f>
-        <v>410</v>
-      </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
+        <v>561</v>
+      </c>
+      <c r="I79" t="s" s="12">
+        <v>562</v>
+      </c>
+      <c r="J79" t="s" s="12">
+        <v>563</v>
+      </c>
+      <c r="K79" t="s" s="12">
+        <v>564</v>
+      </c>
+      <c r="L79" t="s" s="12">
+        <v>565</v>
+      </c>
       <c r="M79" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="80" ht="146" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>411</v>
+        <v>566</v>
       </c>
       <c r="B80" s="9">
         <v>5152078</v>
@@ -7521,28 +9955,36 @@
         <v>13</v>
       </c>
       <c r="D80" t="s" s="10">
-        <v>412</v>
+        <v>567</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
       <c r="G80" t="s" s="12">
-        <v>413</v>
+        <v>568</v>
       </c>
       <c r="H80" t="s" s="12">
         <f>HYPERLINK(G80)</f>
-        <v>414</v>
-      </c>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
+        <v>569</v>
+      </c>
+      <c r="I80" t="s" s="12">
+        <v>570</v>
+      </c>
+      <c r="J80" t="s" s="12">
+        <v>571</v>
+      </c>
+      <c r="K80" t="s" s="12">
+        <v>572</v>
+      </c>
+      <c r="L80" t="s" s="12">
+        <v>573</v>
+      </c>
       <c r="M80" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="81" ht="172" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>415</v>
+        <v>574</v>
       </c>
       <c r="B81" s="9">
         <v>5148341</v>
@@ -7551,28 +9993,36 @@
         <v>13</v>
       </c>
       <c r="D81" t="s" s="10">
-        <v>416</v>
+        <v>575</v>
       </c>
       <c r="E81" s="11"/>
       <c r="F81" s="11"/>
       <c r="G81" t="s" s="12">
-        <v>417</v>
+        <v>576</v>
       </c>
       <c r="H81" t="s" s="12">
         <f>HYPERLINK(G81)</f>
-        <v>418</v>
-      </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
+        <v>577</v>
+      </c>
+      <c r="I81" t="s" s="12">
+        <v>578</v>
+      </c>
+      <c r="J81" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K81" t="s" s="12">
+        <v>579</v>
+      </c>
+      <c r="L81" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M81" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="82" ht="172" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>419</v>
+        <v>580</v>
       </c>
       <c r="B82" s="9">
         <v>5148304</v>
@@ -7581,28 +10031,36 @@
         <v>13</v>
       </c>
       <c r="D82" t="s" s="10">
-        <v>416</v>
+        <v>575</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
       <c r="G82" t="s" s="12">
-        <v>417</v>
+        <v>576</v>
       </c>
       <c r="H82" t="s" s="12">
         <f>HYPERLINK(G82)</f>
-        <v>418</v>
-      </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
+        <v>577</v>
+      </c>
+      <c r="I82" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s" s="12">
+        <v>581</v>
+      </c>
+      <c r="K82" t="s" s="12">
+        <v>582</v>
+      </c>
+      <c r="L82" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M82" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="83" ht="159" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>420</v>
+        <v>583</v>
       </c>
       <c r="B83" s="9">
         <v>5148451</v>
@@ -7611,28 +10069,36 @@
         <v>13</v>
       </c>
       <c r="D83" t="s" s="10">
-        <v>421</v>
+        <v>584</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
       <c r="G83" t="s" s="12">
-        <v>422</v>
+        <v>585</v>
       </c>
       <c r="H83" t="s" s="12">
         <f>HYPERLINK(G83)</f>
-        <v>423</v>
-      </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
+        <v>586</v>
+      </c>
+      <c r="I83" t="s" s="12">
+        <v>587</v>
+      </c>
+      <c r="J83" t="s" s="12">
+        <v>588</v>
+      </c>
+      <c r="K83" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L83" t="s" s="12">
+        <v>589</v>
+      </c>
       <c r="M83" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="84" ht="159" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>424</v>
+        <v>590</v>
       </c>
       <c r="B84" s="9">
         <v>5159070</v>
@@ -7641,28 +10107,36 @@
         <v>13</v>
       </c>
       <c r="D84" t="s" s="10">
-        <v>425</v>
+        <v>591</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" t="s" s="12">
-        <v>426</v>
+        <v>592</v>
       </c>
       <c r="H84" t="s" s="12">
         <f>HYPERLINK(G84)</f>
-        <v>427</v>
-      </c>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
+        <v>593</v>
+      </c>
+      <c r="I84" t="s" s="12">
+        <v>594</v>
+      </c>
+      <c r="J84" t="s" s="12">
+        <v>595</v>
+      </c>
+      <c r="K84" t="s" s="12">
+        <v>596</v>
+      </c>
+      <c r="L84" t="s" s="12">
+        <v>597</v>
+      </c>
       <c r="M84" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="85" ht="146" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>428</v>
+        <v>598</v>
       </c>
       <c r="B85" s="9">
         <v>5164455</v>
@@ -7682,17 +10156,25 @@
         <f>HYPERLINK(G85)</f>
         <v>115</v>
       </c>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
+      <c r="I85" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s" s="12">
+        <v>599</v>
+      </c>
+      <c r="K85" t="s" s="12">
+        <v>600</v>
+      </c>
+      <c r="L85" t="s" s="12">
+        <v>601</v>
+      </c>
       <c r="M85" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="86" ht="146" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>429</v>
+        <v>602</v>
       </c>
       <c r="B86" s="9">
         <v>5155753</v>
@@ -7701,28 +10183,36 @@
         <v>13</v>
       </c>
       <c r="D86" t="s" s="10">
-        <v>430</v>
+        <v>603</v>
       </c>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
       <c r="G86" t="s" s="12">
-        <v>431</v>
+        <v>604</v>
       </c>
       <c r="H86" t="s" s="12">
         <f>HYPERLINK(G86)</f>
-        <v>432</v>
-      </c>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
+        <v>605</v>
+      </c>
+      <c r="I86" t="s" s="12">
+        <v>606</v>
+      </c>
+      <c r="J86" t="s" s="12">
+        <v>607</v>
+      </c>
+      <c r="K86" t="s" s="12">
+        <v>608</v>
+      </c>
+      <c r="L86" t="s" s="12">
+        <v>609</v>
+      </c>
       <c r="M86" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="87" ht="159" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>433</v>
+        <v>610</v>
       </c>
       <c r="B87" s="9">
         <v>5162458</v>
@@ -7731,28 +10221,36 @@
         <v>13</v>
       </c>
       <c r="D87" t="s" s="10">
-        <v>434</v>
+        <v>611</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="11"/>
       <c r="G87" t="s" s="12">
-        <v>435</v>
+        <v>612</v>
       </c>
       <c r="H87" t="s" s="12">
         <f>HYPERLINK(G87)</f>
-        <v>436</v>
-      </c>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
+        <v>613</v>
+      </c>
+      <c r="I87" t="s" s="12">
+        <v>614</v>
+      </c>
+      <c r="J87" t="s" s="12">
+        <v>615</v>
+      </c>
+      <c r="K87" t="s" s="12">
+        <v>616</v>
+      </c>
+      <c r="L87" t="s" s="12">
+        <v>617</v>
+      </c>
       <c r="M87" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="88" ht="146" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>437</v>
+        <v>618</v>
       </c>
       <c r="B88" s="9">
         <v>5147638</v>
@@ -7761,28 +10259,36 @@
         <v>13</v>
       </c>
       <c r="D88" t="s" s="10">
-        <v>438</v>
+        <v>619</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
       <c r="G88" t="s" s="12">
-        <v>439</v>
+        <v>620</v>
       </c>
       <c r="H88" t="s" s="12">
         <f>HYPERLINK(G88)</f>
-        <v>440</v>
-      </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
+        <v>621</v>
+      </c>
+      <c r="I88" t="s" s="12">
+        <v>622</v>
+      </c>
+      <c r="J88" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K88" t="s" s="12">
+        <v>623</v>
+      </c>
+      <c r="L88" t="s" s="12">
+        <v>624</v>
+      </c>
       <c r="M88" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="89" ht="159" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>441</v>
+        <v>625</v>
       </c>
       <c r="B89" s="9">
         <v>5162043</v>
@@ -7791,16 +10297,16 @@
         <v>13</v>
       </c>
       <c r="D89" t="s" s="10">
-        <v>442</v>
+        <v>626</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="11"/>
       <c r="G89" t="s" s="12">
-        <v>443</v>
+        <v>627</v>
       </c>
       <c r="H89" t="s" s="12">
         <f>HYPERLINK(G89)</f>
-        <v>444</v>
+        <v>628</v>
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
@@ -7812,7 +10318,7 @@
     </row>
     <row r="90" ht="133" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>445</v>
+        <v>629</v>
       </c>
       <c r="B90" s="9">
         <v>5160817</v>
@@ -7821,16 +10327,16 @@
         <v>13</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>446</v>
+        <v>630</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" t="s" s="12">
-        <v>447</v>
+        <v>631</v>
       </c>
       <c r="H90" t="s" s="12">
         <f>HYPERLINK(G90)</f>
-        <v>448</v>
+        <v>632</v>
       </c>
       <c r="I90" s="13"/>
       <c r="J90" s="13"/>
@@ -7842,7 +10348,7 @@
     </row>
     <row r="91" ht="146" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>449</v>
+        <v>633</v>
       </c>
       <c r="B91" s="9">
         <v>5156304</v>
@@ -7851,16 +10357,16 @@
         <v>13</v>
       </c>
       <c r="D91" t="s" s="10">
-        <v>450</v>
+        <v>634</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" t="s" s="12">
-        <v>451</v>
+        <v>635</v>
       </c>
       <c r="H91" t="s" s="12">
         <f>HYPERLINK(G91)</f>
-        <v>452</v>
+        <v>636</v>
       </c>
       <c r="I91" s="13"/>
       <c r="J91" s="13"/>
@@ -7872,7 +10378,7 @@
     </row>
     <row r="92" ht="133" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>453</v>
+        <v>637</v>
       </c>
       <c r="B92" s="9">
         <v>0</v>
@@ -7881,16 +10387,16 @@
         <v>13</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>454</v>
+        <v>638</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" t="s" s="12">
-        <v>455</v>
+        <v>639</v>
       </c>
       <c r="H92" t="s" s="12">
         <f>HYPERLINK(G92)</f>
-        <v>456</v>
+        <v>640</v>
       </c>
       <c r="I92" s="13"/>
       <c r="J92" s="13"/>
@@ -7902,7 +10408,7 @@
     </row>
     <row r="93" ht="159" customHeight="1">
       <c r="A93" t="s" s="3">
-        <v>457</v>
+        <v>641</v>
       </c>
       <c r="B93" s="9">
         <v>5164191</v>
@@ -7911,16 +10417,16 @@
         <v>13</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>458</v>
+        <v>642</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" t="s" s="12">
-        <v>459</v>
+        <v>643</v>
       </c>
       <c r="H93" t="s" s="12">
         <f>HYPERLINK(G93)</f>
-        <v>460</v>
+        <v>644</v>
       </c>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
@@ -7932,7 +10438,7 @@
     </row>
     <row r="94" ht="146" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>461</v>
+        <v>645</v>
       </c>
       <c r="B94" s="9">
         <v>5148563</v>
@@ -7941,16 +10447,16 @@
         <v>13</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>462</v>
+        <v>646</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" t="s" s="12">
-        <v>463</v>
+        <v>647</v>
       </c>
       <c r="H94" t="s" s="12">
         <f>HYPERLINK(G94)</f>
-        <v>464</v>
+        <v>648</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -7962,7 +10468,7 @@
     </row>
     <row r="95" ht="146" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>465</v>
+        <v>649</v>
       </c>
       <c r="B95" s="9">
         <v>5153874</v>
@@ -7971,16 +10477,16 @@
         <v>13</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>466</v>
+        <v>650</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" t="s" s="12">
-        <v>467</v>
+        <v>651</v>
       </c>
       <c r="H95" t="s" s="12">
         <f>HYPERLINK(G95)</f>
-        <v>468</v>
+        <v>652</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -7992,7 +10498,7 @@
     </row>
     <row r="96" ht="133" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>469</v>
+        <v>653</v>
       </c>
       <c r="B96" s="9">
         <v>5155597</v>
@@ -8001,16 +10507,16 @@
         <v>13</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>470</v>
+        <v>654</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" t="s" s="12">
-        <v>471</v>
+        <v>655</v>
       </c>
       <c r="H96" t="s" s="12">
         <f>HYPERLINK(G96)</f>
-        <v>472</v>
+        <v>656</v>
       </c>
       <c r="I96" s="13"/>
       <c r="J96" s="13"/>
@@ -8022,7 +10528,7 @@
     </row>
     <row r="97" ht="172" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>473</v>
+        <v>657</v>
       </c>
       <c r="B97" s="9">
         <v>5161612</v>
@@ -8031,16 +10537,16 @@
         <v>13</v>
       </c>
       <c r="D97" t="s" s="10">
-        <v>474</v>
+        <v>658</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" t="s" s="12">
-        <v>475</v>
+        <v>659</v>
       </c>
       <c r="H97" t="s" s="12">
         <f>HYPERLINK(G97)</f>
-        <v>476</v>
+        <v>660</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -8052,7 +10558,7 @@
     </row>
     <row r="98" ht="146" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>477</v>
+        <v>661</v>
       </c>
       <c r="B98" s="9">
         <v>5162805</v>
@@ -8061,16 +10567,16 @@
         <v>13</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>478</v>
+        <v>662</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" t="s" s="12">
-        <v>479</v>
+        <v>663</v>
       </c>
       <c r="H98" t="s" s="12">
         <f>HYPERLINK(G98)</f>
-        <v>480</v>
+        <v>664</v>
       </c>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
@@ -8082,7 +10588,7 @@
     </row>
     <row r="99" ht="133" customHeight="1">
       <c r="A99" t="s" s="3">
-        <v>481</v>
+        <v>665</v>
       </c>
       <c r="B99" s="9">
         <v>0</v>
@@ -8091,16 +10597,16 @@
         <v>13</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>482</v>
+        <v>666</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" t="s" s="12">
-        <v>483</v>
+        <v>667</v>
       </c>
       <c r="H99" t="s" s="12">
         <f>HYPERLINK(G99)</f>
-        <v>484</v>
+        <v>668</v>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
@@ -8112,7 +10618,7 @@
     </row>
     <row r="100" ht="172" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>485</v>
+        <v>669</v>
       </c>
       <c r="B100" s="9">
         <v>5155501</v>
@@ -8121,16 +10627,16 @@
         <v>13</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>486</v>
+        <v>670</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" t="s" s="12">
-        <v>487</v>
+        <v>671</v>
       </c>
       <c r="H100" t="s" s="12">
         <f>HYPERLINK(G100)</f>
-        <v>488</v>
+        <v>672</v>
       </c>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
@@ -8142,7 +10648,7 @@
     </row>
     <row r="101" ht="159" customHeight="1">
       <c r="A101" t="s" s="3">
-        <v>489</v>
+        <v>673</v>
       </c>
       <c r="B101" s="9">
         <v>5160656</v>
@@ -8151,16 +10657,16 @@
         <v>13</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>490</v>
+        <v>674</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" t="s" s="12">
-        <v>491</v>
+        <v>675</v>
       </c>
       <c r="H101" t="s" s="12">
         <f>HYPERLINK(G101)</f>
-        <v>492</v>
+        <v>676</v>
       </c>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
@@ -8172,7 +10678,7 @@
     </row>
     <row r="102" ht="133" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>493</v>
+        <v>677</v>
       </c>
       <c r="B102" s="9">
         <v>5154206</v>
@@ -8181,16 +10687,16 @@
         <v>13</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>494</v>
+        <v>678</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" t="s" s="12">
-        <v>495</v>
+        <v>679</v>
       </c>
       <c r="H102" t="s" s="12">
         <f>HYPERLINK(G102)</f>
-        <v>496</v>
+        <v>680</v>
       </c>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
@@ -8202,7 +10708,7 @@
     </row>
     <row r="103" ht="146" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>497</v>
+        <v>681</v>
       </c>
       <c r="B103" s="9">
         <v>5154815</v>
@@ -8211,16 +10717,16 @@
         <v>13</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>498</v>
+        <v>682</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" t="s" s="12">
-        <v>499</v>
+        <v>683</v>
       </c>
       <c r="H103" t="s" s="12">
         <f>HYPERLINK(G103)</f>
-        <v>500</v>
+        <v>684</v>
       </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -8232,7 +10738,7 @@
     </row>
     <row r="104" ht="172" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>501</v>
+        <v>685</v>
       </c>
       <c r="B104" s="9">
         <v>5144930</v>
@@ -8241,16 +10747,16 @@
         <v>13</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>502</v>
+        <v>686</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" t="s" s="12">
-        <v>503</v>
+        <v>687</v>
       </c>
       <c r="H104" t="s" s="12">
         <f>HYPERLINK(G104)</f>
-        <v>504</v>
+        <v>688</v>
       </c>
       <c r="I104" s="13"/>
       <c r="J104" s="13"/>
@@ -8262,7 +10768,7 @@
     </row>
     <row r="105" ht="159" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>505</v>
+        <v>689</v>
       </c>
       <c r="B105" s="9">
         <v>5148691</v>
@@ -8271,16 +10777,16 @@
         <v>13</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>506</v>
+        <v>690</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" t="s" s="12">
-        <v>507</v>
+        <v>691</v>
       </c>
       <c r="H105" t="s" s="12">
         <f>HYPERLINK(G105)</f>
-        <v>508</v>
+        <v>692</v>
       </c>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
@@ -8292,7 +10798,7 @@
     </row>
     <row r="106" ht="133" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>509</v>
+        <v>693</v>
       </c>
       <c r="B106" s="9">
         <v>5160982</v>
@@ -8301,16 +10807,16 @@
         <v>13</v>
       </c>
       <c r="D106" t="s" s="10">
-        <v>510</v>
+        <v>694</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" t="s" s="12">
-        <v>511</v>
+        <v>695</v>
       </c>
       <c r="H106" t="s" s="12">
         <f>HYPERLINK(G106)</f>
-        <v>512</v>
+        <v>696</v>
       </c>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
@@ -8322,7 +10828,7 @@
     </row>
     <row r="107" ht="159" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>513</v>
+        <v>697</v>
       </c>
       <c r="B107" s="9">
         <v>5144899</v>
@@ -8331,16 +10837,16 @@
         <v>13</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>514</v>
+        <v>698</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" t="s" s="12">
-        <v>515</v>
+        <v>699</v>
       </c>
       <c r="H107" t="s" s="12">
         <f>HYPERLINK(G107)</f>
-        <v>516</v>
+        <v>700</v>
       </c>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
@@ -8352,7 +10858,7 @@
     </row>
     <row r="108" ht="172" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>517</v>
+        <v>701</v>
       </c>
       <c r="B108" s="9">
         <v>5147043</v>
@@ -8361,16 +10867,16 @@
         <v>13</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>518</v>
+        <v>702</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" t="s" s="12">
-        <v>519</v>
+        <v>703</v>
       </c>
       <c r="H108" t="s" s="12">
         <f>HYPERLINK(G108)</f>
-        <v>520</v>
+        <v>704</v>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
@@ -8382,7 +10888,7 @@
     </row>
     <row r="109" ht="172" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>521</v>
+        <v>705</v>
       </c>
       <c r="B109" s="9">
         <v>5148485</v>
@@ -8391,16 +10897,16 @@
         <v>13</v>
       </c>
       <c r="D109" t="s" s="10">
-        <v>416</v>
+        <v>575</v>
       </c>
       <c r="E109" s="11"/>
       <c r="F109" s="11"/>
       <c r="G109" t="s" s="12">
-        <v>417</v>
+        <v>576</v>
       </c>
       <c r="H109" t="s" s="12">
         <f>HYPERLINK(G109)</f>
-        <v>418</v>
+        <v>577</v>
       </c>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
@@ -8412,7 +10918,7 @@
     </row>
     <row r="110" ht="172" customHeight="1">
       <c r="A110" t="s" s="3">
-        <v>522</v>
+        <v>706</v>
       </c>
       <c r="B110" s="9">
         <v>5148415</v>
@@ -8421,16 +10927,16 @@
         <v>13</v>
       </c>
       <c r="D110" t="s" s="10">
-        <v>416</v>
+        <v>575</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
       <c r="G110" t="s" s="12">
-        <v>417</v>
+        <v>576</v>
       </c>
       <c r="H110" t="s" s="12">
         <f>HYPERLINK(G110)</f>
-        <v>418</v>
+        <v>577</v>
       </c>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
@@ -8442,7 +10948,7 @@
     </row>
     <row r="111" ht="159" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>523</v>
+        <v>707</v>
       </c>
       <c r="B111" s="9">
         <v>5148537</v>
@@ -8451,16 +10957,16 @@
         <v>13</v>
       </c>
       <c r="D111" t="s" s="10">
-        <v>421</v>
+        <v>584</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11"/>
       <c r="G111" t="s" s="12">
-        <v>422</v>
+        <v>585</v>
       </c>
       <c r="H111" t="s" s="12">
         <f>HYPERLINK(G111)</f>
-        <v>423</v>
+        <v>586</v>
       </c>
       <c r="I111" s="13"/>
       <c r="J111" s="13"/>
@@ -8472,7 +10978,7 @@
     </row>
     <row r="112" ht="185" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>524</v>
+        <v>708</v>
       </c>
       <c r="B112" s="9">
         <v>5162491</v>
@@ -8481,16 +10987,16 @@
         <v>13</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>525</v>
+        <v>709</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" t="s" s="12">
-        <v>526</v>
+        <v>710</v>
       </c>
       <c r="H112" t="s" s="12">
         <f>HYPERLINK(G112)</f>
-        <v>527</v>
+        <v>711</v>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="13"/>
@@ -8502,7 +11008,7 @@
     </row>
     <row r="113" ht="159" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>528</v>
+        <v>712</v>
       </c>
       <c r="B113" s="9">
         <v>5166976</v>
@@ -8511,16 +11017,16 @@
         <v>13</v>
       </c>
       <c r="D113" t="s" s="10">
-        <v>529</v>
+        <v>713</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" t="s" s="12">
-        <v>530</v>
+        <v>714</v>
       </c>
       <c r="H113" t="s" s="12">
         <f>HYPERLINK(G113)</f>
-        <v>531</v>
+        <v>715</v>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
@@ -8532,7 +11038,7 @@
     </row>
     <row r="114" ht="185" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>532</v>
+        <v>716</v>
       </c>
       <c r="B114" s="9">
         <v>5145942</v>
@@ -8541,16 +11047,16 @@
         <v>13</v>
       </c>
       <c r="D114" t="s" s="10">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
       <c r="G114" t="s" s="12">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="H114" t="s" s="12">
         <f>HYPERLINK(G114)</f>
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
@@ -8562,7 +11068,7 @@
     </row>
     <row r="115" ht="172" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>533</v>
+        <v>717</v>
       </c>
       <c r="B115" s="9">
         <v>5145318</v>
@@ -8571,16 +11077,16 @@
         <v>13</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>534</v>
+        <v>718</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" t="s" s="12">
-        <v>535</v>
+        <v>719</v>
       </c>
       <c r="H115" t="s" s="12">
         <f>HYPERLINK(G115)</f>
-        <v>536</v>
+        <v>720</v>
       </c>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
@@ -8592,7 +11098,7 @@
     </row>
     <row r="116" ht="133" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>537</v>
+        <v>721</v>
       </c>
       <c r="B116" s="9">
         <v>5160920</v>
@@ -8601,16 +11107,16 @@
         <v>13</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>538</v>
+        <v>722</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" t="s" s="12">
-        <v>539</v>
+        <v>723</v>
       </c>
       <c r="H116" t="s" s="12">
         <f>HYPERLINK(G116)</f>
-        <v>540</v>
+        <v>724</v>
       </c>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
@@ -8622,7 +11128,7 @@
     </row>
     <row r="117" ht="133" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>541</v>
+        <v>725</v>
       </c>
       <c r="B117" s="9">
         <v>5153243</v>
@@ -8631,16 +11137,16 @@
         <v>13</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>542</v>
+        <v>726</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" t="s" s="12">
-        <v>543</v>
+        <v>727</v>
       </c>
       <c r="H117" t="s" s="12">
         <f>HYPERLINK(G117)</f>
-        <v>544</v>
+        <v>728</v>
       </c>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
@@ -8652,7 +11158,7 @@
     </row>
     <row r="118" ht="146" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>545</v>
+        <v>729</v>
       </c>
       <c r="B118" s="9">
         <v>5152271</v>
@@ -8661,16 +11167,16 @@
         <v>13</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>546</v>
+        <v>730</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" t="s" s="12">
-        <v>547</v>
+        <v>731</v>
       </c>
       <c r="H118" t="s" s="12">
         <f>HYPERLINK(G118)</f>
-        <v>548</v>
+        <v>732</v>
       </c>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
@@ -8682,7 +11188,7 @@
     </row>
     <row r="119" ht="146" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>549</v>
+        <v>733</v>
       </c>
       <c r="B119" s="9">
         <v>5160367</v>
@@ -8691,16 +11197,16 @@
         <v>13</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>550</v>
+        <v>734</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" t="s" s="12">
-        <v>551</v>
+        <v>735</v>
       </c>
       <c r="H119" t="s" s="12">
         <f>HYPERLINK(G119)</f>
-        <v>552</v>
+        <v>736</v>
       </c>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
@@ -8712,7 +11218,7 @@
     </row>
     <row r="120" ht="172" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>553</v>
+        <v>737</v>
       </c>
       <c r="B120" s="9">
         <v>5161260</v>
@@ -8721,16 +11227,16 @@
         <v>13</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>554</v>
+        <v>738</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" t="s" s="12">
-        <v>555</v>
+        <v>739</v>
       </c>
       <c r="H120" t="s" s="12">
         <f>HYPERLINK(G120)</f>
-        <v>556</v>
+        <v>740</v>
       </c>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
@@ -8742,7 +11248,7 @@
     </row>
     <row r="121" ht="146" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>557</v>
+        <v>741</v>
       </c>
       <c r="B121" s="9">
         <v>5160691</v>
@@ -8751,16 +11257,16 @@
         <v>13</v>
       </c>
       <c r="D121" t="s" s="10">
-        <v>558</v>
+        <v>742</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" t="s" s="12">
-        <v>559</v>
+        <v>743</v>
       </c>
       <c r="H121" t="s" s="12">
         <f>HYPERLINK(G121)</f>
-        <v>560</v>
+        <v>744</v>
       </c>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>
@@ -8772,7 +11278,7 @@
     </row>
     <row r="122" ht="185" customHeight="1">
       <c r="A122" t="s" s="3">
-        <v>561</v>
+        <v>745</v>
       </c>
       <c r="B122" s="9">
         <v>5164054</v>
@@ -8781,16 +11287,16 @@
         <v>13</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>562</v>
+        <v>746</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" t="s" s="12">
-        <v>563</v>
+        <v>747</v>
       </c>
       <c r="H122" t="s" s="12">
         <f>HYPERLINK(G122)</f>
-        <v>564</v>
+        <v>748</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -8802,7 +11308,7 @@
     </row>
     <row r="123" ht="146" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>565</v>
+        <v>749</v>
       </c>
       <c r="B123" s="9">
         <v>5164505</v>
@@ -8811,16 +11317,16 @@
         <v>13</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>566</v>
+        <v>750</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" t="s" s="12">
-        <v>567</v>
+        <v>751</v>
       </c>
       <c r="H123" t="s" s="12">
         <f>HYPERLINK(G123)</f>
-        <v>568</v>
+        <v>752</v>
       </c>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
@@ -8832,7 +11338,7 @@
     </row>
     <row r="124" ht="172" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>569</v>
+        <v>753</v>
       </c>
       <c r="B124" s="9">
         <v>5165251</v>
@@ -8841,16 +11347,16 @@
         <v>13</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>570</v>
+        <v>754</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" t="s" s="12">
-        <v>571</v>
+        <v>755</v>
       </c>
       <c r="H124" t="s" s="12">
         <f>HYPERLINK(G124)</f>
-        <v>572</v>
+        <v>756</v>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
@@ -8862,7 +11368,7 @@
     </row>
     <row r="125" ht="159" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>573</v>
+        <v>757</v>
       </c>
       <c r="B125" s="9">
         <v>5156211</v>
@@ -8871,16 +11377,16 @@
         <v>13</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>574</v>
+        <v>758</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" t="s" s="12">
-        <v>575</v>
+        <v>759</v>
       </c>
       <c r="H125" t="s" s="12">
         <f>HYPERLINK(G125)</f>
-        <v>576</v>
+        <v>760</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
@@ -8892,7 +11398,7 @@
     </row>
     <row r="126" ht="146" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>577</v>
+        <v>761</v>
       </c>
       <c r="B126" s="9">
         <v>5161138</v>
@@ -8901,16 +11407,16 @@
         <v>13</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>578</v>
+        <v>762</v>
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" t="s" s="12">
-        <v>579</v>
+        <v>763</v>
       </c>
       <c r="H126" t="s" s="12">
         <f>HYPERLINK(G126)</f>
-        <v>580</v>
+        <v>764</v>
       </c>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
@@ -8922,7 +11428,7 @@
     </row>
     <row r="127" ht="146" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>581</v>
+        <v>765</v>
       </c>
       <c r="B127" s="9">
         <v>5159056</v>
@@ -8931,16 +11437,16 @@
         <v>13</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>582</v>
+        <v>766</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" t="s" s="12">
-        <v>583</v>
+        <v>767</v>
       </c>
       <c r="H127" t="s" s="12">
         <f>HYPERLINK(G127)</f>
-        <v>584</v>
+        <v>768</v>
       </c>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
@@ -8952,7 +11458,7 @@
     </row>
     <row r="128" ht="146" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>585</v>
+        <v>769</v>
       </c>
       <c r="B128" s="9">
         <v>5152967</v>
@@ -8961,16 +11467,16 @@
         <v>13</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>586</v>
+        <v>770</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" t="s" s="12">
-        <v>587</v>
+        <v>771</v>
       </c>
       <c r="H128" t="s" s="12">
         <f>HYPERLINK(G128)</f>
-        <v>588</v>
+        <v>772</v>
       </c>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
@@ -8982,7 +11488,7 @@
     </row>
     <row r="129" ht="133" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>589</v>
+        <v>773</v>
       </c>
       <c r="B129" s="9">
         <v>5154965</v>
@@ -8991,16 +11497,16 @@
         <v>13</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>590</v>
+        <v>774</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" t="s" s="12">
-        <v>591</v>
+        <v>775</v>
       </c>
       <c r="H129" t="s" s="12">
         <f>HYPERLINK(G129)</f>
-        <v>592</v>
+        <v>776</v>
       </c>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
@@ -9012,7 +11518,7 @@
     </row>
     <row r="130" ht="146" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>593</v>
+        <v>777</v>
       </c>
       <c r="B130" s="9">
         <v>5153256</v>
@@ -9042,7 +11548,7 @@
     </row>
     <row r="131" ht="159" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>594</v>
+        <v>778</v>
       </c>
       <c r="B131" s="9">
         <v>5152555</v>
@@ -9051,16 +11557,16 @@
         <v>13</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>595</v>
+        <v>779</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" t="s" s="12">
-        <v>596</v>
+        <v>780</v>
       </c>
       <c r="H131" t="s" s="12">
         <f>HYPERLINK(G131)</f>
-        <v>597</v>
+        <v>781</v>
       </c>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
@@ -9072,7 +11578,7 @@
     </row>
     <row r="132" ht="159" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>598</v>
+        <v>782</v>
       </c>
       <c r="B132" s="9">
         <v>5157879</v>
@@ -9081,16 +11587,16 @@
         <v>13</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>599</v>
+        <v>783</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" t="s" s="12">
-        <v>600</v>
+        <v>784</v>
       </c>
       <c r="H132" t="s" s="12">
         <f>HYPERLINK(G132)</f>
-        <v>601</v>
+        <v>785</v>
       </c>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
@@ -9102,7 +11608,7 @@
     </row>
     <row r="133" ht="146" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>602</v>
+        <v>786</v>
       </c>
       <c r="B133" s="9">
         <v>5148810</v>
@@ -9111,16 +11617,16 @@
         <v>13</v>
       </c>
       <c r="D133" t="s" s="10">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="E133" s="11"/>
       <c r="F133" s="11"/>
       <c r="G133" t="s" s="12">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="H133" t="s" s="12">
         <f>HYPERLINK(G133)</f>
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
@@ -9132,7 +11638,7 @@
     </row>
     <row r="134" ht="159" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>603</v>
+        <v>787</v>
       </c>
       <c r="B134" s="9">
         <v>5146140</v>
@@ -9141,16 +11647,16 @@
         <v>13</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>604</v>
+        <v>788</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" t="s" s="12">
-        <v>605</v>
+        <v>789</v>
       </c>
       <c r="H134" t="s" s="12">
         <f>HYPERLINK(G134)</f>
-        <v>606</v>
+        <v>790</v>
       </c>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
@@ -9162,7 +11668,7 @@
     </row>
     <row r="135" ht="159" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>607</v>
+        <v>791</v>
       </c>
       <c r="B135" s="9">
         <v>5152101</v>
@@ -9171,16 +11677,16 @@
         <v>13</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>608</v>
+        <v>792</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" t="s" s="12">
-        <v>609</v>
+        <v>793</v>
       </c>
       <c r="H135" t="s" s="12">
         <f>HYPERLINK(G135)</f>
-        <v>610</v>
+        <v>794</v>
       </c>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
@@ -9192,7 +11698,7 @@
     </row>
     <row r="136" ht="146" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>611</v>
+        <v>795</v>
       </c>
       <c r="B136" s="9">
         <v>5151991</v>
@@ -9201,16 +11707,16 @@
         <v>13</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>612</v>
+        <v>796</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" t="s" s="12">
-        <v>613</v>
+        <v>797</v>
       </c>
       <c r="H136" t="s" s="12">
         <f>HYPERLINK(G136)</f>
-        <v>614</v>
+        <v>798</v>
       </c>
       <c r="I136" s="13"/>
       <c r="J136" s="13"/>
@@ -9222,7 +11728,7 @@
     </row>
     <row r="137" ht="172" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>615</v>
+        <v>799</v>
       </c>
       <c r="B137" s="9">
         <v>5147905</v>
@@ -9231,16 +11737,16 @@
         <v>13</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>616</v>
+        <v>800</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" t="s" s="12">
-        <v>617</v>
+        <v>801</v>
       </c>
       <c r="H137" t="s" s="12">
         <f>HYPERLINK(G137)</f>
-        <v>618</v>
+        <v>802</v>
       </c>
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
@@ -9252,7 +11758,7 @@
     </row>
     <row r="138" ht="159" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>619</v>
+        <v>803</v>
       </c>
       <c r="B138" s="9">
         <v>5156414</v>
@@ -9261,16 +11767,16 @@
         <v>13</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>620</v>
+        <v>804</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" t="s" s="12">
-        <v>621</v>
+        <v>805</v>
       </c>
       <c r="H138" t="s" s="12">
         <f>HYPERLINK(G138)</f>
-        <v>622</v>
+        <v>806</v>
       </c>
       <c r="I138" s="13"/>
       <c r="J138" s="13"/>
@@ -9396,115 +11902,299 @@
     <hyperlink ref="K28" r:id="rId112" location="" tooltip="" display="https://goo.gl/maps/Dtx1sTmMRLtGqQqJ8"/>
     <hyperlink ref="L28" r:id="rId113" location="" tooltip="" display="https://goo.gl/maps/RrwVJqjxxmp1k1JF9"/>
     <hyperlink ref="H29" r:id="rId114" location="" tooltip="" display="https://www.google.com/maps/place/FM+2222+RD+%26+SITIO+DEL+RIO+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H30" r:id="rId115" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+DUVAL+ST+,+Austin,+TX"/>
-    <hyperlink ref="H31" r:id="rId116" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+ADAMS+AVE,+Austin,+TX"/>
-    <hyperlink ref="H32" r:id="rId117" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+PRESSLER+ST,+Austin,+TX"/>
-    <hyperlink ref="H33" r:id="rId118" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+LAWNMONT+AVE,+Austin,+TX"/>
-    <hyperlink ref="H34" r:id="rId119" location="" tooltip="" display="https://www.google.com/maps/place/12TH+ST+%26+LUNA+ST+,+Austin,+TX"/>
-    <hyperlink ref="H35" r:id="rId120" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+TUDOR+HOUSE+RD,+Austin,+TX"/>
-    <hyperlink ref="H36" r:id="rId121" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H37" r:id="rId122" location="" tooltip="" display="https://www.google.com/maps/place/PLEASANT+VALLEY+RD+%26+FRANKLIN+PARK+DR,+Austin,+TX"/>
-    <hyperlink ref="H38" r:id="rId123" location="" tooltip="" display="https://www.google.com/maps/place/RUNDBERG+LN+%26+PARKFIELD+DR,+Austin,+TX"/>
-    <hyperlink ref="H39" r:id="rId124" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+GUADALUPE+ST,+Austin,+TX"/>
-    <hyperlink ref="H40" r:id="rId125" location="" tooltip="" display="https://www.google.com/maps/place/KOENIG+LN+%26+GROVER+AVE,+Austin,+TX"/>
-    <hyperlink ref="H41" r:id="rId126" location="" tooltip="" display="https://www.google.com/maps/place/KOENIG+LN+%26+WOODROW+AVE,+Austin,+TX"/>
-    <hyperlink ref="H42" r:id="rId127" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+GRADY+DR,+Austin,+TX"/>
-    <hyperlink ref="H43" r:id="rId128" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+VISTA+PARKE+DR,+Austin,+TX"/>
-    <hyperlink ref="H44" r:id="rId129" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+INDUSTRIAL+OAKS+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H45" r:id="rId130" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+2222+RD,+Austin,+TX"/>
-    <hyperlink ref="H46" r:id="rId131" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H47" r:id="rId132" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
-    <hyperlink ref="H48" r:id="rId133" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+NORTH+LOOP+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H49" r:id="rId134" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+10TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H50" r:id="rId135" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+9TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H51" r:id="rId136" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+12TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H52" r:id="rId137" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+53RD+HALF+ST,+Austin,+TX"/>
-    <hyperlink ref="H53" r:id="rId138" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+BILBROOK+PL,+Austin,+TX"/>
-    <hyperlink ref="H54" r:id="rId139" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+MONARCH+DR,+Austin,+TX"/>
-    <hyperlink ref="H55" r:id="rId140" location="" tooltip="" display="https://www.google.com/maps/place/PLEASANT+VALLEY+RD+%26+STASSNEY+LN,+Austin,+TX"/>
-    <hyperlink ref="H56" r:id="rId141" location="" tooltip="" display="https://www.google.com/maps/place/CHICON+ST+%26+6TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H57" r:id="rId142" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+CHICON+ST,+Austin,+TX"/>
-    <hyperlink ref="H58" r:id="rId143" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+ROBERT+T+MARTINEZ+JR+ST,+Austin,+TX"/>
-    <hyperlink ref="H59" r:id="rId144" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
-    <hyperlink ref="H60" r:id="rId145" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+RUTLAND+DR,+Austin,+TX"/>
-    <hyperlink ref="H61" r:id="rId146" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H62" r:id="rId147" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+CURLEW+DR,+Austin,+TX"/>
-    <hyperlink ref="H63" r:id="rId148" location="" tooltip="" display="https://www.google.com/maps/place/12500+BLK+N+LAMAR+BLVD+,+Austin,+TX"/>
-    <hyperlink ref="H64" r:id="rId149" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+WEST+GATE+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H65" r:id="rId150" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+LINDSHIRE+LN,+Austin,+TX"/>
-    <hyperlink ref="H66" r:id="rId151" location="" tooltip="" display="https://www.google.com/maps/place/2000+BLK+W+SLAUGHTER+LN+,+Austin,+TX"/>
-    <hyperlink ref="H67" r:id="rId152" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+RIDDLE+RD,+Austin,+TX"/>
-    <hyperlink ref="H68" r:id="rId153" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
-    <hyperlink ref="H69" r:id="rId154" location="" tooltip="" display="https://www.google.com/maps/place/3201+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
-    <hyperlink ref="H70" r:id="rId155" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+PEDERNALES+ST,+Austin,+TX"/>
-    <hyperlink ref="H71" r:id="rId156" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+FOUR+POINTS+DR,+Austin,+TX"/>
-    <hyperlink ref="H72" r:id="rId157" location="" tooltip="" display="https://www.google.com/maps/place/PARKFIELD+DR+%26+RUTLAND+DR,+Austin,+TX"/>
-    <hyperlink ref="H73" r:id="rId158" location="" tooltip="" display="https://www.google.com/maps/place/2400+BLK+RUTLAND+DR,+Austin,+TX"/>
-    <hyperlink ref="H74" r:id="rId159" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+HARTFORD+RD,+Austin,+TX"/>
-    <hyperlink ref="H75" r:id="rId160" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+12TH+ST,+Austin,+TX"/>
-    <hyperlink ref="H76" r:id="rId161" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+PANTHER+TRL,+Austin,+TX"/>
-    <hyperlink ref="H77" r:id="rId162" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+CAMPBELL+ST,+Austin,+TX"/>
-    <hyperlink ref="H78" r:id="rId163" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+TEXAS+OAKS+DR,+Austin,+TX"/>
-    <hyperlink ref="H79" r:id="rId164" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MASTERSON+PASS,+Austin,+TX"/>
-    <hyperlink ref="H80" r:id="rId165" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+BARTON+SKWY+,+Austin,+TX"/>
-    <hyperlink ref="H81" r:id="rId166" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H82" r:id="rId167" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H83" r:id="rId168" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H84" r:id="rId169" location="" tooltip="" display="https://www.google.com/maps/place/GUADALUPE+ST+%26+NORTH+LOOP+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H85" r:id="rId170" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+35+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H86" r:id="rId171" location="" tooltip="" display="https://www.google.com/maps/place/BULL+CREEK+RD+%26+HANCOCK+DR,+Austin,+TX"/>
-    <hyperlink ref="H87" r:id="rId172" location="" tooltip="" display="https://www.google.com/maps/place/WELLS+BRANCH+PKWY+%26+SUMMIT+DR,+Austin,+TX"/>
-    <hyperlink ref="H88" r:id="rId173" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+BOSTON+LN,+Austin,+TX"/>
-    <hyperlink ref="H89" r:id="rId174" location="" tooltip="" display="https://www.google.com/maps/place/HOWARD+LN+%26+WELLS+BRANCH+PKWY,+Austin,+TX"/>
-    <hyperlink ref="H90" r:id="rId175" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+35+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H91" r:id="rId176" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H92" r:id="rId177" location="" tooltip="" display="https://www.google.com/maps/place/5701+BLK+MC+NEIL+DR+,+Austin,+TX"/>
-    <hyperlink ref="H93" r:id="rId178" location="" tooltip="" display="https://www.google.com/maps/place/US+183+HWY+%26+METROPOLIS+DR,+Austin,+TX"/>
-    <hyperlink ref="H94" r:id="rId179" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+SLAUGHTER+LN,+Austin,+TX"/>
-    <hyperlink ref="H95" r:id="rId180" location="" tooltip="" display="https://www.google.com/maps/place/EXPOSITION+BLVD+%26+WESTOVER+RD,+Austin,+TX"/>
-    <hyperlink ref="H96" r:id="rId181" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+KERBEY+LN,+Austin,+TX"/>
-    <hyperlink ref="H97" r:id="rId182" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H98" r:id="rId183" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MEADOWS+DR,+Austin,+TX"/>
-    <hyperlink ref="H99" r:id="rId184" location="" tooltip="" display="https://www.google.com/maps/place/5501+BLK+MC+NEIL+DR+,+Austin,+TX"/>
-    <hyperlink ref="H100" r:id="rId185" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H101" r:id="rId186" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+KOENIG+LN+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H102" r:id="rId187" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H103" r:id="rId188" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H104" r:id="rId189" location="" tooltip="" display="https://www.google.com/maps/place/ESCARPMENT+BLVD+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
-    <hyperlink ref="H105" r:id="rId190" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+ERNEST+ROBLES+WAY,+Austin,+TX"/>
-    <hyperlink ref="H106" r:id="rId191" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+CAMERON+RD,+Austin,+TX"/>
-    <hyperlink ref="H107" r:id="rId192" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
-    <hyperlink ref="H108" r:id="rId193" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MONTEREY+OAKS+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H109" r:id="rId194" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H110" r:id="rId195" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H111" r:id="rId196" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H112" r:id="rId197" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+E+M+FRANKLIN+AVE,+Austin,+TX"/>
-    <hyperlink ref="H113" r:id="rId198" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+CRYSTAL+BEND+DR,+Austin,+TX"/>
-    <hyperlink ref="H114" r:id="rId199" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
-    <hyperlink ref="H115" r:id="rId200" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+W+290+WB+AT+JOE+TANNER+TRN,+Austin,+TX"/>
-    <hyperlink ref="H116" r:id="rId201" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+CALLES+ST,+Austin,+TX"/>
-    <hyperlink ref="H117" r:id="rId202" location="" tooltip="" display="https://www.google.com/maps/place/2100+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
-    <hyperlink ref="H118" r:id="rId203" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+DICKSON+DR,+Austin,+TX"/>
-    <hyperlink ref="H119" r:id="rId204" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+51ST+ST,+Austin,+TX"/>
-    <hyperlink ref="H120" r:id="rId205" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+CLIFFORD+AVE,+Austin,+TX"/>
-    <hyperlink ref="H121" r:id="rId206" location="" tooltip="" display="https://www.google.com/maps/place/METRIC+BLVD+%26+KRAMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H122" r:id="rId207" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+SPRINGDALE+RD,+Austin,+TX"/>
-    <hyperlink ref="H123" r:id="rId208" location="" tooltip="" display="https://www.google.com/maps/place/SPRINGDALE+RD+%26+51ST+ST,+Austin,+TX"/>
-    <hyperlink ref="H124" r:id="rId209" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+TANNEHILL+LN,+Austin,+TX"/>
-    <hyperlink ref="H125" r:id="rId210" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+PALO+BLANCO+LN,+Austin,+TX"/>
-    <hyperlink ref="H126" r:id="rId211" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
-    <hyperlink ref="H127" r:id="rId212" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+COMAL+ST,+Austin,+TX"/>
-    <hyperlink ref="H128" r:id="rId213" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+SPECTRUM+DR,+Austin,+TX"/>
-    <hyperlink ref="H129" r:id="rId214" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+JACKSON+AVE,+Austin,+TX"/>
-    <hyperlink ref="H130" r:id="rId215" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H131" r:id="rId216" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BLUEBONNET+LN,+Austin,+TX"/>
-    <hyperlink ref="H132" r:id="rId217" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+NUCKOLS+CROSSING+RD,+Austin,+TX"/>
-    <hyperlink ref="H133" r:id="rId218" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H134" r:id="rId219" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+FOSTER+RANCH+RD,+Austin,+TX"/>
-    <hyperlink ref="H135" r:id="rId220" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MENCHACA+RD+,+Austin,+TX"/>
-    <hyperlink ref="H136" r:id="rId221" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BARTON+SKWY+,+Austin,+TX"/>
-    <hyperlink ref="H137" r:id="rId222" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+REPUBLIC+OF+TEXAS+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H138" r:id="rId223" location="" tooltip="" display="https://www.google.com/maps/place/SHOAL+CREEK+BLVD+%26+HANCOCK+DR,+Austin,+TX"/>
+    <hyperlink ref="I29" r:id="rId115" location="" tooltip="" display="https://goo.gl/maps/2LbnPq2rFWdxD39e7"/>
+    <hyperlink ref="K29" r:id="rId116" location="" tooltip="" display="https://goo.gl/maps/THMg9VSXWip1apDa8"/>
+    <hyperlink ref="L29" r:id="rId117" location="" tooltip="" display="https://goo.gl/maps/ovXPLrLoPnYsLbCu5"/>
+    <hyperlink ref="H30" r:id="rId118" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+DUVAL+ST+,+Austin,+TX"/>
+    <hyperlink ref="I30" r:id="rId119" location="" tooltip="" display="https://goo.gl/maps/5R6rxgY53wS5rz8L8"/>
+    <hyperlink ref="J30" r:id="rId120" location="" tooltip="" display="https://goo.gl/maps/yjmDi7Lcw32yNE7x7"/>
+    <hyperlink ref="K30" r:id="rId121" location="" tooltip="" display="https://goo.gl/maps/BdiAwiAkiyHrTeQv8"/>
+    <hyperlink ref="L30" r:id="rId122" location="" tooltip="" display="https://goo.gl/maps/CLHRpPRxRQw6bhXt7"/>
+    <hyperlink ref="H31" r:id="rId123" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+ADAMS+AVE,+Austin,+TX"/>
+    <hyperlink ref="I31" r:id="rId124" location="" tooltip="" display="https://goo.gl/maps/W1pWmGnv1wgfmRAx7"/>
+    <hyperlink ref="J31" r:id="rId125" location="" tooltip="" display="https://goo.gl/maps/218ZmuUVFp3gtrLm8"/>
+    <hyperlink ref="L31" r:id="rId126" location="" tooltip="" display="https://goo.gl/maps/YGb5LzN2jCHd8cov6"/>
+    <hyperlink ref="H32" r:id="rId127" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+PRESSLER+ST,+Austin,+TX"/>
+    <hyperlink ref="H33" r:id="rId128" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+LAWNMONT+AVE,+Austin,+TX"/>
+    <hyperlink ref="I33" r:id="rId129" location="" tooltip="" display="https://goo.gl/maps/8uxj5E1JBjL1oAudA"/>
+    <hyperlink ref="J33" r:id="rId130" location="" tooltip="" display="https://goo.gl/maps/QUFmFofgG1QSYGmc9"/>
+    <hyperlink ref="H34" r:id="rId131" location="" tooltip="" display="https://www.google.com/maps/place/12TH+ST+%26+LUNA+ST+,+Austin,+TX"/>
+    <hyperlink ref="K34" r:id="rId132" location="" tooltip="" display="https://goo.gl/maps/LByqhWxchzGo1qgu9"/>
+    <hyperlink ref="L34" r:id="rId133" location="" tooltip="" display="https://goo.gl/maps/rCTR8sBcBEtTDaQZ7"/>
+    <hyperlink ref="H35" r:id="rId134" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+TUDOR+HOUSE+RD,+Austin,+TX"/>
+    <hyperlink ref="H36" r:id="rId135" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
+    <hyperlink ref="H37" r:id="rId136" location="" tooltip="" display="https://www.google.com/maps/place/PLEASANT+VALLEY+RD+%26+FRANKLIN+PARK+DR,+Austin,+TX"/>
+    <hyperlink ref="H38" r:id="rId137" location="" tooltip="" display="https://www.google.com/maps/place/RUNDBERG+LN+%26+PARKFIELD+DR,+Austin,+TX"/>
+    <hyperlink ref="I38" r:id="rId138" location="" tooltip="" display="https://goo.gl/maps/uDGKqMMzcziNJRGQA"/>
+    <hyperlink ref="J38" r:id="rId139" location="" tooltip="" display="https://goo.gl/maps/XWPNhNCRbgkTTJPx9"/>
+    <hyperlink ref="K38" r:id="rId140" location="" tooltip="" display="https://goo.gl/maps/MhqMZXfp64Xk5dsr5"/>
+    <hyperlink ref="L38" r:id="rId141" location="" tooltip="" display="https://goo.gl/maps/6WBxFkdNdESMh5rr7"/>
+    <hyperlink ref="H39" r:id="rId142" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+GUADALUPE+ST,+Austin,+TX"/>
+    <hyperlink ref="I39" r:id="rId143" location="" tooltip="" display="https://goo.gl/maps/xqJvHPvxCKUWrJ5A8"/>
+    <hyperlink ref="J39" r:id="rId144" location="" tooltip="" display="https://goo.gl/maps/bupQ7nCd7wuNLXeH9"/>
+    <hyperlink ref="K39" r:id="rId145" location="" tooltip="" display="https://goo.gl/maps/rDZcQf5uivmNZYuU9"/>
+    <hyperlink ref="L39" r:id="rId146" location="" tooltip="" display="https://goo.gl/maps/cx4B42M3LssiMKA57"/>
+    <hyperlink ref="H40" r:id="rId147" location="" tooltip="" display="https://www.google.com/maps/place/KOENIG+LN+%26+GROVER+AVE,+Austin,+TX"/>
+    <hyperlink ref="I40" r:id="rId148" location="" tooltip="" display="https://goo.gl/maps/4cspwTSp7D5ifUXB6"/>
+    <hyperlink ref="J40" r:id="rId149" location="" tooltip="" display="https://goo.gl/maps/Uoo2kkMRSmUwpiXCA"/>
+    <hyperlink ref="K40" r:id="rId150" location="" tooltip="" display="https://goo.gl/maps/LDjfosfnXCNarXYr8"/>
+    <hyperlink ref="L40" r:id="rId151" location="" tooltip="" display="https://goo.gl/maps/XerU4nmhrLKE6aCdA"/>
+    <hyperlink ref="H41" r:id="rId152" location="" tooltip="" display="https://www.google.com/maps/place/KOENIG+LN+%26+WOODROW+AVE,+Austin,+TX"/>
+    <hyperlink ref="I41" r:id="rId153" location="" tooltip="" display="https://goo.gl/maps/KdoNWiCL4W2Svwwe8"/>
+    <hyperlink ref="J41" r:id="rId154" location="" tooltip="" display="https://goo.gl/maps/QKQg4RBsUJf7GWCx8"/>
+    <hyperlink ref="K41" r:id="rId155" location="" tooltip="" display="https://goo.gl/maps/8WPDSKXLTAuo3mSJ8"/>
+    <hyperlink ref="L41" r:id="rId156" location="" tooltip="" display="https://goo.gl/maps/nYtsgMu58MLqDWty8"/>
+    <hyperlink ref="H42" r:id="rId157" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+GRADY+DR,+Austin,+TX"/>
+    <hyperlink ref="H43" r:id="rId158" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+VISTA+PARKE+DR,+Austin,+TX"/>
+    <hyperlink ref="H44" r:id="rId159" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+INDUSTRIAL+OAKS+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I44" r:id="rId160" location="" tooltip="" display="https://goo.gl/maps/12rMVqsZXiirxd7m7"/>
+    <hyperlink ref="J44" r:id="rId161" location="" tooltip="" display="https://goo.gl/maps/ZjxA1Ws5mddjF59C7"/>
+    <hyperlink ref="L44" r:id="rId162" location="" tooltip="" display="https://goo.gl/maps/hbxw9mhjDrP8izec7"/>
+    <hyperlink ref="H45" r:id="rId163" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+2222+RD,+Austin,+TX"/>
+    <hyperlink ref="I45" r:id="rId164" location="" tooltip="" display="https://goo.gl/maps/gKJssHcYzbFdcSUh6"/>
+    <hyperlink ref="J45" r:id="rId165" location="" tooltip="" display="https://goo.gl/maps/E9Pq399uCaWx3CkUA"/>
+    <hyperlink ref="K45" r:id="rId166" location="" tooltip="" display="https://goo.gl/maps/GJyckUZbJFaLyWBB7"/>
+    <hyperlink ref="L45" r:id="rId167" location="" tooltip="" display="https://goo.gl/maps/MeWSHkWu5R2Nu37UA"/>
+    <hyperlink ref="H46" r:id="rId168" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="I46" r:id="rId169" location="" tooltip="" display="https://goo.gl/maps/hpg3pkrrtDQkFXrd9"/>
+    <hyperlink ref="J46" r:id="rId170" location="" tooltip="" display="https://goo.gl/maps/j3PhFj8NECuFw2cZ6"/>
+    <hyperlink ref="K46" r:id="rId171" location="" tooltip="" display="https://goo.gl/maps/w72t4eKqDr8XKTxg8"/>
+    <hyperlink ref="H47" r:id="rId172" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
+    <hyperlink ref="I47" r:id="rId173" location="" tooltip="" display="https://goo.gl/maps/7uvJpT9oiLw4PfNN9"/>
+    <hyperlink ref="J47" r:id="rId174" location="" tooltip="" display="https://goo.gl/maps/x3anb8a9t9dHbg119"/>
+    <hyperlink ref="L47" r:id="rId175" location="" tooltip="" display="https://goo.gl/maps/t8y8MSFrw9yCp9qU6"/>
+    <hyperlink ref="H48" r:id="rId176" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+NORTH+LOOP+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I48" r:id="rId177" location="" tooltip="" display="https://goo.gl/maps/b4xoedDxadC8ABJ6A"/>
+    <hyperlink ref="J48" r:id="rId178" location="" tooltip="" display="https://goo.gl/maps/RkbE6WnZErDnwTFq9"/>
+    <hyperlink ref="K48" r:id="rId179" location="" tooltip="" display="https://goo.gl/maps/EjuFrHsQ623Zy4do7"/>
+    <hyperlink ref="L48" r:id="rId180" location="" tooltip="" display="https://goo.gl/maps/5UcMGZZMFB3UV2Nn9"/>
+    <hyperlink ref="H49" r:id="rId181" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+10TH+ST,+Austin,+TX"/>
+    <hyperlink ref="I49" r:id="rId182" location="" tooltip="" display="https://goo.gl/maps/byppNx6XaA8Gc9TT9"/>
+    <hyperlink ref="J49" r:id="rId183" location="" tooltip="" display="https://goo.gl/maps/HwPgANRtB8R9fUX26"/>
+    <hyperlink ref="K49" r:id="rId184" location="" tooltip="" display="https://goo.gl/maps/GKrBAeziN3K7Sibv9"/>
+    <hyperlink ref="L49" r:id="rId185" location="" tooltip="" display="https://goo.gl/maps/hd7AUQLy2peaVPaw7"/>
+    <hyperlink ref="H50" r:id="rId186" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+9TH+ST,+Austin,+TX"/>
+    <hyperlink ref="I50" r:id="rId187" location="" tooltip="" display="https://goo.gl/maps/bj5UNQnzfPBUYKRP9"/>
+    <hyperlink ref="J50" r:id="rId188" location="" tooltip="" display="https://goo.gl/maps/qph7jAN4JL3DuzQU8"/>
+    <hyperlink ref="K50" r:id="rId189" location="" tooltip="" display="https://goo.gl/maps/4i8Q2LYd3F6EPeiL6"/>
+    <hyperlink ref="L50" r:id="rId190" location="" tooltip="" display="https://goo.gl/maps/fi37y7W6VYCoJeYM8"/>
+    <hyperlink ref="H51" r:id="rId191" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+12TH+ST,+Austin,+TX"/>
+    <hyperlink ref="I51" r:id="rId192" location="" tooltip="" display="https://goo.gl/maps/HYKVZtAhqioHN7ES6"/>
+    <hyperlink ref="J51" r:id="rId193" location="" tooltip="" display="https://goo.gl/maps/mkBynfJj8Mx1GT9K6"/>
+    <hyperlink ref="K51" r:id="rId194" location="" tooltip="" display="https://goo.gl/maps/Fks57z2ZmfTtN8gb9"/>
+    <hyperlink ref="L51" r:id="rId195" location="" tooltip="" display="https://goo.gl/maps/TL9L8SwmodPBbNDfA"/>
+    <hyperlink ref="H52" r:id="rId196" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+53RD+HALF+ST,+Austin,+TX"/>
+    <hyperlink ref="I52" r:id="rId197" location="" tooltip="" display="https://goo.gl/maps/a3B3pG4yTtHiBfUh8"/>
+    <hyperlink ref="J52" r:id="rId198" location="" tooltip="" display="https://goo.gl/maps/pXK7wigCTocBY91e7"/>
+    <hyperlink ref="K52" r:id="rId199" location="" tooltip="" display="https://goo.gl/maps/bRHgLmKgRXYHTrrf8"/>
+    <hyperlink ref="L52" r:id="rId200" location="" tooltip="" display="https://goo.gl/maps/WbcTEa1pixvcbjcF8"/>
+    <hyperlink ref="H53" r:id="rId201" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+BILBROOK+PL,+Austin,+TX"/>
+    <hyperlink ref="I53" r:id="rId202" location="" tooltip="" display="https://goo.gl/maps/nkrD1331TcxfsQb78"/>
+    <hyperlink ref="J53" r:id="rId203" location="" tooltip="" display="https://goo.gl/maps/F6gH4ZkikJ1nz3jh9"/>
+    <hyperlink ref="K53" r:id="rId204" location="" tooltip="" display="https://goo.gl/maps/ur1S7D7ZrhDP2ovc6"/>
+    <hyperlink ref="L53" r:id="rId205" location="" tooltip="" display="https://goo.gl/maps/xzb75shFqD9b6SqX7"/>
+    <hyperlink ref="H54" r:id="rId206" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+MONARCH+DR,+Austin,+TX"/>
+    <hyperlink ref="I54" r:id="rId207" location="" tooltip="" display="https://goo.gl/maps/4pgLHLUq78g2Dgsx8"/>
+    <hyperlink ref="J54" r:id="rId208" location="" tooltip="" display="https://goo.gl/maps/ag2pKJC28aXZzVrs5"/>
+    <hyperlink ref="K54" r:id="rId209" location="" tooltip="" display="https://goo.gl/maps/zMfDNwd2bdPxTnxQ7"/>
+    <hyperlink ref="L54" r:id="rId210" location="" tooltip="" display="https://goo.gl/maps/K8CWy87iuWTZnc1FA"/>
+    <hyperlink ref="H55" r:id="rId211" location="" tooltip="" display="https://www.google.com/maps/place/PLEASANT+VALLEY+RD+%26+STASSNEY+LN,+Austin,+TX"/>
+    <hyperlink ref="I55" r:id="rId212" location="" tooltip="" display="https://goo.gl/maps/BKtga6x6oZMCgh5M7"/>
+    <hyperlink ref="J55" r:id="rId213" location="" tooltip="" display="https://goo.gl/maps/knVFGWpsNf5sjYGYA"/>
+    <hyperlink ref="K55" r:id="rId214" location="" tooltip="" display="https://goo.gl/maps/5QdULJNaMgsJkUWy8"/>
+    <hyperlink ref="L55" r:id="rId215" location="" tooltip="" display="https://goo.gl/maps/zSSChtyDfPuokoSf7"/>
+    <hyperlink ref="H56" r:id="rId216" location="" tooltip="" display="https://www.google.com/maps/place/CHICON+ST+%26+6TH+ST,+Austin,+TX"/>
+    <hyperlink ref="I56" r:id="rId217" location="" tooltip="" display="https://goo.gl/maps/kNQ63GWTHc8JyWF27"/>
+    <hyperlink ref="J56" r:id="rId218" location="" tooltip="" display="https://goo.gl/maps/EMHmU1iirnuwSBJV8"/>
+    <hyperlink ref="K56" r:id="rId219" location="" tooltip="" display="https://goo.gl/maps/UjxHSPRW3BUeCHm28"/>
+    <hyperlink ref="L56" r:id="rId220" location="" tooltip="" display="https://goo.gl/maps/pB5kJFX1LfJKnGHD6"/>
+    <hyperlink ref="H57" r:id="rId221" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+CHICON+ST,+Austin,+TX"/>
+    <hyperlink ref="I57" r:id="rId222" location="" tooltip="" display="https://goo.gl/maps/EQ6p5iMUNCiFdw6D9"/>
+    <hyperlink ref="J57" r:id="rId223" location="" tooltip="" display="https://goo.gl/maps/QH7o7Mti3pUs6Yiw6"/>
+    <hyperlink ref="K57" r:id="rId224" location="" tooltip="" display="https://goo.gl/maps/KfiAmvE8u9LpfLH57"/>
+    <hyperlink ref="L57" r:id="rId225" location="" tooltip="" display="https://goo.gl/maps/FsWnJMhkmWT3F3a36"/>
+    <hyperlink ref="H58" r:id="rId226" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+ROBERT+T+MARTINEZ+JR+ST,+Austin,+TX"/>
+    <hyperlink ref="I58" r:id="rId227" location="" tooltip="" display="https://goo.gl/maps/3njbfXfZoPTh1j9r5"/>
+    <hyperlink ref="J58" r:id="rId228" location="" tooltip="" display="https://goo.gl/maps/AuxShv6jQXangpA27"/>
+    <hyperlink ref="K58" r:id="rId229" location="" tooltip="" display="https://goo.gl/maps/Z1MqxEfyjVhuoqTX7"/>
+    <hyperlink ref="L58" r:id="rId230" location="" tooltip="" display="https://goo.gl/maps/Ve3ZeeM6p9HRChpv9"/>
+    <hyperlink ref="H59" r:id="rId231" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
+    <hyperlink ref="I59" r:id="rId232" location="" tooltip="" display="https://goo.gl/maps/suDE6CpvdT9YNBrCA"/>
+    <hyperlink ref="J59" r:id="rId233" location="" tooltip="" display="https://goo.gl/maps/BYUEMQas68fJzszY8"/>
+    <hyperlink ref="K59" r:id="rId234" location="" tooltip="" display="https://goo.gl/maps/uaYtZmii64tSqsgw8"/>
+    <hyperlink ref="L59" r:id="rId235" location="" tooltip="" display="https://goo.gl/maps/QeY9hwYFJpzHLEwM7"/>
+    <hyperlink ref="H60" r:id="rId236" location="" tooltip="" display="https://www.google.com/maps/place/BURNET+RD+%26+RUTLAND+DR,+Austin,+TX"/>
+    <hyperlink ref="I60" r:id="rId237" location="" tooltip="" display="https://goo.gl/maps/GSfM7BN374o6wcww5"/>
+    <hyperlink ref="J60" r:id="rId238" location="" tooltip="" display="https://goo.gl/maps/yi5pWfAYZuSra1sSA"/>
+    <hyperlink ref="L60" r:id="rId239" location="" tooltip="" display="https://goo.gl/maps/Yy7JyTNnMrgi898B8"/>
+    <hyperlink ref="H61" r:id="rId240" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="I61" r:id="rId241" location="" tooltip="" display="https://goo.gl/maps/fbFPH1tCpQG9L4rv6"/>
+    <hyperlink ref="J61" r:id="rId242" location="" tooltip="" display="https://goo.gl/maps/9XeAiBBCp7vZZa2s7"/>
+    <hyperlink ref="K61" r:id="rId243" location="" tooltip="" display="https://goo.gl/maps/BSfaQsLUKmbgH5KL7"/>
+    <hyperlink ref="L61" r:id="rId244" location="" tooltip="" display="https://goo.gl/maps/UXX1KTWwqDJVL4Lv5"/>
+    <hyperlink ref="H62" r:id="rId245" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+CURLEW+DR,+Austin,+TX"/>
+    <hyperlink ref="I62" r:id="rId246" location="" tooltip="" display="https://goo.gl/maps/EuAZAj55ivjtzUzH8"/>
+    <hyperlink ref="J62" r:id="rId247" location="" tooltip="" display="https://goo.gl/maps/ctrmXVaQHxU1YVi28"/>
+    <hyperlink ref="K62" r:id="rId248" location="" tooltip="" display="https://goo.gl/maps/NPwArTzY3miy314TA"/>
+    <hyperlink ref="L62" r:id="rId249" location="" tooltip="" display="https://goo.gl/maps/FF7iiUaqsU7yAnGh6"/>
+    <hyperlink ref="H63" r:id="rId250" location="" tooltip="" display="https://www.google.com/maps/place/12500+BLK+N+LAMAR+BLVD+,+Austin,+TX"/>
+    <hyperlink ref="I63" r:id="rId251" location="" tooltip="" display="https://goo.gl/maps/9MuKmK8J6NUjZ8SG6"/>
+    <hyperlink ref="J63" r:id="rId252" location="" tooltip="" display="https://goo.gl/maps/nDNjoXHddKTYjNRc9"/>
+    <hyperlink ref="K63" r:id="rId253" location="" tooltip="" display="https://goo.gl/maps/PTPqdf69WrQeszoV6"/>
+    <hyperlink ref="L63" r:id="rId254" location="" tooltip="" display="https://goo.gl/maps/DA8hxDVYFXR5PqiK7"/>
+    <hyperlink ref="H64" r:id="rId255" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+WEST+GATE+BLVD,+Austin,+TX"/>
+    <hyperlink ref="J64" r:id="rId256" location="" tooltip="" display="https://goo.gl/maps/5iVU4sKztiRG9bPKA"/>
+    <hyperlink ref="K64" r:id="rId257" location="" tooltip="" display="https://goo.gl/maps/QMwViVqLMc44a6Pv8"/>
+    <hyperlink ref="L64" r:id="rId258" location="" tooltip="" display="https://goo.gl/maps/Fm4SyaxAiQS54gdP7"/>
+    <hyperlink ref="H65" r:id="rId259" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+LINDSHIRE+LN,+Austin,+TX"/>
+    <hyperlink ref="I65" r:id="rId260" location="" tooltip="" display="https://goo.gl/maps/CHkTWUTy6MNYHes36"/>
+    <hyperlink ref="J65" r:id="rId261" location="" tooltip="" display="https://goo.gl/maps/9dfPsHpJKtrXrXW47"/>
+    <hyperlink ref="K65" r:id="rId262" location="" tooltip="" display="https://goo.gl/maps/xWnjz3BVnn2Trt4b8"/>
+    <hyperlink ref="L65" r:id="rId263" location="" tooltip="" display="https://goo.gl/maps/LjbbTrsQLy3MTVZdA"/>
+    <hyperlink ref="H66" r:id="rId264" location="" tooltip="" display="https://www.google.com/maps/place/2000+BLK+W+SLAUGHTER+LN+,+Austin,+TX"/>
+    <hyperlink ref="J66" r:id="rId265" location="" tooltip="" display="https://goo.gl/maps/2sEEThqjkBmo6EpE8"/>
+    <hyperlink ref="K66" r:id="rId266" location="" tooltip="" display="https://goo.gl/maps/6iiFwFCm2zyXucnC8"/>
+    <hyperlink ref="L66" r:id="rId267" location="" tooltip="" display="https://goo.gl/maps/k7EjKM4kKTDJNxAG7"/>
+    <hyperlink ref="H67" r:id="rId268" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+RIDDLE+RD,+Austin,+TX"/>
+    <hyperlink ref="I67" r:id="rId269" location="" tooltip="" display="https://goo.gl/maps/gy2RNEquSpN5qGzr6"/>
+    <hyperlink ref="J67" r:id="rId270" location="" tooltip="" display="https://goo.gl/maps/Zp2U34aCngyCFjSz6"/>
+    <hyperlink ref="K67" r:id="rId271" location="" tooltip="" display="https://goo.gl/maps/dCSSZ2r4fB7E1urv7"/>
+    <hyperlink ref="L67" r:id="rId272" location="" tooltip="" display="https://goo.gl/maps/f7MNuFfUb5pQ8BFt6"/>
+    <hyperlink ref="H68" r:id="rId273" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
+    <hyperlink ref="I68" r:id="rId274" location="" tooltip="" display="https://goo.gl/maps/VBBt4xnNSdnVphX67"/>
+    <hyperlink ref="J68" r:id="rId275" location="" tooltip="" display="https://goo.gl/maps/RioxHL2T2ajXYZaT9"/>
+    <hyperlink ref="K68" r:id="rId276" location="" tooltip="" display="https://goo.gl/maps/yMUqKVgaQPncqXZ47"/>
+    <hyperlink ref="L68" r:id="rId277" location="" tooltip="" display="https://goo.gl/maps/4AzNgZrcYbrHVykF8"/>
+    <hyperlink ref="H69" r:id="rId278" location="" tooltip="" display="https://www.google.com/maps/place/3201+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
+    <hyperlink ref="H70" r:id="rId279" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+PEDERNALES+ST,+Austin,+TX"/>
+    <hyperlink ref="I70" r:id="rId280" location="" tooltip="" display="https://goo.gl/maps/V9d2AL9eVBjS7hqy9"/>
+    <hyperlink ref="J70" r:id="rId281" location="" tooltip="" display="https://goo.gl/maps/jSvTLoXpQvSsfMMv6"/>
+    <hyperlink ref="K70" r:id="rId282" location="" tooltip="" display="https://goo.gl/maps/HpXLs8YEaJX5HKnU7"/>
+    <hyperlink ref="L70" r:id="rId283" location="" tooltip="" display="https://goo.gl/maps/hC28n4Q89bPdmLQX9"/>
+    <hyperlink ref="H71" r:id="rId284" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+FOUR+POINTS+DR,+Austin,+TX"/>
+    <hyperlink ref="I71" r:id="rId285" location="" tooltip="" display="https://goo.gl/maps/7qf6smS9a8ZSd3Q1A"/>
+    <hyperlink ref="J71" r:id="rId286" location="" tooltip="" display="https://goo.gl/maps/ChuXqEe6wcsD6u6bA"/>
+    <hyperlink ref="L71" r:id="rId287" location="" tooltip="" display="https://goo.gl/maps/gA1x5gJwdL4EWRr99"/>
+    <hyperlink ref="H72" r:id="rId288" location="" tooltip="" display="https://www.google.com/maps/place/PARKFIELD+DR+%26+RUTLAND+DR,+Austin,+TX"/>
+    <hyperlink ref="I72" r:id="rId289" location="" tooltip="" display="https://goo.gl/maps/iWhYUtun9AegQRKX7"/>
+    <hyperlink ref="J72" r:id="rId290" location="" tooltip="" display="https://goo.gl/maps/yTwaP2ncXaFM6rsm7"/>
+    <hyperlink ref="K72" r:id="rId291" location="" tooltip="" display="https://goo.gl/maps/1aQkzgFPcQ8ewmdN7"/>
+    <hyperlink ref="L72" r:id="rId292" location="" tooltip="" display="https://goo.gl/maps/KXMvYPBi5Ym9CXJP9"/>
+    <hyperlink ref="H73" r:id="rId293" location="" tooltip="" display="https://www.google.com/maps/place/2400+BLK+RUTLAND+DR,+Austin,+TX"/>
+    <hyperlink ref="H74" r:id="rId294" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+HARTFORD+RD,+Austin,+TX"/>
+    <hyperlink ref="K74" r:id="rId295" location="" tooltip="" display="https://goo.gl/maps/6L85M8BkqDmfm49RA"/>
+    <hyperlink ref="H75" r:id="rId296" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+12TH+ST,+Austin,+TX"/>
+    <hyperlink ref="I75" r:id="rId297" location="" tooltip="" display="https://goo.gl/maps/PW6Uej33MSc7hKVT6"/>
+    <hyperlink ref="J75" r:id="rId298" location="" tooltip="" display="https://goo.gl/maps/JuwWu2cmRwGQoqA78"/>
+    <hyperlink ref="K75" r:id="rId299" location="" tooltip="" display="https://goo.gl/maps/6Qn8GFbnPg8sNWXh9"/>
+    <hyperlink ref="L75" r:id="rId300" location="" tooltip="" display="https://goo.gl/maps/xFXvezG2vhEaMJn19"/>
+    <hyperlink ref="H76" r:id="rId301" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+PANTHER+TRL,+Austin,+TX"/>
+    <hyperlink ref="I76" r:id="rId302" location="" tooltip="" display="https://goo.gl/maps/mYuoJzK97LgswKJv9"/>
+    <hyperlink ref="J76" r:id="rId303" location="" tooltip="" display="https://goo.gl/maps/bZPZErDNfm8kXoLL9"/>
+    <hyperlink ref="K76" r:id="rId304" location="" tooltip="" display="https://goo.gl/maps/Bi6heXpGGYm6Cv7u8"/>
+    <hyperlink ref="L76" r:id="rId305" location="" tooltip="" display="https://goo.gl/maps/cznXhYiWJ5dPZhJFA"/>
+    <hyperlink ref="H77" r:id="rId306" location="" tooltip="" display="https://www.google.com/maps/place/5TH+ST+%26+CAMPBELL+ST,+Austin,+TX"/>
+    <hyperlink ref="I77" r:id="rId307" location="" tooltip="" display="https://goo.gl/maps/o7Qfpon9CGrVhtKM9"/>
+    <hyperlink ref="J77" r:id="rId308" location="" tooltip="" display="https://goo.gl/maps/4LF7EM8RNf5wLyND9"/>
+    <hyperlink ref="K77" r:id="rId309" location="" tooltip="" display="https://goo.gl/maps/rDwuoenN3PLoES3Z7"/>
+    <hyperlink ref="H78" r:id="rId310" location="" tooltip="" display="https://www.google.com/maps/place/SLAUGHTER+LN+%26+TEXAS+OAKS+DR,+Austin,+TX"/>
+    <hyperlink ref="I78" r:id="rId311" location="" tooltip="" display="https://goo.gl/maps/g9F1SzCYv28fEgnC7"/>
+    <hyperlink ref="J78" r:id="rId312" location="" tooltip="" display="https://goo.gl/maps/KhXcYaSRvoBX8UGN9"/>
+    <hyperlink ref="K78" r:id="rId313" location="" tooltip="" display="https://goo.gl/maps/rr4tzSkhaPVSKEqD6"/>
+    <hyperlink ref="L78" r:id="rId314" location="" tooltip="" display="https://goo.gl/maps/tCT1qyVveoNLGYaX6"/>
+    <hyperlink ref="H79" r:id="rId315" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MASTERSON+PASS,+Austin,+TX"/>
+    <hyperlink ref="I79" r:id="rId316" location="" tooltip="" display="https://goo.gl/maps/DWwDJ2jsg7U1AXY78"/>
+    <hyperlink ref="J79" r:id="rId317" location="" tooltip="" display="https://goo.gl/maps/MfnhyAaGDtfVhgK77"/>
+    <hyperlink ref="K79" r:id="rId318" location="" tooltip="" display="https://goo.gl/maps/MoGsfdEsMBxJyaj3A"/>
+    <hyperlink ref="L79" r:id="rId319" location="" tooltip="" display="https://goo.gl/maps/RgWBeRkX5CRaMjYQ8"/>
+    <hyperlink ref="H80" r:id="rId320" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+BARTON+SKWY+,+Austin,+TX"/>
+    <hyperlink ref="I80" r:id="rId321" location="" tooltip="" display="https://goo.gl/maps/sG2j4AzwALiJKHSV6"/>
+    <hyperlink ref="J80" r:id="rId322" location="" tooltip="" display="https://goo.gl/maps/u54mfiTsa1MLXVRR7"/>
+    <hyperlink ref="K80" r:id="rId323" location="" tooltip="" display="https://goo.gl/maps/byiKTZDWoYCf1Ba8A"/>
+    <hyperlink ref="L80" r:id="rId324" location="" tooltip="" display="https://goo.gl/maps/A8tzbps3rGyj1DV36"/>
+    <hyperlink ref="H81" r:id="rId325" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="I81" r:id="rId326" location="" tooltip="" display="https://goo.gl/maps/g1DSTmyfNgNWd4WX7"/>
+    <hyperlink ref="K81" r:id="rId327" location="" tooltip="" display="https://goo.gl/maps/5SQH8eGpUxC8orm88"/>
+    <hyperlink ref="H82" r:id="rId328" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="J82" r:id="rId329" location="" tooltip="" display="https://goo.gl/maps/xHuv1f5AYvFnkEjP8"/>
+    <hyperlink ref="K82" r:id="rId330" location="" tooltip="" display="https://goo.gl/maps/AfdfXRddF9bBoABm7"/>
+    <hyperlink ref="H83" r:id="rId331" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="I83" r:id="rId332" location="" tooltip="" display="https://goo.gl/maps/tT3jwG7ygq3DkE4W6"/>
+    <hyperlink ref="J83" r:id="rId333" location="" tooltip="" display="https://goo.gl/maps/E1JCBamV4Liy4RXh8"/>
+    <hyperlink ref="L83" r:id="rId334" location="" tooltip="" display="https://goo.gl/maps/WNTwKa5vRBeMEaESA"/>
+    <hyperlink ref="H84" r:id="rId335" location="" tooltip="" display="https://www.google.com/maps/place/GUADALUPE+ST+%26+NORTH+LOOP+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I84" r:id="rId336" location="" tooltip="" display="https://goo.gl/maps/8LXEfWHkTsZjcoYbA"/>
+    <hyperlink ref="J84" r:id="rId337" location="" tooltip="" display="https://goo.gl/maps/AooAf4XLyta7ZN6PA"/>
+    <hyperlink ref="K84" r:id="rId338" location="" tooltip="" display="https://goo.gl/maps/RXWaHxWxZUBjWR6P8"/>
+    <hyperlink ref="L84" r:id="rId339" location="" tooltip="" display="https://goo.gl/maps/w2rwkHunPChuSpev8"/>
+    <hyperlink ref="H85" r:id="rId340" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+35+SVRD,+Austin,+TX"/>
+    <hyperlink ref="J85" r:id="rId341" location="" tooltip="" display="https://goo.gl/maps/o3R26k6kg5FCRqKi7"/>
+    <hyperlink ref="K85" r:id="rId342" location="" tooltip="" display="https://goo.gl/maps/pwLVxTPscwnoUCau7"/>
+    <hyperlink ref="L85" r:id="rId343" location="" tooltip="" display="https://goo.gl/maps/vMiANw7rzzy3vHYC6"/>
+    <hyperlink ref="H86" r:id="rId344" location="" tooltip="" display="https://www.google.com/maps/place/BULL+CREEK+RD+%26+HANCOCK+DR,+Austin,+TX"/>
+    <hyperlink ref="I86" r:id="rId345" location="" tooltip="" display="https://goo.gl/maps/GwRPCKqXcyNSWE9o8"/>
+    <hyperlink ref="J86" r:id="rId346" location="" tooltip="" display="https://goo.gl/maps/vZfn2g7Z1Z48EixC9"/>
+    <hyperlink ref="K86" r:id="rId347" location="" tooltip="" display="https://goo.gl/maps/NQWcyHpVnH92unkTA"/>
+    <hyperlink ref="L86" r:id="rId348" location="" tooltip="" display="https://goo.gl/maps/2zj1PVDbSA4tLAU58"/>
+    <hyperlink ref="H87" r:id="rId349" location="" tooltip="" display="https://www.google.com/maps/place/WELLS+BRANCH+PKWY+%26+SUMMIT+DR,+Austin,+TX"/>
+    <hyperlink ref="I87" r:id="rId350" location="" tooltip="" display="https://goo.gl/maps/uwp4dDJDHCVNUDmq8"/>
+    <hyperlink ref="J87" r:id="rId351" location="" tooltip="" display="https://goo.gl/maps/6cpQww2GGUDMdWRB6"/>
+    <hyperlink ref="K87" r:id="rId352" location="" tooltip="" display="https://goo.gl/maps/GBvMDk81pxEVykAV8"/>
+    <hyperlink ref="L87" r:id="rId353" location="" tooltip="" display="https://goo.gl/maps/vckqXtNrHHb4WXFn8"/>
+    <hyperlink ref="H88" r:id="rId354" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+BOSTON+LN,+Austin,+TX"/>
+    <hyperlink ref="I88" r:id="rId355" location="" tooltip="" display="https://goo.gl/maps/QLRAxH2B5UhgM7W26"/>
+    <hyperlink ref="K88" r:id="rId356" location="" tooltip="" display="https://goo.gl/maps/NbHEfNVc4JfW8AcF7"/>
+    <hyperlink ref="L88" r:id="rId357" location="" tooltip="" display="https://goo.gl/maps/FwJpum9h4AxWWFY56"/>
+    <hyperlink ref="H89" r:id="rId358" location="" tooltip="" display="https://www.google.com/maps/place/HOWARD+LN+%26+WELLS+BRANCH+PKWY,+Austin,+TX"/>
+    <hyperlink ref="H90" r:id="rId359" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+35+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H91" r:id="rId360" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="H92" r:id="rId361" location="" tooltip="" display="https://www.google.com/maps/place/5701+BLK+MC+NEIL+DR+,+Austin,+TX"/>
+    <hyperlink ref="H93" r:id="rId362" location="" tooltip="" display="https://www.google.com/maps/place/US+183+HWY+%26+METROPOLIS+DR,+Austin,+TX"/>
+    <hyperlink ref="H94" r:id="rId363" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+SLAUGHTER+LN,+Austin,+TX"/>
+    <hyperlink ref="H95" r:id="rId364" location="" tooltip="" display="https://www.google.com/maps/place/EXPOSITION+BLVD+%26+WESTOVER+RD,+Austin,+TX"/>
+    <hyperlink ref="H96" r:id="rId365" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+KERBEY+LN,+Austin,+TX"/>
+    <hyperlink ref="H97" r:id="rId366" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H98" r:id="rId367" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MEADOWS+DR,+Austin,+TX"/>
+    <hyperlink ref="H99" r:id="rId368" location="" tooltip="" display="https://www.google.com/maps/place/5501+BLK+MC+NEIL+DR+,+Austin,+TX"/>
+    <hyperlink ref="H100" r:id="rId369" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H101" r:id="rId370" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+KOENIG+LN+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H102" r:id="rId371" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
+    <hyperlink ref="H103" r:id="rId372" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+WEST+LYNN+ST,+Austin,+TX"/>
+    <hyperlink ref="H104" r:id="rId373" location="" tooltip="" display="https://www.google.com/maps/place/ESCARPMENT+BLVD+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
+    <hyperlink ref="H105" r:id="rId374" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+ERNEST+ROBLES+WAY,+Austin,+TX"/>
+    <hyperlink ref="H106" r:id="rId375" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+CAMERON+RD,+Austin,+TX"/>
+    <hyperlink ref="H107" r:id="rId376" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
+    <hyperlink ref="H108" r:id="rId377" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MONTEREY+OAKS+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H109" r:id="rId378" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H110" r:id="rId379" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H111" r:id="rId380" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H112" r:id="rId381" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+E+M+FRANKLIN+AVE,+Austin,+TX"/>
+    <hyperlink ref="H113" r:id="rId382" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+CRYSTAL+BEND+DR,+Austin,+TX"/>
+    <hyperlink ref="H114" r:id="rId383" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
+    <hyperlink ref="H115" r:id="rId384" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+W+290+WB+AT+JOE+TANNER+TRN,+Austin,+TX"/>
+    <hyperlink ref="H116" r:id="rId385" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+CALLES+ST,+Austin,+TX"/>
+    <hyperlink ref="H117" r:id="rId386" location="" tooltip="" display="https://www.google.com/maps/place/2100+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
+    <hyperlink ref="H118" r:id="rId387" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+DICKSON+DR,+Austin,+TX"/>
+    <hyperlink ref="H119" r:id="rId388" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+51ST+ST,+Austin,+TX"/>
+    <hyperlink ref="H120" r:id="rId389" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+CLIFFORD+AVE,+Austin,+TX"/>
+    <hyperlink ref="H121" r:id="rId390" location="" tooltip="" display="https://www.google.com/maps/place/METRIC+BLVD+%26+KRAMER+LN,+Austin,+TX"/>
+    <hyperlink ref="H122" r:id="rId391" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+SPRINGDALE+RD,+Austin,+TX"/>
+    <hyperlink ref="H123" r:id="rId392" location="" tooltip="" display="https://www.google.com/maps/place/SPRINGDALE+RD+%26+51ST+ST,+Austin,+TX"/>
+    <hyperlink ref="H124" r:id="rId393" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+TANNEHILL+LN,+Austin,+TX"/>
+    <hyperlink ref="H125" r:id="rId394" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+PALO+BLANCO+LN,+Austin,+TX"/>
+    <hyperlink ref="H126" r:id="rId395" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
+    <hyperlink ref="H127" r:id="rId396" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+COMAL+ST,+Austin,+TX"/>
+    <hyperlink ref="H128" r:id="rId397" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+SPECTRUM+DR,+Austin,+TX"/>
+    <hyperlink ref="H129" r:id="rId398" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+JACKSON+AVE,+Austin,+TX"/>
+    <hyperlink ref="H130" r:id="rId399" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="H131" r:id="rId400" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BLUEBONNET+LN,+Austin,+TX"/>
+    <hyperlink ref="H132" r:id="rId401" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+NUCKOLS+CROSSING+RD,+Austin,+TX"/>
+    <hyperlink ref="H133" r:id="rId402" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H134" r:id="rId403" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+FOSTER+RANCH+RD,+Austin,+TX"/>
+    <hyperlink ref="H135" r:id="rId404" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MENCHACA+RD+,+Austin,+TX"/>
+    <hyperlink ref="H136" r:id="rId405" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BARTON+SKWY+,+Austin,+TX"/>
+    <hyperlink ref="H137" r:id="rId406" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+REPUBLIC+OF+TEXAS+BLVD,+Austin,+TX"/>
+    <hyperlink ref="H138" r:id="rId407" location="" tooltip="" display="https://www.google.com/maps/place/SHOAL+CREEK+BLVD+%26+HANCOCK+DR,+Austin,+TX"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/OverheadSigns/OverheadSigns_FY2020.xlsx
+++ b/OverheadSigns/OverheadSigns_FY2020.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="969">
   <si>
     <t>COA_INTERSECTION_ID</t>
   </si>
@@ -4740,6 +4740,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/CS19pRmU3gJvKiSv9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/7Y12NQ8tbZDtrHiz8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xVxF4b3tUmHAKMCE9</t>
+    </r>
+  </si>
+  <si>
     <t>659</t>
   </si>
   <si>
@@ -4780,6 +4813,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/W7UxkkJhqgTgNyT17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5mYp1amfqHR7CKJ17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/F8bpjpz4z4XAN4kT9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KHrbz8LRWemLN83QA</t>
+    </r>
+  </si>
+  <si>
     <t>838</t>
   </si>
   <si>
@@ -4800,6 +4877,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/hfT1DmqpAnDbTo9Z7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ZMWFV1TCHDSywfrq5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ESC88einSeu47hNv8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Dsc8t3zEiNfS5sHg8</t>
+    </r>
+  </si>
+  <si>
     <t>860</t>
   </si>
   <si>
@@ -4820,6 +4941,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/EedipFgGpoZ7R4UX9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/FgihyCUixopkwFBK8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Uw5AsZ1zKvdY9i5t5</t>
+    </r>
+  </si>
+  <si>
     <t>197</t>
   </si>
   <si>
@@ -4840,6 +4994,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/aghpT5hHmPWqHyhB7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/pGMuWGUR55dmvQ1s5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/sUe4WPttT8djc8y88</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/AaZBhvMWLyrDaxsL8</t>
+    </r>
+  </si>
+  <si>
     <t>753</t>
   </si>
   <si>
@@ -4860,6 +5058,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ZMXdf3m5B9sNkGWFA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/PZV1WZuVL9BzTK4Z8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/4JoSKjZxQsFXn49v6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/uh22JNTVD1wpJ6qi8</t>
+    </r>
+  </si>
+  <si>
     <t>109</t>
   </si>
   <si>
@@ -4880,6 +5122,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/jHXmuhJLxkDfMjxi7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/gXqKjgArVTWE18X67</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/J2DKCiHvVs1PtBDS8</t>
+    </r>
+  </si>
+  <si>
     <t>164</t>
   </si>
   <si>
@@ -4900,6 +5175,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/YnMYTqrysmZeNCmw8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/T4bEb9dxN8tj4fUG7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/PJ2zUC7dxZHgRroS7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/DzgXDnjtxeZihT2s5</t>
+    </r>
+  </si>
+  <si>
     <t>513</t>
   </si>
   <si>
@@ -4920,6 +5239,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xJEZScTM3jd31vjv7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/7igom4JU6M4SNSuBA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ESTyDw9Lut2NS5Hs9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KAPdszwxyKekKeaz7</t>
+    </r>
+  </si>
+  <si>
     <t>665</t>
   </si>
   <si>
@@ -4940,6 +5303,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Y5VnGD6uDHWBNnX18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/WUcmGJsgfRU2mSDLA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/v3aTBeaPY8xay8H78</t>
+    </r>
+  </si>
+  <si>
     <t>110</t>
   </si>
   <si>
@@ -4960,6 +5356,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/bD5sgWGFfpPR3g6G8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/q4C3jXjr6U9KavAu6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/q51dSkwJwMzQBsod6</t>
+    </r>
+  </si>
+  <si>
     <t>172</t>
   </si>
   <si>
@@ -4980,6 +5409,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/auCxBooZmFBN6moA9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/AdVE4j5KNAqK3PZy5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/tmTrmsuNtbW9fj3i7</t>
+    </r>
+  </si>
+  <si>
     <t>208</t>
   </si>
   <si>
@@ -5000,6 +5462,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/S47N95nvEgJiveT1A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xDbHjRoqKYdCa55g9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/aoKoSpsUKKyAh4ez6</t>
+    </r>
+  </si>
+  <si>
     <t>214</t>
   </si>
   <si>
@@ -5020,6 +5515,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/z4dwugxPNoPRyLzV7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QbB6B5XNEzRPLcRW6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/fcBcNbaxxYwhz5NA7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/DFU3CVug9eL7srUr7</t>
+    </r>
+  </si>
+  <si>
     <t>421</t>
   </si>
   <si>
@@ -5040,6 +5579,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/19AXTpeHCQAS9d6m9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/uWpGrAuSPSMG71mJA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/kRFE8fvmB7HwQe2E8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RjxBLNgiN55phzrU7</t>
+    </r>
+  </si>
+  <si>
     <t>423</t>
   </si>
   <si>
@@ -5060,6 +5643,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/vzwq8aW5mKKc5DgJ8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/vNNzLE8MaTEkmsBV6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KZxRXdQTzbqtBJMz7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/vU2yu3nvERJDkhdc9</t>
+    </r>
+  </si>
+  <si>
     <t>658</t>
   </si>
   <si>
@@ -5080,6 +5707,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/WBgpBev5rPLWwjP38</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6CsB2w6jrVswkrrd8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/fTH5RoqhmhGeFw6b7</t>
+    </r>
+  </si>
+  <si>
     <t>706</t>
   </si>
   <si>
@@ -5100,6 +5760,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/eSGV5XZLEGWhQexZ6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/XeGwregfm1xHc9Hm8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/MaJWfHaZDKjN252U8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/T9vHpRYJg6moH5hH7</t>
+    </r>
+  </si>
+  <si>
     <t>711</t>
   </si>
   <si>
@@ -5120,15 +5824,125 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/DMPSctVAjFQCY9Rh8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/aoxZQED2KcPQ6zfS9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QqLPFb67qcmfvsbD9</t>
+    </r>
+  </si>
+  <si>
     <t>789</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/DoKyNBiWYqZCiLKW6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/C1Yfhnw6pFdKKT6s5</t>
+    </r>
+  </si>
+  <si>
     <t>790</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/J2PArsKwDnzNsfnq7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/8x5AigDmeCx2Qxsm7</t>
+    </r>
+  </si>
+  <si>
     <t>794</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/P8CR1UKYEbrXCka4A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/AMfTdUj5P5ipvTyg9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/QRqgFYhSBYVNHBS87</t>
+    </r>
+  </si>
+  <si>
     <t>851</t>
   </si>
   <si>
@@ -5149,6 +5963,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/56dbeokQKXSUpF7BA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/znKJA51SgWj84QrF8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/iMcm945afhbM9EiB9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/iz29tDGmqTENPUNv6</t>
+    </r>
+  </si>
+  <si>
     <t>949</t>
   </si>
   <si>
@@ -5169,9 +6027,86 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/RT7m4Y3Fu1yGRGP58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/shuwK4WWkyqenC9R6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/nDLurtQfMcrpZxh56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/xSUAH6aRJpu97wEL9</t>
+    </r>
+  </si>
+  <si>
     <t>955</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5iD4jhvXe1LEejHf9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/KJjsfEVd2n7TSmrE7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5Jc4UZHzqZzbfDMo6</t>
+    </r>
+  </si>
+  <si>
     <t>1004</t>
   </si>
   <si>
@@ -5192,6 +6127,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/sBonvkz7BpL5qfv28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/wzz6E4jL3DuBuYaUA</t>
+    </r>
+  </si>
+  <si>
     <t>4016</t>
   </si>
   <si>
@@ -5212,6 +6169,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/NRMC6JmvSFFHcMNm9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6dvSYQ5LUK82UtyQ8</t>
+    </r>
+  </si>
+  <si>
     <t>4040</t>
   </si>
   <si>
@@ -5252,6 +6231,28 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/R1h5KXYWm7cNpuLT7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ce1ch7dgTAoa8eS99</t>
+    </r>
+  </si>
+  <si>
     <t>170</t>
   </si>
   <si>
@@ -5272,6 +6273,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/a8hDhn451US6ZJKg7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/BGtnkD9wFUFjmocR8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/H5EvCrzdfHc1s4RW6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mFecJFq9tzP6VNcR8</t>
+    </r>
+  </si>
+  <si>
     <t>4079</t>
   </si>
   <si>
@@ -5312,6 +6357,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/8bw6R341ynynUv4w5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/AGVzgZPLMg5Khrg8A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/v677GYGfavVSaqs29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/WrJri2Xpm25fdCBs7</t>
+    </r>
+  </si>
+  <si>
     <t>637</t>
   </si>
   <si>
@@ -5332,6 +6421,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/7Ga3AYBNncQXA35TA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HMWefQZN3GThMjK16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mnbzF1kKHoATFqmh8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/PELtMYbJ4VcAxysC9</t>
+    </r>
+  </si>
+  <si>
     <t>648</t>
   </si>
   <si>
@@ -5352,6 +6485,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/firaP6nr2Z9RDbCX8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/endg7BJUZE383Ldo7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/XJaJkwwNkuNyxKdw9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/mzMwLmoaCpE7ZaWv9</t>
+    </r>
+  </si>
+  <si>
     <t>834</t>
   </si>
   <si>
@@ -5372,6 +6549,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/wMp9GHyejd3qKxJn7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/d2hk7tJGSZ52Yoan9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/kF3N6cStuvkajBpv5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/JwCfSa3cukU3Hcjq6</t>
+    </r>
+  </si>
+  <si>
     <t>738</t>
   </si>
   <si>
@@ -5392,6 +6613,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ig3TBVi1toXCtFjd9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/bnH4qomUk4TBmxkHA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5jj5uWuAhRFjHcxW8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/zNMSYRYv2SNsRsAT7</t>
+    </r>
+  </si>
+  <si>
     <t>355</t>
   </si>
   <si>
@@ -5412,6 +6677,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6BitBhpGfwB3pMoQ8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5LqR3NoVdF6938cQA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/EoMEnssG9KRaPhtV7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ayGHikfeLMQEi7bS6</t>
+    </r>
+  </si>
+  <si>
     <t>363</t>
   </si>
   <si>
@@ -5432,6 +6741,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/yvYBmWAqAas9GQ7e8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/f3uUrzWRxG6s17rC8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/gwYNgqoNB1kjs6vs7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/L94X64ydjkVMknYD6</t>
+    </r>
+  </si>
+  <si>
     <t>776</t>
   </si>
   <si>
@@ -5452,6 +6805,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ocVnT59W8mgUWpXb9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HGKsYrbgHF2ayee48</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/9SRR2tn1UGLu3RWj9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/roJ876eHfV4zm8wNA</t>
+    </r>
+  </si>
+  <si>
     <t>107</t>
   </si>
   <si>
@@ -5472,9 +6869,86 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/v76u7Y1J1Ah3ENuV7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/Yb5BMDdgtdYxGTxB7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/8BbJY6LXpKbQzMVdA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/oxKyF8fahfxedqgF8</t>
+    </r>
+  </si>
+  <si>
     <t>825</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/c9MQ22rnDgXkK6JA8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/fFs7EzcCfVDeNo9e6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/by4T44ZZkX8t2GQT7</t>
+    </r>
+  </si>
+  <si>
     <t>124</t>
   </si>
   <si>
@@ -5495,6 +6969,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/iKaCZdAFmcT32Q8s7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/qVU8LL3mKveW3ZPW6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/FpHjYFVJQM6YUevLA</t>
+    </r>
+  </si>
+  <si>
     <t>521</t>
   </si>
   <si>
@@ -5515,9 +7022,86 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/EvYtRfBRU7rbWhrZA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/PBEXL3ptu82zdTtt9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/hh8PZFMiajiEBDNi6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/ukxxLScnKgHYykYU9</t>
+    </r>
+  </si>
+  <si>
     <t>891</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/TgZdLynmEegdMKhD9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/6WPHDfofA4iU3UBh9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/3dRkw43X1wYuSUKG9</t>
+    </r>
+  </si>
+  <si>
     <t>206</t>
   </si>
   <si>
@@ -5538,6 +7122,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/4b5C1GKrMSDJ5dDi8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/UMHeTH8qM9nD4pne8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/WHTJAgza4Akop8GS9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/HUzUNs6LoY1bddet5</t>
+    </r>
+  </si>
+  <si>
     <t>125</t>
   </si>
   <si>
@@ -5558,6 +7186,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/sibKoAey5HWpCXuM9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/an1ZsoTPPHTu9HFKA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/7qhwJ9DpxQodnxaRA</t>
+    </r>
+  </si>
+  <si>
     <t>127</t>
   </si>
   <si>
@@ -5578,6 +7239,50 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/n19VqbzBeF9KJgfW6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/yAxUZUpCeGFT1Ehj6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/CdGzmfvr8fNLzZnj6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/zbTtfcd6Hqckytx3A</t>
+    </r>
+  </si>
+  <si>
     <t>530</t>
   </si>
   <si>
@@ -5598,6 +7303,39 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/683aFsUn4uDTtxqW8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/7USBcXtzPJrBd7R8A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/5erjFkQffpEj7b718</t>
+    </r>
+  </si>
+  <si>
     <t>576</t>
   </si>
   <si>
@@ -5615,6 +7353,50 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>https://www.google.com/maps/place/SHOAL+CREEK+BLVD+%26+HANCOCK+DR,+Austin,+TX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/8t12iujeT587qSm56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/oAoDCHz7SMhhcSmo8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/GU4Q5b1gvgVXQ7gU6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>https://goo.gl/maps/2kurqLrzeM57gwKz8</t>
     </r>
   </si>
 </sst>
@@ -5772,7 +7554,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -5810,9 +7592,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10308,17 +12087,25 @@
         <f>HYPERLINK(G89)</f>
         <v>628</v>
       </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
+      <c r="I89" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s" s="12">
+        <v>629</v>
+      </c>
+      <c r="K89" t="s" s="12">
+        <v>630</v>
+      </c>
+      <c r="L89" t="s" s="12">
+        <v>631</v>
+      </c>
       <c r="M89" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="90" ht="133" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B90" s="9">
         <v>5160817</v>
@@ -10327,28 +12114,36 @@
         <v>13</v>
       </c>
       <c r="D90" t="s" s="10">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
       <c r="G90" t="s" s="12">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="H90" t="s" s="12">
         <f>HYPERLINK(G90)</f>
-        <v>632</v>
-      </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
+        <v>635</v>
+      </c>
+      <c r="I90" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K90" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L90" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M90" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="91" ht="146" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B91" s="9">
         <v>5156304</v>
@@ -10357,28 +12152,36 @@
         <v>13</v>
       </c>
       <c r="D91" t="s" s="10">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="11"/>
       <c r="G91" t="s" s="12">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H91" t="s" s="12">
         <f>HYPERLINK(G91)</f>
-        <v>636</v>
-      </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
+        <v>639</v>
+      </c>
+      <c r="I91" t="s" s="12">
+        <v>640</v>
+      </c>
+      <c r="J91" t="s" s="12">
+        <v>641</v>
+      </c>
+      <c r="K91" t="s" s="12">
+        <v>642</v>
+      </c>
+      <c r="L91" t="s" s="12">
+        <v>643</v>
+      </c>
       <c r="M91" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="92" ht="133" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B92" s="9">
         <v>0</v>
@@ -10387,28 +12190,36 @@
         <v>13</v>
       </c>
       <c r="D92" t="s" s="10">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
       <c r="G92" t="s" s="12">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="H92" t="s" s="12">
         <f>HYPERLINK(G92)</f>
-        <v>640</v>
-      </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
+        <v>647</v>
+      </c>
+      <c r="I92" t="s" s="12">
+        <v>648</v>
+      </c>
+      <c r="J92" t="s" s="12">
+        <v>649</v>
+      </c>
+      <c r="K92" t="s" s="12">
+        <v>650</v>
+      </c>
+      <c r="L92" t="s" s="12">
+        <v>651</v>
+      </c>
       <c r="M92" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="93" ht="159" customHeight="1">
       <c r="A93" t="s" s="3">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="B93" s="9">
         <v>5164191</v>
@@ -10417,28 +12228,36 @@
         <v>13</v>
       </c>
       <c r="D93" t="s" s="10">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11"/>
       <c r="G93" t="s" s="12">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="H93" t="s" s="12">
         <f>HYPERLINK(G93)</f>
-        <v>644</v>
-      </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
+        <v>655</v>
+      </c>
+      <c r="I93" t="s" s="12">
+        <v>656</v>
+      </c>
+      <c r="J93" t="s" s="12">
+        <v>657</v>
+      </c>
+      <c r="K93" t="s" s="12">
+        <v>658</v>
+      </c>
+      <c r="L93" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M93" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="94" ht="146" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="B94" s="9">
         <v>5148563</v>
@@ -10447,28 +12266,36 @@
         <v>13</v>
       </c>
       <c r="D94" t="s" s="10">
-        <v>646</v>
+        <v>660</v>
       </c>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
       <c r="G94" t="s" s="12">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="H94" t="s" s="12">
         <f>HYPERLINK(G94)</f>
-        <v>648</v>
-      </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
+        <v>662</v>
+      </c>
+      <c r="I94" t="s" s="12">
+        <v>663</v>
+      </c>
+      <c r="J94" t="s" s="12">
+        <v>664</v>
+      </c>
+      <c r="K94" t="s" s="12">
+        <v>665</v>
+      </c>
+      <c r="L94" t="s" s="12">
+        <v>666</v>
+      </c>
       <c r="M94" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="95" ht="146" customHeight="1">
       <c r="A95" t="s" s="3">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="B95" s="9">
         <v>5153874</v>
@@ -10477,28 +12304,36 @@
         <v>13</v>
       </c>
       <c r="D95" t="s" s="10">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11"/>
       <c r="G95" t="s" s="12">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="H95" t="s" s="12">
         <f>HYPERLINK(G95)</f>
-        <v>652</v>
-      </c>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13"/>
-      <c r="L95" s="13"/>
+        <v>670</v>
+      </c>
+      <c r="I95" t="s" s="12">
+        <v>671</v>
+      </c>
+      <c r="J95" t="s" s="12">
+        <v>672</v>
+      </c>
+      <c r="K95" t="s" s="12">
+        <v>673</v>
+      </c>
+      <c r="L95" t="s" s="12">
+        <v>674</v>
+      </c>
       <c r="M95" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="96" ht="133" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>653</v>
+        <v>675</v>
       </c>
       <c r="B96" s="9">
         <v>5155597</v>
@@ -10507,28 +12342,36 @@
         <v>13</v>
       </c>
       <c r="D96" t="s" s="10">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
       <c r="G96" t="s" s="12">
-        <v>655</v>
+        <v>677</v>
       </c>
       <c r="H96" t="s" s="12">
         <f>HYPERLINK(G96)</f>
-        <v>656</v>
-      </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="13"/>
+        <v>678</v>
+      </c>
+      <c r="I96" t="s" s="12">
+        <v>679</v>
+      </c>
+      <c r="J96" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K96" t="s" s="12">
+        <v>680</v>
+      </c>
+      <c r="L96" t="s" s="12">
+        <v>681</v>
+      </c>
       <c r="M96" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="97" ht="172" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="B97" s="9">
         <v>5161612</v>
@@ -10537,28 +12380,36 @@
         <v>13</v>
       </c>
       <c r="D97" t="s" s="10">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="E97" s="11"/>
       <c r="F97" s="11"/>
       <c r="G97" t="s" s="12">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="H97" t="s" s="12">
         <f>HYPERLINK(G97)</f>
-        <v>660</v>
-      </c>
-      <c r="I97" s="13"/>
-      <c r="J97" s="13"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="13"/>
+        <v>685</v>
+      </c>
+      <c r="I97" t="s" s="12">
+        <v>686</v>
+      </c>
+      <c r="J97" t="s" s="12">
+        <v>687</v>
+      </c>
+      <c r="K97" t="s" s="12">
+        <v>688</v>
+      </c>
+      <c r="L97" t="s" s="12">
+        <v>689</v>
+      </c>
       <c r="M97" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="98" ht="146" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>661</v>
+        <v>690</v>
       </c>
       <c r="B98" s="9">
         <v>5162805</v>
@@ -10567,28 +12418,36 @@
         <v>13</v>
       </c>
       <c r="D98" t="s" s="10">
-        <v>662</v>
+        <v>691</v>
       </c>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
       <c r="G98" t="s" s="12">
-        <v>663</v>
+        <v>692</v>
       </c>
       <c r="H98" t="s" s="12">
         <f>HYPERLINK(G98)</f>
-        <v>664</v>
-      </c>
-      <c r="I98" s="13"/>
-      <c r="J98" s="13"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="13"/>
+        <v>693</v>
+      </c>
+      <c r="I98" t="s" s="12">
+        <v>694</v>
+      </c>
+      <c r="J98" t="s" s="12">
+        <v>695</v>
+      </c>
+      <c r="K98" t="s" s="12">
+        <v>696</v>
+      </c>
+      <c r="L98" t="s" s="12">
+        <v>697</v>
+      </c>
       <c r="M98" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="99" ht="133" customHeight="1">
       <c r="A99" t="s" s="3">
-        <v>665</v>
+        <v>698</v>
       </c>
       <c r="B99" s="9">
         <v>0</v>
@@ -10597,28 +12456,36 @@
         <v>13</v>
       </c>
       <c r="D99" t="s" s="10">
-        <v>666</v>
+        <v>699</v>
       </c>
       <c r="E99" s="11"/>
       <c r="F99" s="11"/>
       <c r="G99" t="s" s="12">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="H99" t="s" s="12">
         <f>HYPERLINK(G99)</f>
-        <v>668</v>
-      </c>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
+        <v>701</v>
+      </c>
+      <c r="I99" t="s" s="12">
+        <v>702</v>
+      </c>
+      <c r="J99" t="s" s="12">
+        <v>703</v>
+      </c>
+      <c r="K99" t="s" s="12">
+        <v>696</v>
+      </c>
+      <c r="L99" t="s" s="12">
+        <v>704</v>
+      </c>
       <c r="M99" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="100" ht="172" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="B100" s="9">
         <v>5155501</v>
@@ -10627,28 +12494,36 @@
         <v>13</v>
       </c>
       <c r="D100" t="s" s="10">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
       <c r="G100" t="s" s="12">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="H100" t="s" s="12">
         <f>HYPERLINK(G100)</f>
-        <v>672</v>
-      </c>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
+        <v>708</v>
+      </c>
+      <c r="I100" t="s" s="12">
+        <v>709</v>
+      </c>
+      <c r="J100" t="s" s="12">
+        <v>710</v>
+      </c>
+      <c r="K100" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L100" t="s" s="12">
+        <v>711</v>
+      </c>
       <c r="M100" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="101" ht="159" customHeight="1">
       <c r="A101" t="s" s="3">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="B101" s="9">
         <v>5160656</v>
@@ -10657,28 +12532,36 @@
         <v>13</v>
       </c>
       <c r="D101" t="s" s="10">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="E101" s="11"/>
       <c r="F101" s="11"/>
       <c r="G101" t="s" s="12">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="H101" t="s" s="12">
         <f>HYPERLINK(G101)</f>
-        <v>676</v>
-      </c>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
+        <v>715</v>
+      </c>
+      <c r="I101" t="s" s="12">
+        <v>716</v>
+      </c>
+      <c r="J101" t="s" s="12">
+        <v>717</v>
+      </c>
+      <c r="K101" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L101" t="s" s="12">
+        <v>718</v>
+      </c>
       <c r="M101" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="102" ht="133" customHeight="1">
       <c r="A102" t="s" s="3">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="B102" s="9">
         <v>5154206</v>
@@ -10687,28 +12570,36 @@
         <v>13</v>
       </c>
       <c r="D102" t="s" s="10">
-        <v>678</v>
+        <v>720</v>
       </c>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
       <c r="G102" t="s" s="12">
-        <v>679</v>
+        <v>721</v>
       </c>
       <c r="H102" t="s" s="12">
         <f>HYPERLINK(G102)</f>
-        <v>680</v>
-      </c>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
+        <v>722</v>
+      </c>
+      <c r="I102" t="s" s="12">
+        <v>723</v>
+      </c>
+      <c r="J102" t="s" s="12">
+        <v>724</v>
+      </c>
+      <c r="K102" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L102" t="s" s="12">
+        <v>725</v>
+      </c>
       <c r="M102" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="103" ht="146" customHeight="1">
       <c r="A103" t="s" s="3">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="B103" s="9">
         <v>5154815</v>
@@ -10717,28 +12608,36 @@
         <v>13</v>
       </c>
       <c r="D103" t="s" s="10">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="E103" s="11"/>
       <c r="F103" s="11"/>
       <c r="G103" t="s" s="12">
-        <v>683</v>
+        <v>728</v>
       </c>
       <c r="H103" t="s" s="12">
         <f>HYPERLINK(G103)</f>
-        <v>684</v>
-      </c>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
+        <v>729</v>
+      </c>
+      <c r="I103" t="s" s="12">
+        <v>730</v>
+      </c>
+      <c r="J103" t="s" s="12">
+        <v>731</v>
+      </c>
+      <c r="K103" t="s" s="12">
+        <v>732</v>
+      </c>
+      <c r="L103" t="s" s="12">
+        <v>733</v>
+      </c>
       <c r="M103" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="104" ht="172" customHeight="1">
       <c r="A104" t="s" s="3">
-        <v>685</v>
+        <v>734</v>
       </c>
       <c r="B104" s="9">
         <v>5144930</v>
@@ -10747,28 +12646,36 @@
         <v>13</v>
       </c>
       <c r="D104" t="s" s="10">
-        <v>686</v>
+        <v>735</v>
       </c>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
       <c r="G104" t="s" s="12">
-        <v>687</v>
+        <v>736</v>
       </c>
       <c r="H104" t="s" s="12">
         <f>HYPERLINK(G104)</f>
-        <v>688</v>
-      </c>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
+        <v>737</v>
+      </c>
+      <c r="I104" t="s" s="12">
+        <v>738</v>
+      </c>
+      <c r="J104" t="s" s="12">
+        <v>739</v>
+      </c>
+      <c r="K104" t="s" s="12">
+        <v>740</v>
+      </c>
+      <c r="L104" t="s" s="12">
+        <v>741</v>
+      </c>
       <c r="M104" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="105" ht="159" customHeight="1">
       <c r="A105" t="s" s="3">
-        <v>689</v>
+        <v>742</v>
       </c>
       <c r="B105" s="9">
         <v>5148691</v>
@@ -10777,28 +12684,36 @@
         <v>13</v>
       </c>
       <c r="D105" t="s" s="10">
-        <v>690</v>
+        <v>743</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="11"/>
       <c r="G105" t="s" s="12">
-        <v>691</v>
+        <v>744</v>
       </c>
       <c r="H105" t="s" s="12">
         <f>HYPERLINK(G105)</f>
-        <v>692</v>
-      </c>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
+        <v>745</v>
+      </c>
+      <c r="I105" t="s" s="12">
+        <v>746</v>
+      </c>
+      <c r="J105" t="s" s="12">
+        <v>747</v>
+      </c>
+      <c r="K105" t="s" s="12">
+        <v>748</v>
+      </c>
+      <c r="L105" t="s" s="12">
+        <v>749</v>
+      </c>
       <c r="M105" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="106" ht="133" customHeight="1">
       <c r="A106" t="s" s="3">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="B106" s="9">
         <v>5160982</v>
@@ -10807,28 +12722,36 @@
         <v>13</v>
       </c>
       <c r="D106" t="s" s="10">
-        <v>694</v>
+        <v>751</v>
       </c>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
       <c r="G106" t="s" s="12">
-        <v>695</v>
+        <v>752</v>
       </c>
       <c r="H106" t="s" s="12">
         <f>HYPERLINK(G106)</f>
-        <v>696</v>
-      </c>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
+        <v>753</v>
+      </c>
+      <c r="I106" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s" s="12">
+        <v>754</v>
+      </c>
+      <c r="K106" t="s" s="12">
+        <v>755</v>
+      </c>
+      <c r="L106" t="s" s="12">
+        <v>756</v>
+      </c>
       <c r="M106" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="107" ht="159" customHeight="1">
       <c r="A107" t="s" s="3">
-        <v>697</v>
+        <v>757</v>
       </c>
       <c r="B107" s="9">
         <v>5144899</v>
@@ -10837,28 +12760,36 @@
         <v>13</v>
       </c>
       <c r="D107" t="s" s="10">
-        <v>698</v>
+        <v>758</v>
       </c>
       <c r="E107" s="11"/>
       <c r="F107" s="11"/>
       <c r="G107" t="s" s="12">
-        <v>699</v>
+        <v>759</v>
       </c>
       <c r="H107" t="s" s="12">
         <f>HYPERLINK(G107)</f>
-        <v>700</v>
-      </c>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
+        <v>760</v>
+      </c>
+      <c r="I107" t="s" s="12">
+        <v>761</v>
+      </c>
+      <c r="J107" t="s" s="12">
+        <v>762</v>
+      </c>
+      <c r="K107" t="s" s="12">
+        <v>763</v>
+      </c>
+      <c r="L107" t="s" s="12">
+        <v>764</v>
+      </c>
       <c r="M107" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="108" ht="172" customHeight="1">
       <c r="A108" t="s" s="3">
-        <v>701</v>
+        <v>765</v>
       </c>
       <c r="B108" s="9">
         <v>5147043</v>
@@ -10867,28 +12798,36 @@
         <v>13</v>
       </c>
       <c r="D108" t="s" s="10">
-        <v>702</v>
+        <v>766</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" t="s" s="12">
-        <v>703</v>
+        <v>767</v>
       </c>
       <c r="H108" t="s" s="12">
         <f>HYPERLINK(G108)</f>
-        <v>704</v>
-      </c>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
+        <v>768</v>
+      </c>
+      <c r="I108" t="s" s="12">
+        <v>769</v>
+      </c>
+      <c r="J108" t="s" s="12">
+        <v>770</v>
+      </c>
+      <c r="K108" t="s" s="12">
+        <v>771</v>
+      </c>
+      <c r="L108" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M108" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="109" ht="172" customHeight="1">
       <c r="A109" t="s" s="3">
-        <v>705</v>
+        <v>772</v>
       </c>
       <c r="B109" s="9">
         <v>5148485</v>
@@ -10908,17 +12847,25 @@
         <f>HYPERLINK(G109)</f>
         <v>577</v>
       </c>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
+      <c r="I109" t="s" s="12">
+        <v>773</v>
+      </c>
+      <c r="J109" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K109" t="s" s="12">
+        <v>774</v>
+      </c>
+      <c r="L109" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M109" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="110" ht="172" customHeight="1">
       <c r="A110" t="s" s="3">
-        <v>706</v>
+        <v>775</v>
       </c>
       <c r="B110" s="9">
         <v>5148415</v>
@@ -10938,17 +12885,25 @@
         <f>HYPERLINK(G110)</f>
         <v>577</v>
       </c>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
+      <c r="I110" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s" s="12">
+        <v>776</v>
+      </c>
+      <c r="K110" t="s" s="12">
+        <v>777</v>
+      </c>
+      <c r="L110" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M110" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="111" ht="159" customHeight="1">
       <c r="A111" t="s" s="3">
-        <v>707</v>
+        <v>778</v>
       </c>
       <c r="B111" s="9">
         <v>5148537</v>
@@ -10968,17 +12923,25 @@
         <f>HYPERLINK(G111)</f>
         <v>586</v>
       </c>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
+      <c r="I111" t="s" s="12">
+        <v>779</v>
+      </c>
+      <c r="J111" t="s" s="12">
+        <v>780</v>
+      </c>
+      <c r="K111" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L111" t="s" s="12">
+        <v>781</v>
+      </c>
       <c r="M111" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="112" ht="185" customHeight="1">
       <c r="A112" t="s" s="3">
-        <v>708</v>
+        <v>782</v>
       </c>
       <c r="B112" s="9">
         <v>5162491</v>
@@ -10987,28 +12950,36 @@
         <v>13</v>
       </c>
       <c r="D112" t="s" s="10">
-        <v>709</v>
+        <v>783</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
       <c r="G112" t="s" s="12">
-        <v>710</v>
+        <v>784</v>
       </c>
       <c r="H112" t="s" s="12">
         <f>HYPERLINK(G112)</f>
-        <v>711</v>
-      </c>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
+        <v>785</v>
+      </c>
+      <c r="I112" t="s" s="12">
+        <v>786</v>
+      </c>
+      <c r="J112" t="s" s="12">
+        <v>787</v>
+      </c>
+      <c r="K112" t="s" s="12">
+        <v>788</v>
+      </c>
+      <c r="L112" t="s" s="12">
+        <v>789</v>
+      </c>
       <c r="M112" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="113" ht="159" customHeight="1">
       <c r="A113" t="s" s="3">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="B113" s="9">
         <v>5166976</v>
@@ -11017,28 +12988,36 @@
         <v>13</v>
       </c>
       <c r="D113" t="s" s="10">
-        <v>713</v>
+        <v>791</v>
       </c>
       <c r="E113" s="11"/>
       <c r="F113" s="11"/>
       <c r="G113" t="s" s="12">
-        <v>714</v>
+        <v>792</v>
       </c>
       <c r="H113" t="s" s="12">
         <f>HYPERLINK(G113)</f>
-        <v>715</v>
-      </c>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
+        <v>793</v>
+      </c>
+      <c r="I113" t="s" s="12">
+        <v>794</v>
+      </c>
+      <c r="J113" t="s" s="12">
+        <v>795</v>
+      </c>
+      <c r="K113" t="s" s="12">
+        <v>796</v>
+      </c>
+      <c r="L113" t="s" s="12">
+        <v>797</v>
+      </c>
       <c r="M113" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="114" ht="185" customHeight="1">
       <c r="A114" t="s" s="3">
-        <v>716</v>
+        <v>798</v>
       </c>
       <c r="B114" s="9">
         <v>5145942</v>
@@ -11058,17 +13037,25 @@
         <f>HYPERLINK(G114)</f>
         <v>322</v>
       </c>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
+      <c r="I114" t="s" s="12">
+        <v>799</v>
+      </c>
+      <c r="J114" t="s" s="12">
+        <v>800</v>
+      </c>
+      <c r="K114" t="s" s="12">
+        <v>801</v>
+      </c>
+      <c r="L114" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M114" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="115" ht="172" customHeight="1">
       <c r="A115" t="s" s="3">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="B115" s="9">
         <v>5145318</v>
@@ -11077,28 +13064,36 @@
         <v>13</v>
       </c>
       <c r="D115" t="s" s="10">
-        <v>718</v>
+        <v>803</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11"/>
       <c r="G115" t="s" s="12">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="H115" t="s" s="12">
         <f>HYPERLINK(G115)</f>
-        <v>720</v>
-      </c>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
+        <v>805</v>
+      </c>
+      <c r="I115" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s" s="12">
+        <v>806</v>
+      </c>
+      <c r="K115" t="s" s="12">
+        <v>807</v>
+      </c>
+      <c r="L115" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M115" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="116" ht="133" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="B116" s="9">
         <v>5160920</v>
@@ -11107,28 +13102,36 @@
         <v>13</v>
       </c>
       <c r="D116" t="s" s="10">
-        <v>722</v>
+        <v>809</v>
       </c>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
       <c r="G116" t="s" s="12">
-        <v>723</v>
+        <v>810</v>
       </c>
       <c r="H116" t="s" s="12">
         <f>HYPERLINK(G116)</f>
-        <v>724</v>
-      </c>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
+        <v>811</v>
+      </c>
+      <c r="I116" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K116" t="s" s="12">
+        <v>812</v>
+      </c>
+      <c r="L116" t="s" s="12">
+        <v>813</v>
+      </c>
       <c r="M116" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="117" ht="133" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>725</v>
+        <v>814</v>
       </c>
       <c r="B117" s="9">
         <v>5153243</v>
@@ -11137,28 +13140,36 @@
         <v>13</v>
       </c>
       <c r="D117" t="s" s="10">
-        <v>726</v>
+        <v>815</v>
       </c>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
       <c r="G117" t="s" s="12">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="H117" t="s" s="12">
         <f>HYPERLINK(G117)</f>
-        <v>728</v>
-      </c>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
+        <v>817</v>
+      </c>
+      <c r="I117" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K117" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L117" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M117" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="118" ht="146" customHeight="1">
       <c r="A118" t="s" s="3">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="B118" s="9">
         <v>5152271</v>
@@ -11167,28 +13178,36 @@
         <v>13</v>
       </c>
       <c r="D118" t="s" s="10">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
       <c r="G118" t="s" s="12">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="H118" t="s" s="12">
         <f>HYPERLINK(G118)</f>
-        <v>732</v>
-      </c>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
+        <v>821</v>
+      </c>
+      <c r="I118" t="s" s="12">
+        <v>822</v>
+      </c>
+      <c r="J118" t="s" s="12">
+        <v>823</v>
+      </c>
+      <c r="K118" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L118" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M118" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="119" ht="146" customHeight="1">
       <c r="A119" t="s" s="3">
-        <v>733</v>
+        <v>824</v>
       </c>
       <c r="B119" s="9">
         <v>5160367</v>
@@ -11197,28 +13216,36 @@
         <v>13</v>
       </c>
       <c r="D119" t="s" s="10">
-        <v>734</v>
+        <v>825</v>
       </c>
       <c r="E119" s="11"/>
       <c r="F119" s="11"/>
       <c r="G119" t="s" s="12">
-        <v>735</v>
+        <v>826</v>
       </c>
       <c r="H119" t="s" s="12">
         <f>HYPERLINK(G119)</f>
-        <v>736</v>
-      </c>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
+        <v>827</v>
+      </c>
+      <c r="I119" t="s" s="12">
+        <v>828</v>
+      </c>
+      <c r="J119" t="s" s="12">
+        <v>829</v>
+      </c>
+      <c r="K119" t="s" s="12">
+        <v>830</v>
+      </c>
+      <c r="L119" t="s" s="12">
+        <v>831</v>
+      </c>
       <c r="M119" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="120" ht="172" customHeight="1">
       <c r="A120" t="s" s="3">
-        <v>737</v>
+        <v>832</v>
       </c>
       <c r="B120" s="9">
         <v>5161260</v>
@@ -11227,28 +13254,36 @@
         <v>13</v>
       </c>
       <c r="D120" t="s" s="10">
-        <v>738</v>
+        <v>833</v>
       </c>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
       <c r="G120" t="s" s="12">
-        <v>739</v>
+        <v>834</v>
       </c>
       <c r="H120" t="s" s="12">
         <f>HYPERLINK(G120)</f>
-        <v>740</v>
-      </c>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
+        <v>835</v>
+      </c>
+      <c r="I120" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K120" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L120" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M120" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="121" ht="146" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>741</v>
+        <v>836</v>
       </c>
       <c r="B121" s="9">
         <v>5160691</v>
@@ -11257,28 +13292,36 @@
         <v>13</v>
       </c>
       <c r="D121" t="s" s="10">
-        <v>742</v>
+        <v>837</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11"/>
       <c r="G121" t="s" s="12">
-        <v>743</v>
+        <v>838</v>
       </c>
       <c r="H121" t="s" s="12">
         <f>HYPERLINK(G121)</f>
-        <v>744</v>
-      </c>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
+        <v>839</v>
+      </c>
+      <c r="I121" t="s" s="12">
+        <v>840</v>
+      </c>
+      <c r="J121" t="s" s="12">
+        <v>841</v>
+      </c>
+      <c r="K121" t="s" s="12">
+        <v>842</v>
+      </c>
+      <c r="L121" t="s" s="12">
+        <v>843</v>
+      </c>
       <c r="M121" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="122" ht="185" customHeight="1">
       <c r="A122" t="s" s="3">
-        <v>745</v>
+        <v>844</v>
       </c>
       <c r="B122" s="9">
         <v>5164054</v>
@@ -11287,28 +13330,36 @@
         <v>13</v>
       </c>
       <c r="D122" t="s" s="10">
-        <v>746</v>
+        <v>845</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
       <c r="G122" t="s" s="12">
-        <v>747</v>
+        <v>846</v>
       </c>
       <c r="H122" t="s" s="12">
         <f>HYPERLINK(G122)</f>
-        <v>748</v>
-      </c>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
+        <v>847</v>
+      </c>
+      <c r="I122" t="s" s="12">
+        <v>848</v>
+      </c>
+      <c r="J122" t="s" s="12">
+        <v>849</v>
+      </c>
+      <c r="K122" t="s" s="12">
+        <v>850</v>
+      </c>
+      <c r="L122" t="s" s="12">
+        <v>851</v>
+      </c>
       <c r="M122" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="123" ht="146" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>749</v>
+        <v>852</v>
       </c>
       <c r="B123" s="9">
         <v>5164505</v>
@@ -11317,28 +13368,36 @@
         <v>13</v>
       </c>
       <c r="D123" t="s" s="10">
-        <v>750</v>
+        <v>853</v>
       </c>
       <c r="E123" s="11"/>
       <c r="F123" s="11"/>
       <c r="G123" t="s" s="12">
-        <v>751</v>
+        <v>854</v>
       </c>
       <c r="H123" t="s" s="12">
         <f>HYPERLINK(G123)</f>
-        <v>752</v>
-      </c>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
+        <v>855</v>
+      </c>
+      <c r="I123" t="s" s="12">
+        <v>856</v>
+      </c>
+      <c r="J123" t="s" s="12">
+        <v>857</v>
+      </c>
+      <c r="K123" t="s" s="12">
+        <v>858</v>
+      </c>
+      <c r="L123" t="s" s="12">
+        <v>859</v>
+      </c>
       <c r="M123" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="124" ht="172" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>753</v>
+        <v>860</v>
       </c>
       <c r="B124" s="9">
         <v>5165251</v>
@@ -11347,28 +13406,36 @@
         <v>13</v>
       </c>
       <c r="D124" t="s" s="10">
-        <v>754</v>
+        <v>861</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" t="s" s="12">
-        <v>755</v>
+        <v>862</v>
       </c>
       <c r="H124" t="s" s="12">
         <f>HYPERLINK(G124)</f>
-        <v>756</v>
-      </c>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
+        <v>863</v>
+      </c>
+      <c r="I124" t="s" s="12">
+        <v>864</v>
+      </c>
+      <c r="J124" t="s" s="12">
+        <v>865</v>
+      </c>
+      <c r="K124" t="s" s="12">
+        <v>866</v>
+      </c>
+      <c r="L124" t="s" s="12">
+        <v>867</v>
+      </c>
       <c r="M124" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="125" ht="159" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>757</v>
+        <v>868</v>
       </c>
       <c r="B125" s="9">
         <v>5156211</v>
@@ -11377,28 +13444,36 @@
         <v>13</v>
       </c>
       <c r="D125" t="s" s="10">
-        <v>758</v>
+        <v>869</v>
       </c>
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" t="s" s="12">
-        <v>759</v>
+        <v>870</v>
       </c>
       <c r="H125" t="s" s="12">
         <f>HYPERLINK(G125)</f>
-        <v>760</v>
-      </c>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
+        <v>871</v>
+      </c>
+      <c r="I125" t="s" s="12">
+        <v>872</v>
+      </c>
+      <c r="J125" t="s" s="12">
+        <v>873</v>
+      </c>
+      <c r="K125" t="s" s="12">
+        <v>874</v>
+      </c>
+      <c r="L125" t="s" s="12">
+        <v>875</v>
+      </c>
       <c r="M125" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="126" ht="146" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>761</v>
+        <v>876</v>
       </c>
       <c r="B126" s="9">
         <v>5161138</v>
@@ -11407,28 +13482,36 @@
         <v>13</v>
       </c>
       <c r="D126" t="s" s="10">
-        <v>762</v>
+        <v>877</v>
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
       <c r="G126" t="s" s="12">
-        <v>763</v>
+        <v>878</v>
       </c>
       <c r="H126" t="s" s="12">
         <f>HYPERLINK(G126)</f>
-        <v>764</v>
-      </c>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
+        <v>879</v>
+      </c>
+      <c r="I126" t="s" s="12">
+        <v>880</v>
+      </c>
+      <c r="J126" t="s" s="12">
+        <v>881</v>
+      </c>
+      <c r="K126" t="s" s="12">
+        <v>882</v>
+      </c>
+      <c r="L126" t="s" s="12">
+        <v>883</v>
+      </c>
       <c r="M126" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="127" ht="146" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>765</v>
+        <v>884</v>
       </c>
       <c r="B127" s="9">
         <v>5159056</v>
@@ -11437,28 +13520,36 @@
         <v>13</v>
       </c>
       <c r="D127" t="s" s="10">
-        <v>766</v>
+        <v>885</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11"/>
       <c r="G127" t="s" s="12">
-        <v>767</v>
+        <v>886</v>
       </c>
       <c r="H127" t="s" s="12">
         <f>HYPERLINK(G127)</f>
-        <v>768</v>
-      </c>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
+        <v>887</v>
+      </c>
+      <c r="I127" t="s" s="12">
+        <v>888</v>
+      </c>
+      <c r="J127" t="s" s="12">
+        <v>889</v>
+      </c>
+      <c r="K127" t="s" s="12">
+        <v>890</v>
+      </c>
+      <c r="L127" t="s" s="12">
+        <v>891</v>
+      </c>
       <c r="M127" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="128" ht="146" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>769</v>
+        <v>892</v>
       </c>
       <c r="B128" s="9">
         <v>5152967</v>
@@ -11467,28 +13558,36 @@
         <v>13</v>
       </c>
       <c r="D128" t="s" s="10">
-        <v>770</v>
+        <v>893</v>
       </c>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
       <c r="G128" t="s" s="12">
-        <v>771</v>
+        <v>894</v>
       </c>
       <c r="H128" t="s" s="12">
         <f>HYPERLINK(G128)</f>
-        <v>772</v>
-      </c>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
+        <v>895</v>
+      </c>
+      <c r="I128" t="s" s="12">
+        <v>896</v>
+      </c>
+      <c r="J128" t="s" s="12">
+        <v>897</v>
+      </c>
+      <c r="K128" t="s" s="12">
+        <v>898</v>
+      </c>
+      <c r="L128" t="s" s="12">
+        <v>899</v>
+      </c>
       <c r="M128" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="129" ht="133" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>773</v>
+        <v>900</v>
       </c>
       <c r="B129" s="9">
         <v>5154965</v>
@@ -11497,28 +13596,36 @@
         <v>13</v>
       </c>
       <c r="D129" t="s" s="10">
-        <v>774</v>
+        <v>901</v>
       </c>
       <c r="E129" s="11"/>
       <c r="F129" s="11"/>
       <c r="G129" t="s" s="12">
-        <v>775</v>
+        <v>902</v>
       </c>
       <c r="H129" t="s" s="12">
         <f>HYPERLINK(G129)</f>
-        <v>776</v>
-      </c>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
+        <v>903</v>
+      </c>
+      <c r="I129" t="s" s="12">
+        <v>904</v>
+      </c>
+      <c r="J129" t="s" s="12">
+        <v>905</v>
+      </c>
+      <c r="K129" t="s" s="12">
+        <v>906</v>
+      </c>
+      <c r="L129" t="s" s="12">
+        <v>907</v>
+      </c>
       <c r="M129" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="130" ht="146" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>777</v>
+        <v>908</v>
       </c>
       <c r="B130" s="9">
         <v>5153256</v>
@@ -11538,17 +13645,25 @@
         <f>HYPERLINK(G130)</f>
         <v>188</v>
       </c>
-      <c r="I130" s="13"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
+      <c r="I130" t="s" s="12">
+        <v>909</v>
+      </c>
+      <c r="J130" t="s" s="12">
+        <v>910</v>
+      </c>
+      <c r="K130" t="s" s="12">
+        <v>911</v>
+      </c>
+      <c r="L130" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M130" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="131" ht="159" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>778</v>
+        <v>912</v>
       </c>
       <c r="B131" s="9">
         <v>5152555</v>
@@ -11557,28 +13672,36 @@
         <v>13</v>
       </c>
       <c r="D131" t="s" s="10">
-        <v>779</v>
+        <v>913</v>
       </c>
       <c r="E131" s="11"/>
       <c r="F131" s="11"/>
       <c r="G131" t="s" s="12">
-        <v>780</v>
+        <v>914</v>
       </c>
       <c r="H131" t="s" s="12">
         <f>HYPERLINK(G131)</f>
-        <v>781</v>
-      </c>
-      <c r="I131" s="13"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="13"/>
+        <v>915</v>
+      </c>
+      <c r="I131" t="s" s="12">
+        <v>916</v>
+      </c>
+      <c r="J131" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K131" t="s" s="12">
+        <v>917</v>
+      </c>
+      <c r="L131" t="s" s="12">
+        <v>918</v>
+      </c>
       <c r="M131" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="132" ht="159" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>782</v>
+        <v>919</v>
       </c>
       <c r="B132" s="9">
         <v>5157879</v>
@@ -11587,28 +13710,36 @@
         <v>13</v>
       </c>
       <c r="D132" t="s" s="10">
-        <v>783</v>
+        <v>920</v>
       </c>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
       <c r="G132" t="s" s="12">
-        <v>784</v>
+        <v>921</v>
       </c>
       <c r="H132" t="s" s="12">
         <f>HYPERLINK(G132)</f>
-        <v>785</v>
-      </c>
-      <c r="I132" s="13"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="13"/>
-      <c r="L132" s="13"/>
+        <v>922</v>
+      </c>
+      <c r="I132" t="s" s="12">
+        <v>923</v>
+      </c>
+      <c r="J132" t="s" s="12">
+        <v>924</v>
+      </c>
+      <c r="K132" t="s" s="12">
+        <v>925</v>
+      </c>
+      <c r="L132" t="s" s="12">
+        <v>926</v>
+      </c>
       <c r="M132" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="133" ht="146" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>786</v>
+        <v>927</v>
       </c>
       <c r="B133" s="9">
         <v>5148810</v>
@@ -11628,17 +13759,25 @@
         <f>HYPERLINK(G133)</f>
         <v>315</v>
       </c>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
+      <c r="I133" t="s" s="12">
+        <v>928</v>
+      </c>
+      <c r="J133" t="s" s="12">
+        <v>929</v>
+      </c>
+      <c r="K133" t="s" s="12">
+        <v>930</v>
+      </c>
+      <c r="L133" t="s" s="12">
+        <v>16</v>
+      </c>
       <c r="M133" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="134" ht="159" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>787</v>
+        <v>931</v>
       </c>
       <c r="B134" s="9">
         <v>5146140</v>
@@ -11647,28 +13786,36 @@
         <v>13</v>
       </c>
       <c r="D134" t="s" s="10">
-        <v>788</v>
+        <v>932</v>
       </c>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
       <c r="G134" t="s" s="12">
-        <v>789</v>
+        <v>933</v>
       </c>
       <c r="H134" t="s" s="12">
         <f>HYPERLINK(G134)</f>
-        <v>790</v>
-      </c>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
+        <v>934</v>
+      </c>
+      <c r="I134" t="s" s="12">
+        <v>935</v>
+      </c>
+      <c r="J134" t="s" s="12">
+        <v>936</v>
+      </c>
+      <c r="K134" t="s" s="12">
+        <v>937</v>
+      </c>
+      <c r="L134" t="s" s="12">
+        <v>938</v>
+      </c>
       <c r="M134" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="135" ht="159" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>791</v>
+        <v>939</v>
       </c>
       <c r="B135" s="9">
         <v>5152101</v>
@@ -11677,28 +13824,36 @@
         <v>13</v>
       </c>
       <c r="D135" t="s" s="10">
-        <v>792</v>
+        <v>940</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11"/>
       <c r="G135" t="s" s="12">
-        <v>793</v>
+        <v>941</v>
       </c>
       <c r="H135" t="s" s="12">
         <f>HYPERLINK(G135)</f>
-        <v>794</v>
-      </c>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="13"/>
+        <v>942</v>
+      </c>
+      <c r="I135" t="s" s="12">
+        <v>943</v>
+      </c>
+      <c r="J135" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="K135" t="s" s="12">
+        <v>944</v>
+      </c>
+      <c r="L135" t="s" s="12">
+        <v>945</v>
+      </c>
       <c r="M135" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="136" ht="146" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>795</v>
+        <v>946</v>
       </c>
       <c r="B136" s="9">
         <v>5151991</v>
@@ -11707,28 +13862,36 @@
         <v>13</v>
       </c>
       <c r="D136" t="s" s="10">
-        <v>796</v>
+        <v>947</v>
       </c>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
       <c r="G136" t="s" s="12">
-        <v>797</v>
+        <v>948</v>
       </c>
       <c r="H136" t="s" s="12">
         <f>HYPERLINK(G136)</f>
-        <v>798</v>
-      </c>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
+        <v>949</v>
+      </c>
+      <c r="I136" t="s" s="12">
+        <v>950</v>
+      </c>
+      <c r="J136" t="s" s="12">
+        <v>951</v>
+      </c>
+      <c r="K136" t="s" s="12">
+        <v>952</v>
+      </c>
+      <c r="L136" t="s" s="12">
+        <v>953</v>
+      </c>
       <c r="M136" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="137" ht="172" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>799</v>
+        <v>954</v>
       </c>
       <c r="B137" s="9">
         <v>5147905</v>
@@ -11737,28 +13900,36 @@
         <v>13</v>
       </c>
       <c r="D137" t="s" s="10">
-        <v>800</v>
+        <v>955</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11"/>
       <c r="G137" t="s" s="12">
-        <v>801</v>
+        <v>956</v>
       </c>
       <c r="H137" t="s" s="12">
         <f>HYPERLINK(G137)</f>
-        <v>802</v>
-      </c>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
+        <v>957</v>
+      </c>
+      <c r="I137" t="s" s="12">
+        <v>958</v>
+      </c>
+      <c r="J137" t="s" s="12">
+        <v>959</v>
+      </c>
+      <c r="K137" t="s" s="12">
+        <v>16</v>
+      </c>
+      <c r="L137" t="s" s="12">
+        <v>960</v>
+      </c>
       <c r="M137" t="s" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="138" ht="159" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>803</v>
+        <v>961</v>
       </c>
       <c r="B138" s="9">
         <v>5156414</v>
@@ -11767,21 +13938,29 @@
         <v>13</v>
       </c>
       <c r="D138" t="s" s="10">
-        <v>804</v>
+        <v>962</v>
       </c>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
       <c r="G138" t="s" s="12">
-        <v>805</v>
+        <v>963</v>
       </c>
       <c r="H138" t="s" s="12">
         <f>HYPERLINK(G138)</f>
-        <v>806</v>
-      </c>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
-      <c r="K138" s="13"/>
-      <c r="L138" s="13"/>
+        <v>964</v>
+      </c>
+      <c r="I138" t="s" s="12">
+        <v>965</v>
+      </c>
+      <c r="J138" t="s" s="12">
+        <v>966</v>
+      </c>
+      <c r="K138" t="s" s="12">
+        <v>967</v>
+      </c>
+      <c r="L138" t="s" s="12">
+        <v>968</v>
+      </c>
       <c r="M138" t="s" s="10">
         <v>17</v>
       </c>
@@ -12146,55 +14325,218 @@
     <hyperlink ref="K88" r:id="rId356" location="" tooltip="" display="https://goo.gl/maps/NbHEfNVc4JfW8AcF7"/>
     <hyperlink ref="L88" r:id="rId357" location="" tooltip="" display="https://goo.gl/maps/FwJpum9h4AxWWFY56"/>
     <hyperlink ref="H89" r:id="rId358" location="" tooltip="" display="https://www.google.com/maps/place/HOWARD+LN+%26+WELLS+BRANCH+PKWY,+Austin,+TX"/>
-    <hyperlink ref="H90" r:id="rId359" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+35+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H91" r:id="rId360" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H92" r:id="rId361" location="" tooltip="" display="https://www.google.com/maps/place/5701+BLK+MC+NEIL+DR+,+Austin,+TX"/>
-    <hyperlink ref="H93" r:id="rId362" location="" tooltip="" display="https://www.google.com/maps/place/US+183+HWY+%26+METROPOLIS+DR,+Austin,+TX"/>
-    <hyperlink ref="H94" r:id="rId363" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+SLAUGHTER+LN,+Austin,+TX"/>
-    <hyperlink ref="H95" r:id="rId364" location="" tooltip="" display="https://www.google.com/maps/place/EXPOSITION+BLVD+%26+WESTOVER+RD,+Austin,+TX"/>
-    <hyperlink ref="H96" r:id="rId365" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+KERBEY+LN,+Austin,+TX"/>
-    <hyperlink ref="H97" r:id="rId366" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H98" r:id="rId367" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MEADOWS+DR,+Austin,+TX"/>
-    <hyperlink ref="H99" r:id="rId368" location="" tooltip="" display="https://www.google.com/maps/place/5501+BLK+MC+NEIL+DR+,+Austin,+TX"/>
-    <hyperlink ref="H100" r:id="rId369" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H101" r:id="rId370" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+KOENIG+LN+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H102" r:id="rId371" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H103" r:id="rId372" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+WEST+LYNN+ST,+Austin,+TX"/>
-    <hyperlink ref="H104" r:id="rId373" location="" tooltip="" display="https://www.google.com/maps/place/ESCARPMENT+BLVD+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
-    <hyperlink ref="H105" r:id="rId374" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+ERNEST+ROBLES+WAY,+Austin,+TX"/>
-    <hyperlink ref="H106" r:id="rId375" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+CAMERON+RD,+Austin,+TX"/>
-    <hyperlink ref="H107" r:id="rId376" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
-    <hyperlink ref="H108" r:id="rId377" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MONTEREY+OAKS+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H109" r:id="rId378" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H110" r:id="rId379" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H111" r:id="rId380" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H112" r:id="rId381" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+E+M+FRANKLIN+AVE,+Austin,+TX"/>
-    <hyperlink ref="H113" r:id="rId382" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+CRYSTAL+BEND+DR,+Austin,+TX"/>
-    <hyperlink ref="H114" r:id="rId383" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
-    <hyperlink ref="H115" r:id="rId384" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+W+290+WB+AT+JOE+TANNER+TRN,+Austin,+TX"/>
-    <hyperlink ref="H116" r:id="rId385" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+CALLES+ST,+Austin,+TX"/>
-    <hyperlink ref="H117" r:id="rId386" location="" tooltip="" display="https://www.google.com/maps/place/2100+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
-    <hyperlink ref="H118" r:id="rId387" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+DICKSON+DR,+Austin,+TX"/>
-    <hyperlink ref="H119" r:id="rId388" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+51ST+ST,+Austin,+TX"/>
-    <hyperlink ref="H120" r:id="rId389" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+CLIFFORD+AVE,+Austin,+TX"/>
-    <hyperlink ref="H121" r:id="rId390" location="" tooltip="" display="https://www.google.com/maps/place/METRIC+BLVD+%26+KRAMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H122" r:id="rId391" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+SPRINGDALE+RD,+Austin,+TX"/>
-    <hyperlink ref="H123" r:id="rId392" location="" tooltip="" display="https://www.google.com/maps/place/SPRINGDALE+RD+%26+51ST+ST,+Austin,+TX"/>
-    <hyperlink ref="H124" r:id="rId393" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+TANNEHILL+LN,+Austin,+TX"/>
-    <hyperlink ref="H125" r:id="rId394" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+PALO+BLANCO+LN,+Austin,+TX"/>
-    <hyperlink ref="H126" r:id="rId395" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
-    <hyperlink ref="H127" r:id="rId396" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+COMAL+ST,+Austin,+TX"/>
-    <hyperlink ref="H128" r:id="rId397" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+SPECTRUM+DR,+Austin,+TX"/>
-    <hyperlink ref="H129" r:id="rId398" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+JACKSON+AVE,+Austin,+TX"/>
-    <hyperlink ref="H130" r:id="rId399" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+PARMER+LN,+Austin,+TX"/>
-    <hyperlink ref="H131" r:id="rId400" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BLUEBONNET+LN,+Austin,+TX"/>
-    <hyperlink ref="H132" r:id="rId401" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+NUCKOLS+CROSSING+RD,+Austin,+TX"/>
-    <hyperlink ref="H133" r:id="rId402" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
-    <hyperlink ref="H134" r:id="rId403" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+FOSTER+RANCH+RD,+Austin,+TX"/>
-    <hyperlink ref="H135" r:id="rId404" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MENCHACA+RD+,+Austin,+TX"/>
-    <hyperlink ref="H136" r:id="rId405" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BARTON+SKWY+,+Austin,+TX"/>
-    <hyperlink ref="H137" r:id="rId406" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+REPUBLIC+OF+TEXAS+BLVD,+Austin,+TX"/>
-    <hyperlink ref="H138" r:id="rId407" location="" tooltip="" display="https://www.google.com/maps/place/SHOAL+CREEK+BLVD+%26+HANCOCK+DR,+Austin,+TX"/>
+    <hyperlink ref="J89" r:id="rId359" location="" tooltip="" display="https://goo.gl/maps/CS19pRmU3gJvKiSv9"/>
+    <hyperlink ref="K89" r:id="rId360" location="" tooltip="" display="https://goo.gl/maps/7Y12NQ8tbZDtrHiz8"/>
+    <hyperlink ref="L89" r:id="rId361" location="" tooltip="" display="https://goo.gl/maps/xVxF4b3tUmHAKMCE9"/>
+    <hyperlink ref="H90" r:id="rId362" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+35+SVRD,+Austin,+TX"/>
+    <hyperlink ref="H91" r:id="rId363" location="" tooltip="" display="https://www.google.com/maps/place/MC+NEIL+DR+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="I91" r:id="rId364" location="" tooltip="" display="https://goo.gl/maps/W7UxkkJhqgTgNyT17"/>
+    <hyperlink ref="J91" r:id="rId365" location="" tooltip="" display="https://goo.gl/maps/5mYp1amfqHR7CKJ17"/>
+    <hyperlink ref="K91" r:id="rId366" location="" tooltip="" display="https://goo.gl/maps/F8bpjpz4z4XAN4kT9"/>
+    <hyperlink ref="L91" r:id="rId367" location="" tooltip="" display="https://goo.gl/maps/KHrbz8LRWemLN83QA"/>
+    <hyperlink ref="H92" r:id="rId368" location="" tooltip="" display="https://www.google.com/maps/place/5701+BLK+MC+NEIL+DR+,+Austin,+TX"/>
+    <hyperlink ref="I92" r:id="rId369" location="" tooltip="" display="https://goo.gl/maps/hfT1DmqpAnDbTo9Z7"/>
+    <hyperlink ref="J92" r:id="rId370" location="" tooltip="" display="https://goo.gl/maps/ZMWFV1TCHDSywfrq5"/>
+    <hyperlink ref="K92" r:id="rId371" location="" tooltip="" display="https://goo.gl/maps/ESC88einSeu47hNv8"/>
+    <hyperlink ref="L92" r:id="rId372" location="" tooltip="" display="https://goo.gl/maps/Dsc8t3zEiNfS5sHg8"/>
+    <hyperlink ref="H93" r:id="rId373" location="" tooltip="" display="https://www.google.com/maps/place/US+183+HWY+%26+METROPOLIS+DR,+Austin,+TX"/>
+    <hyperlink ref="I93" r:id="rId374" location="" tooltip="" display="https://goo.gl/maps/EedipFgGpoZ7R4UX9"/>
+    <hyperlink ref="J93" r:id="rId375" location="" tooltip="" display="https://goo.gl/maps/FgihyCUixopkwFBK8"/>
+    <hyperlink ref="K93" r:id="rId376" location="" tooltip="" display="https://goo.gl/maps/Uw5AsZ1zKvdY9i5t5"/>
+    <hyperlink ref="H94" r:id="rId377" location="" tooltip="" display="https://www.google.com/maps/place/MENCHACA+RD+%26+SLAUGHTER+LN,+Austin,+TX"/>
+    <hyperlink ref="I94" r:id="rId378" location="" tooltip="" display="https://goo.gl/maps/aghpT5hHmPWqHyhB7"/>
+    <hyperlink ref="J94" r:id="rId379" location="" tooltip="" display="https://goo.gl/maps/pGMuWGUR55dmvQ1s5"/>
+    <hyperlink ref="K94" r:id="rId380" location="" tooltip="" display="https://goo.gl/maps/sUe4WPttT8djc8y88"/>
+    <hyperlink ref="L94" r:id="rId381" location="" tooltip="" display="https://goo.gl/maps/AaZBhvMWLyrDaxsL8"/>
+    <hyperlink ref="H95" r:id="rId382" location="" tooltip="" display="https://www.google.com/maps/place/EXPOSITION+BLVD+%26+WESTOVER+RD,+Austin,+TX"/>
+    <hyperlink ref="I95" r:id="rId383" location="" tooltip="" display="https://goo.gl/maps/ZMXdf3m5B9sNkGWFA"/>
+    <hyperlink ref="J95" r:id="rId384" location="" tooltip="" display="https://goo.gl/maps/PZV1WZuVL9BzTK4Z8"/>
+    <hyperlink ref="K95" r:id="rId385" location="" tooltip="" display="https://goo.gl/maps/4JoSKjZxQsFXn49v6"/>
+    <hyperlink ref="L95" r:id="rId386" location="" tooltip="" display="https://goo.gl/maps/uh22JNTVD1wpJ6qi8"/>
+    <hyperlink ref="H96" r:id="rId387" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+KERBEY+LN,+Austin,+TX"/>
+    <hyperlink ref="I96" r:id="rId388" location="" tooltip="" display="https://goo.gl/maps/jHXmuhJLxkDfMjxi7"/>
+    <hyperlink ref="K96" r:id="rId389" location="" tooltip="" display="https://goo.gl/maps/gXqKjgArVTWE18X67"/>
+    <hyperlink ref="L96" r:id="rId390" location="" tooltip="" display="https://goo.gl/maps/J2DKCiHvVs1PtBDS8"/>
+    <hyperlink ref="H97" r:id="rId391" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I97" r:id="rId392" location="" tooltip="" display="https://goo.gl/maps/YnMYTqrysmZeNCmw8"/>
+    <hyperlink ref="J97" r:id="rId393" location="" tooltip="" display="https://goo.gl/maps/T4bEb9dxN8tj4fUG7"/>
+    <hyperlink ref="K97" r:id="rId394" location="" tooltip="" display="https://goo.gl/maps/PJ2zUC7dxZHgRroS7"/>
+    <hyperlink ref="L97" r:id="rId395" location="" tooltip="" display="https://goo.gl/maps/DzgXDnjtxeZihT2s5"/>
+    <hyperlink ref="H98" r:id="rId396" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MEADOWS+DR,+Austin,+TX"/>
+    <hyperlink ref="I98" r:id="rId397" location="" tooltip="" display="https://goo.gl/maps/xJEZScTM3jd31vjv7"/>
+    <hyperlink ref="J98" r:id="rId398" location="" tooltip="" display="https://goo.gl/maps/7igom4JU6M4SNSuBA"/>
+    <hyperlink ref="K98" r:id="rId399" location="" tooltip="" display="https://goo.gl/maps/ESTyDw9Lut2NS5Hs9"/>
+    <hyperlink ref="L98" r:id="rId400" location="" tooltip="" display="https://goo.gl/maps/KAPdszwxyKekKeaz7"/>
+    <hyperlink ref="H99" r:id="rId401" location="" tooltip="" display="https://www.google.com/maps/place/5501+BLK+MC+NEIL+DR+,+Austin,+TX"/>
+    <hyperlink ref="I99" r:id="rId402" location="" tooltip="" display="https://goo.gl/maps/Y5VnGD6uDHWBNnX18"/>
+    <hyperlink ref="J99" r:id="rId403" location="" tooltip="" display="https://goo.gl/maps/WUcmGJsgfRU2mSDLA"/>
+    <hyperlink ref="K99" r:id="rId404" location="" tooltip="" display="https://goo.gl/maps/ESTyDw9Lut2NS5Hs9"/>
+    <hyperlink ref="L99" r:id="rId405" location="" tooltip="" display="https://goo.gl/maps/v3aTBeaPY8xay8H78"/>
+    <hyperlink ref="H100" r:id="rId406" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MARTIN+LUTHER+KING+JR+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I100" r:id="rId407" location="" tooltip="" display="https://goo.gl/maps/bD5sgWGFfpPR3g6G8"/>
+    <hyperlink ref="J100" r:id="rId408" location="" tooltip="" display="https://goo.gl/maps/q4C3jXjr6U9KavAu6"/>
+    <hyperlink ref="L100" r:id="rId409" location="" tooltip="" display="https://goo.gl/maps/q51dSkwJwMzQBsod6"/>
+    <hyperlink ref="H101" r:id="rId410" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+KOENIG+LN+SVRD,+Austin,+TX"/>
+    <hyperlink ref="I101" r:id="rId411" location="" tooltip="" display="https://goo.gl/maps/auCxBooZmFBN6moA9"/>
+    <hyperlink ref="J101" r:id="rId412" location="" tooltip="" display="https://goo.gl/maps/AdVE4j5KNAqK3PZy5"/>
+    <hyperlink ref="L101" r:id="rId413" location="" tooltip="" display="https://goo.gl/maps/tmTrmsuNtbW9fj3i7"/>
+    <hyperlink ref="H102" r:id="rId414" location="" tooltip="" display="https://www.google.com/maps/place/6TH+ST+%26+WEST+LYNN+ST,+Austin,+TX"/>
+    <hyperlink ref="I102" r:id="rId415" location="" tooltip="" display="https://goo.gl/maps/S47N95nvEgJiveT1A"/>
+    <hyperlink ref="J102" r:id="rId416" location="" tooltip="" display="https://goo.gl/maps/xDbHjRoqKYdCa55g9"/>
+    <hyperlink ref="L102" r:id="rId417" location="" tooltip="" display="https://goo.gl/maps/aoKoSpsUKKyAh4ez6"/>
+    <hyperlink ref="H103" r:id="rId418" location="" tooltip="" display="https://www.google.com/maps/place/ENFIELD+RD+%26+WEST+LYNN+ST,+Austin,+TX"/>
+    <hyperlink ref="I103" r:id="rId419" location="" tooltip="" display="https://goo.gl/maps/z4dwugxPNoPRyLzV7"/>
+    <hyperlink ref="J103" r:id="rId420" location="" tooltip="" display="https://goo.gl/maps/QbB6B5XNEzRPLcRW6"/>
+    <hyperlink ref="K103" r:id="rId421" location="" tooltip="" display="https://goo.gl/maps/fcBcNbaxxYwhz5NA7"/>
+    <hyperlink ref="L103" r:id="rId422" location="" tooltip="" display="https://goo.gl/maps/DFU3CVug9eL7srUr7"/>
+    <hyperlink ref="H104" r:id="rId423" location="" tooltip="" display="https://www.google.com/maps/place/ESCARPMENT+BLVD+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
+    <hyperlink ref="I104" r:id="rId424" location="" tooltip="" display="https://goo.gl/maps/19AXTpeHCQAS9d6m9"/>
+    <hyperlink ref="J104" r:id="rId425" location="" tooltip="" display="https://goo.gl/maps/uWpGrAuSPSMG71mJA"/>
+    <hyperlink ref="K104" r:id="rId426" location="" tooltip="" display="https://goo.gl/maps/kRFE8fvmB7HwQe2E8"/>
+    <hyperlink ref="L104" r:id="rId427" location="" tooltip="" display="https://goo.gl/maps/RjxBLNgiN55phzrU7"/>
+    <hyperlink ref="H105" r:id="rId428" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+ERNEST+ROBLES+WAY,+Austin,+TX"/>
+    <hyperlink ref="I105" r:id="rId429" location="" tooltip="" display="https://goo.gl/maps/vzwq8aW5mKKc5DgJ8"/>
+    <hyperlink ref="J105" r:id="rId430" location="" tooltip="" display="https://goo.gl/maps/vNNzLE8MaTEkmsBV6"/>
+    <hyperlink ref="K105" r:id="rId431" location="" tooltip="" display="https://goo.gl/maps/KZxRXdQTzbqtBJMz7"/>
+    <hyperlink ref="L105" r:id="rId432" location="" tooltip="" display="https://goo.gl/maps/vU2yu3nvERJDkhdc9"/>
+    <hyperlink ref="H106" r:id="rId433" location="" tooltip="" display="https://www.google.com/maps/place/51ST+ST+%26+CAMERON+RD,+Austin,+TX"/>
+    <hyperlink ref="J106" r:id="rId434" location="" tooltip="" display="https://goo.gl/maps/WBgpBev5rPLWwjP38"/>
+    <hyperlink ref="K106" r:id="rId435" location="" tooltip="" display="https://goo.gl/maps/6CsB2w6jrVswkrrd8"/>
+    <hyperlink ref="L106" r:id="rId436" location="" tooltip="" display="https://goo.gl/maps/fTH5RoqhmhGeFw6b7"/>
+    <hyperlink ref="H107" r:id="rId437" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+WILLIAM+CANNON+DR,+Austin,+TX"/>
+    <hyperlink ref="I107" r:id="rId438" location="" tooltip="" display="https://goo.gl/maps/eSGV5XZLEGWhQexZ6"/>
+    <hyperlink ref="J107" r:id="rId439" location="" tooltip="" display="https://goo.gl/maps/XeGwregfm1xHc9Hm8"/>
+    <hyperlink ref="K107" r:id="rId440" location="" tooltip="" display="https://goo.gl/maps/MaJWfHaZDKjN252U8"/>
+    <hyperlink ref="L107" r:id="rId441" location="" tooltip="" display="https://goo.gl/maps/T9vHpRYJg6moH5hH7"/>
+    <hyperlink ref="H108" r:id="rId442" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MONTEREY+OAKS+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I108" r:id="rId443" location="" tooltip="" display="https://goo.gl/maps/DMPSctVAjFQCY9Rh8"/>
+    <hyperlink ref="J108" r:id="rId444" location="" tooltip="" display="https://goo.gl/maps/aoxZQED2KcPQ6zfS9"/>
+    <hyperlink ref="K108" r:id="rId445" location="" tooltip="" display="https://goo.gl/maps/QqLPFb67qcmfvsbD9"/>
+    <hyperlink ref="H109" r:id="rId446" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="I109" r:id="rId447" location="" tooltip="" display="https://goo.gl/maps/DoKyNBiWYqZCiLKW6"/>
+    <hyperlink ref="K109" r:id="rId448" location="" tooltip="" display="https://goo.gl/maps/C1Yfhnw6pFdKKT6s5"/>
+    <hyperlink ref="H110" r:id="rId449" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="J110" r:id="rId450" location="" tooltip="" display="https://goo.gl/maps/J2PArsKwDnzNsfnq7"/>
+    <hyperlink ref="K110" r:id="rId451" location="" tooltip="" display="https://goo.gl/maps/8x5AigDmeCx2Qxsm7"/>
+    <hyperlink ref="H111" r:id="rId452" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+MOPAC+EXPY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="I111" r:id="rId453" location="" tooltip="" display="https://goo.gl/maps/P8CR1UKYEbrXCka4A"/>
+    <hyperlink ref="J111" r:id="rId454" location="" tooltip="" display="https://goo.gl/maps/AMfTdUj5P5ipvTyg9"/>
+    <hyperlink ref="L111" r:id="rId455" location="" tooltip="" display="https://goo.gl/maps/QRqgFYhSBYVNHBS87"/>
+    <hyperlink ref="H112" r:id="rId456" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+E+M+FRANKLIN+AVE,+Austin,+TX"/>
+    <hyperlink ref="I112" r:id="rId457" location="" tooltip="" display="https://goo.gl/maps/56dbeokQKXSUpF7BA"/>
+    <hyperlink ref="J112" r:id="rId458" location="" tooltip="" display="https://goo.gl/maps/znKJA51SgWj84QrF8"/>
+    <hyperlink ref="K112" r:id="rId459" location="" tooltip="" display="https://goo.gl/maps/iMcm945afhbM9EiB9"/>
+    <hyperlink ref="L112" r:id="rId460" location="" tooltip="" display="https://goo.gl/maps/iz29tDGmqTENPUNv6"/>
+    <hyperlink ref="H113" r:id="rId461" location="" tooltip="" display="https://www.google.com/maps/place/DESSAU+RD+%26+CRYSTAL+BEND+DR,+Austin,+TX"/>
+    <hyperlink ref="I113" r:id="rId462" location="" tooltip="" display="https://goo.gl/maps/RT7m4Y3Fu1yGRGP58"/>
+    <hyperlink ref="J113" r:id="rId463" location="" tooltip="" display="https://goo.gl/maps/shuwK4WWkyqenC9R6"/>
+    <hyperlink ref="K113" r:id="rId464" location="" tooltip="" display="https://goo.gl/maps/nDLurtQfMcrpZxh56"/>
+    <hyperlink ref="L113" r:id="rId465" location="" tooltip="" display="https://goo.gl/maps/xSUAH6aRJpu97wEL9"/>
+    <hyperlink ref="H114" r:id="rId466" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+SVRD+%26+OLD+FREDERICKSBURG+RD,+Austin,+TX"/>
+    <hyperlink ref="I114" r:id="rId467" location="" tooltip="" display="https://goo.gl/maps/5iD4jhvXe1LEejHf9"/>
+    <hyperlink ref="J114" r:id="rId468" location="" tooltip="" display="https://goo.gl/maps/KJjsfEVd2n7TSmrE7"/>
+    <hyperlink ref="K114" r:id="rId469" location="" tooltip="" display="https://goo.gl/maps/5Jc4UZHzqZzbfDMo6"/>
+    <hyperlink ref="H115" r:id="rId470" location="" tooltip="" display="https://www.google.com/maps/place/US+290+HWY+%26+W+290+WB+AT+JOE+TANNER+TRN,+Austin,+TX"/>
+    <hyperlink ref="J115" r:id="rId471" location="" tooltip="" display="https://goo.gl/maps/sBonvkz7BpL5qfv28"/>
+    <hyperlink ref="K115" r:id="rId472" location="" tooltip="" display="https://goo.gl/maps/wzz6E4jL3DuBuYaUA"/>
+    <hyperlink ref="H116" r:id="rId473" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+CALLES+ST,+Austin,+TX"/>
+    <hyperlink ref="K116" r:id="rId474" location="" tooltip="" display="https://goo.gl/maps/NRMC6JmvSFFHcMNm9"/>
+    <hyperlink ref="L116" r:id="rId475" location="" tooltip="" display="https://goo.gl/maps/6dvSYQ5LUK82UtyQ8"/>
+    <hyperlink ref="H117" r:id="rId476" location="" tooltip="" display="https://www.google.com/maps/place/2100+BLK+S+LAMAR+BLVD+,+Austin,+TX"/>
+    <hyperlink ref="H118" r:id="rId477" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+DICKSON+DR,+Austin,+TX"/>
+    <hyperlink ref="I118" r:id="rId478" location="" tooltip="" display="https://goo.gl/maps/R1h5KXYWm7cNpuLT7"/>
+    <hyperlink ref="J118" r:id="rId479" location="" tooltip="" display="https://goo.gl/maps/ce1ch7dgTAoa8eS99"/>
+    <hyperlink ref="H119" r:id="rId480" location="" tooltip="" display="https://www.google.com/maps/place/AIRPORT+BLVD+%26+51ST+ST,+Austin,+TX"/>
+    <hyperlink ref="I119" r:id="rId481" location="" tooltip="" display="https://goo.gl/maps/a8hDhn451US6ZJKg7"/>
+    <hyperlink ref="J119" r:id="rId482" location="" tooltip="" display="https://goo.gl/maps/BGtnkD9wFUFjmocR8"/>
+    <hyperlink ref="K119" r:id="rId483" location="" tooltip="" display="https://goo.gl/maps/H5EvCrzdfHc1s4RW6"/>
+    <hyperlink ref="L119" r:id="rId484" location="" tooltip="" display="https://goo.gl/maps/mFecJFq9tzP6VNcR8"/>
+    <hyperlink ref="H120" r:id="rId485" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+CLIFFORD+AVE,+Austin,+TX"/>
+    <hyperlink ref="H121" r:id="rId486" location="" tooltip="" display="https://www.google.com/maps/place/METRIC+BLVD+%26+KRAMER+LN,+Austin,+TX"/>
+    <hyperlink ref="I121" r:id="rId487" location="" tooltip="" display="https://goo.gl/maps/8bw6R341ynynUv4w5"/>
+    <hyperlink ref="J121" r:id="rId488" location="" tooltip="" display="https://goo.gl/maps/AGVzgZPLMg5Khrg8A"/>
+    <hyperlink ref="K121" r:id="rId489" location="" tooltip="" display="https://goo.gl/maps/v677GYGfavVSaqs29"/>
+    <hyperlink ref="L121" r:id="rId490" location="" tooltip="" display="https://goo.gl/maps/WrJri2Xpm25fdCBs7"/>
+    <hyperlink ref="H122" r:id="rId491" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+SPRINGDALE+RD,+Austin,+TX"/>
+    <hyperlink ref="I122" r:id="rId492" location="" tooltip="" display="https://goo.gl/maps/7Ga3AYBNncQXA35TA"/>
+    <hyperlink ref="J122" r:id="rId493" location="" tooltip="" display="https://goo.gl/maps/HMWefQZN3GThMjK16"/>
+    <hyperlink ref="K122" r:id="rId494" location="" tooltip="" display="https://goo.gl/maps/mnbzF1kKHoATFqmh8"/>
+    <hyperlink ref="L122" r:id="rId495" location="" tooltip="" display="https://goo.gl/maps/PELtMYbJ4VcAxysC9"/>
+    <hyperlink ref="H123" r:id="rId496" location="" tooltip="" display="https://www.google.com/maps/place/SPRINGDALE+RD+%26+51ST+ST,+Austin,+TX"/>
+    <hyperlink ref="I123" r:id="rId497" location="" tooltip="" display="https://goo.gl/maps/firaP6nr2Z9RDbCX8"/>
+    <hyperlink ref="J123" r:id="rId498" location="" tooltip="" display="https://goo.gl/maps/endg7BJUZE383Ldo7"/>
+    <hyperlink ref="K123" r:id="rId499" location="" tooltip="" display="https://goo.gl/maps/XJaJkwwNkuNyxKdw9"/>
+    <hyperlink ref="L123" r:id="rId500" location="" tooltip="" display="https://goo.gl/maps/mzMwLmoaCpE7ZaWv9"/>
+    <hyperlink ref="H124" r:id="rId501" location="" tooltip="" display="https://www.google.com/maps/place/MARTIN+LUTHER+KING+JR+BLVD+%26+TANNEHILL+LN,+Austin,+TX"/>
+    <hyperlink ref="I124" r:id="rId502" location="" tooltip="" display="https://goo.gl/maps/wMp9GHyejd3qKxJn7"/>
+    <hyperlink ref="J124" r:id="rId503" location="" tooltip="" display="https://goo.gl/maps/d2hk7tJGSZ52Yoan9"/>
+    <hyperlink ref="K124" r:id="rId504" location="" tooltip="" display="https://goo.gl/maps/kF3N6cStuvkajBpv5"/>
+    <hyperlink ref="L124" r:id="rId505" location="" tooltip="" display="https://goo.gl/maps/JwCfSa3cukU3Hcjq6"/>
+    <hyperlink ref="H125" r:id="rId506" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+PALO+BLANCO+LN,+Austin,+TX"/>
+    <hyperlink ref="I125" r:id="rId507" location="" tooltip="" display="https://goo.gl/maps/ig3TBVi1toXCtFjd9"/>
+    <hyperlink ref="J125" r:id="rId508" location="" tooltip="" display="https://goo.gl/maps/bnH4qomUk4TBmxkHA"/>
+    <hyperlink ref="K125" r:id="rId509" location="" tooltip="" display="https://goo.gl/maps/5jj5uWuAhRFjHcxW8"/>
+    <hyperlink ref="L125" r:id="rId510" location="" tooltip="" display="https://goo.gl/maps/zNMSYRYv2SNsRsAT7"/>
+    <hyperlink ref="H126" r:id="rId511" location="" tooltip="" display="https://www.google.com/maps/place/7TH+ST+%26+PLEASANT+VALLEY+RD,+Austin,+TX"/>
+    <hyperlink ref="I126" r:id="rId512" location="" tooltip="" display="https://goo.gl/maps/6BitBhpGfwB3pMoQ8"/>
+    <hyperlink ref="J126" r:id="rId513" location="" tooltip="" display="https://goo.gl/maps/5LqR3NoVdF6938cQA"/>
+    <hyperlink ref="K126" r:id="rId514" location="" tooltip="" display="https://goo.gl/maps/EoMEnssG9KRaPhtV7"/>
+    <hyperlink ref="L126" r:id="rId515" location="" tooltip="" display="https://goo.gl/maps/ayGHikfeLMQEi7bS6"/>
+    <hyperlink ref="H127" r:id="rId516" location="" tooltip="" display="https://www.google.com/maps/place/CESAR+CHAVEZ+ST+%26+COMAL+ST,+Austin,+TX"/>
+    <hyperlink ref="I127" r:id="rId517" location="" tooltip="" display="https://goo.gl/maps/yvYBmWAqAas9GQ7e8"/>
+    <hyperlink ref="J127" r:id="rId518" location="" tooltip="" display="https://goo.gl/maps/f3uUrzWRxG6s17rC8"/>
+    <hyperlink ref="K127" r:id="rId519" location="" tooltip="" display="https://goo.gl/maps/gwYNgqoNB1kjs6vs7"/>
+    <hyperlink ref="L127" r:id="rId520" location="" tooltip="" display="https://goo.gl/maps/L94X64ydjkVMknYD6"/>
+    <hyperlink ref="H128" r:id="rId521" location="" tooltip="" display="https://www.google.com/maps/place/PARMER+LN+%26+SPECTRUM+DR,+Austin,+TX"/>
+    <hyperlink ref="I128" r:id="rId522" location="" tooltip="" display="https://goo.gl/maps/ocVnT59W8mgUWpXb9"/>
+    <hyperlink ref="J128" r:id="rId523" location="" tooltip="" display="https://goo.gl/maps/HGKsYrbgHF2ayee48"/>
+    <hyperlink ref="K128" r:id="rId524" location="" tooltip="" display="https://goo.gl/maps/9SRR2tn1UGLu3RWj9"/>
+    <hyperlink ref="L128" r:id="rId525" location="" tooltip="" display="https://goo.gl/maps/roJ876eHfV4zm8wNA"/>
+    <hyperlink ref="H129" r:id="rId526" location="" tooltip="" display="https://www.google.com/maps/place/35TH+ST+%26+JACKSON+AVE,+Austin,+TX"/>
+    <hyperlink ref="I129" r:id="rId527" location="" tooltip="" display="https://goo.gl/maps/v76u7Y1J1Ah3ENuV7"/>
+    <hyperlink ref="J129" r:id="rId528" location="" tooltip="" display="https://goo.gl/maps/Yb5BMDdgtdYxGTxB7"/>
+    <hyperlink ref="K129" r:id="rId529" location="" tooltip="" display="https://goo.gl/maps/8BbJY6LXpKbQzMVdA"/>
+    <hyperlink ref="L129" r:id="rId530" location="" tooltip="" display="https://goo.gl/maps/oxKyF8fahfxedqgF8"/>
+    <hyperlink ref="H130" r:id="rId531" location="" tooltip="" display="https://www.google.com/maps/place/FM+620+RD+%26+PARMER+LN,+Austin,+TX"/>
+    <hyperlink ref="I130" r:id="rId532" location="" tooltip="" display="https://goo.gl/maps/c9MQ22rnDgXkK6JA8"/>
+    <hyperlink ref="J130" r:id="rId533" location="" tooltip="" display="https://goo.gl/maps/fFs7EzcCfVDeNo9e6"/>
+    <hyperlink ref="K130" r:id="rId534" location="" tooltip="" display="https://goo.gl/maps/by4T44ZZkX8t2GQT7"/>
+    <hyperlink ref="H131" r:id="rId535" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BLUEBONNET+LN,+Austin,+TX"/>
+    <hyperlink ref="I131" r:id="rId536" location="" tooltip="" display="https://goo.gl/maps/iKaCZdAFmcT32Q8s7"/>
+    <hyperlink ref="K131" r:id="rId537" location="" tooltip="" display="https://goo.gl/maps/qVU8LL3mKveW3ZPW6"/>
+    <hyperlink ref="L131" r:id="rId538" location="" tooltip="" display="https://goo.gl/maps/FpHjYFVJQM6YUevLA"/>
+    <hyperlink ref="H132" r:id="rId539" location="" tooltip="" display="https://www.google.com/maps/place/STASSNEY+LN+%26+NUCKOLS+CROSSING+RD,+Austin,+TX"/>
+    <hyperlink ref="I132" r:id="rId540" location="" tooltip="" display="https://goo.gl/maps/EvYtRfBRU7rbWhrZA"/>
+    <hyperlink ref="J132" r:id="rId541" location="" tooltip="" display="https://goo.gl/maps/PBEXL3ptu82zdTtt9"/>
+    <hyperlink ref="K132" r:id="rId542" location="" tooltip="" display="https://goo.gl/maps/hh8PZFMiajiEBDNi6"/>
+    <hyperlink ref="L132" r:id="rId543" location="" tooltip="" display="https://goo.gl/maps/ukxxLScnKgHYykYU9"/>
+    <hyperlink ref="H133" r:id="rId544" location="" tooltip="" display="https://www.google.com/maps/place/BRODIE+LN+%26+290+HWY+SVRD,+Austin,+TX"/>
+    <hyperlink ref="I133" r:id="rId545" location="" tooltip="" display="https://goo.gl/maps/TgZdLynmEegdMKhD9"/>
+    <hyperlink ref="J133" r:id="rId546" location="" tooltip="" display="https://goo.gl/maps/6WPHDfofA4iU3UBh9"/>
+    <hyperlink ref="K133" r:id="rId547" location="" tooltip="" display="https://goo.gl/maps/3dRkw43X1wYuSUKG9"/>
+    <hyperlink ref="H134" r:id="rId548" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+FOSTER+RANCH+RD,+Austin,+TX"/>
+    <hyperlink ref="I134" r:id="rId549" location="" tooltip="" display="https://goo.gl/maps/4b5C1GKrMSDJ5dDi8"/>
+    <hyperlink ref="J134" r:id="rId550" location="" tooltip="" display="https://goo.gl/maps/UMHeTH8qM9nD4pne8"/>
+    <hyperlink ref="K134" r:id="rId551" location="" tooltip="" display="https://goo.gl/maps/WHTJAgza4Akop8GS9"/>
+    <hyperlink ref="L134" r:id="rId552" location="" tooltip="" display="https://goo.gl/maps/HUzUNs6LoY1bddet5"/>
+    <hyperlink ref="H135" r:id="rId553" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+MENCHACA+RD+,+Austin,+TX"/>
+    <hyperlink ref="I135" r:id="rId554" location="" tooltip="" display="https://goo.gl/maps/sibKoAey5HWpCXuM9"/>
+    <hyperlink ref="K135" r:id="rId555" location="" tooltip="" display="https://goo.gl/maps/an1ZsoTPPHTu9HFKA"/>
+    <hyperlink ref="L135" r:id="rId556" location="" tooltip="" display="https://goo.gl/maps/7qhwJ9DpxQodnxaRA"/>
+    <hyperlink ref="H136" r:id="rId557" location="" tooltip="" display="https://www.google.com/maps/place/LAMAR+BLVD+%26+BARTON+SKWY+,+Austin,+TX"/>
+    <hyperlink ref="I136" r:id="rId558" location="" tooltip="" display="https://goo.gl/maps/n19VqbzBeF9KJgfW6"/>
+    <hyperlink ref="J136" r:id="rId559" location="" tooltip="" display="https://goo.gl/maps/yAxUZUpCeGFT1Ehj6"/>
+    <hyperlink ref="K136" r:id="rId560" location="" tooltip="" display="https://goo.gl/maps/CdGzmfvr8fNLzZnj6"/>
+    <hyperlink ref="L136" r:id="rId561" location="" tooltip="" display="https://goo.gl/maps/zbTtfcd6Hqckytx3A"/>
+    <hyperlink ref="H137" r:id="rId562" location="" tooltip="" display="https://www.google.com/maps/place/SOUTHWEST+PKWY+%26+REPUBLIC+OF+TEXAS+BLVD,+Austin,+TX"/>
+    <hyperlink ref="I137" r:id="rId563" location="" tooltip="" display="https://goo.gl/maps/683aFsUn4uDTtxqW8"/>
+    <hyperlink ref="J137" r:id="rId564" location="" tooltip="" display="https://goo.gl/maps/7USBcXtzPJrBd7R8A"/>
+    <hyperlink ref="L137" r:id="rId565" location="" tooltip="" display="https://goo.gl/maps/5erjFkQffpEj7b718"/>
+    <hyperlink ref="H138" r:id="rId566" location="" tooltip="" display="https://www.google.com/maps/place/SHOAL+CREEK+BLVD+%26+HANCOCK+DR,+Austin,+TX"/>
+    <hyperlink ref="I138" r:id="rId567" location="" tooltip="" display="https://goo.gl/maps/8t12iujeT587qSm56"/>
+    <hyperlink ref="J138" r:id="rId568" location="" tooltip="" display="https://goo.gl/maps/oAoDCHz7SMhhcSmo8"/>
+    <hyperlink ref="K138" r:id="rId569" location="" tooltip="" display="https://goo.gl/maps/GU4Q5b1gvgVXQ7gU6"/>
+    <hyperlink ref="L138" r:id="rId570" location="" tooltip="" display="https://goo.gl/maps/2kurqLrzeM57gwKz8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
